--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Chitnis\Videos\Results Genetaor\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A0913E-4D3F-4C82-945A-36B1AB48A1ED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B45ADB-A58C-499E-A3B3-73F7A29B06C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -18,7 +18,6 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="PicUp">INDEX([1]Sheet1!$C$2:$C$121,MATCH('Final Grade Card'!$D$13:$O$13,[1]Sheet1!$A$2:$A$121,0))</definedName>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>University of Mumbai</t>
   </si>
@@ -175,6 +174,9 @@
   </si>
   <si>
     <t>DECEMBER 2018</t>
+  </si>
+  <si>
+    <t>MMS18-20/1</t>
   </si>
 </sst>
 </file>
@@ -500,22 +502,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>16</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
+          <xdr:rowOff>19049</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
-          <xdr:colOff>800100</xdr:colOff>
+          <xdr:colOff>828675</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>162447</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="5" name="Picture 4">
+            <xdr:cNvPr id="8" name="Picture 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC25165-A951-4752-B1EE-5F17AD62DE61}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8854B5-4655-43C8-8E81-122493EAE494}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -523,7 +525,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2093"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2101"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -537,8 +539,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7372350" y="1314450"/>
-              <a:ext cx="1133475" cy="1010172"/>
+              <a:off x="7353300" y="1295399"/>
+              <a:ext cx="1181100" cy="1047751"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -580,8 +582,8 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2">
-            <v>1820001</v>
+          <cell r="A2" t="str">
+            <v>MMS18-20/1</v>
           </cell>
           <cell r="B2" t="str">
             <v>ADEPU CHETAN GANESH ARCHANA</v>
@@ -591,8 +593,8 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3">
-            <v>1820002</v>
+          <cell r="A3" t="str">
+            <v>MMS18-20/2</v>
           </cell>
           <cell r="B3" t="str">
             <v>ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
@@ -602,8 +604,8 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4">
-            <v>1820003</v>
+          <cell r="A4" t="str">
+            <v>MMS18-20/3</v>
           </cell>
           <cell r="B4" t="str">
             <v>AMBALLA VISHAL MANOHAR BHARATHI</v>
@@ -613,8 +615,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5">
-            <v>1820004</v>
+          <cell r="A5" t="str">
+            <v>MMS18-20/4</v>
           </cell>
           <cell r="B5" t="str">
             <v>AMIN MEENAL PRAVIN ANITA</v>
@@ -624,8 +626,8 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6">
-            <v>1820005</v>
+          <cell r="A6" t="str">
+            <v>MMS18-20/5</v>
           </cell>
           <cell r="B6" t="str">
             <v>ARANJO JULIANA MICHAEL LEENA</v>
@@ -635,8 +637,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7">
-            <v>1820006</v>
+          <cell r="A7" t="str">
+            <v>MMS18-20/6</v>
           </cell>
           <cell r="B7" t="str">
             <v>BAGUL PRANAV PRAMOD MEENA</v>
@@ -646,8 +648,8 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8">
-            <v>1820007</v>
+          <cell r="A8" t="str">
+            <v>MMS18-20/7</v>
           </cell>
           <cell r="B8" t="str">
             <v>BAMANE RENUKA UTTAM SUNITA</v>
@@ -657,8 +659,8 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9">
-            <v>1820008</v>
+          <cell r="A9" t="str">
+            <v>MMS18-20/8</v>
           </cell>
           <cell r="B9" t="str">
             <v>BANSODE NAMRATA SUHAS SANGEETA</v>
@@ -668,8 +670,8 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10">
-            <v>1820009</v>
+          <cell r="A10" t="str">
+            <v>MMS18-20/9</v>
           </cell>
           <cell r="B10" t="str">
             <v>BHAJANI DHANASHREE MANOHAR KAVITA</v>
@@ -679,8 +681,8 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11">
-            <v>1820010</v>
+          <cell r="A11" t="str">
+            <v>MMS18-20/10</v>
           </cell>
           <cell r="B11" t="str">
             <v>BHANGALE BHUPENDRA RAMESH JYOTI</v>
@@ -690,8 +692,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12">
-            <v>1820011</v>
+          <cell r="A12" t="str">
+            <v>MMS18-20/11</v>
           </cell>
           <cell r="B12" t="str">
             <v>BHATKAR ANAGHA ANIL AKSHATA</v>
@@ -701,8 +703,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13">
-            <v>1820012</v>
+          <cell r="A13" t="str">
+            <v>MMS18-20/12</v>
           </cell>
           <cell r="B13" t="str">
             <v>BHOIR PRANAV SURESH SWETA</v>
@@ -712,8 +714,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14">
-            <v>1820013</v>
+          <cell r="A14" t="str">
+            <v>MMS18-20/13</v>
           </cell>
           <cell r="B14" t="str">
             <v>BHOIR VINAYAK CHINTAMAN SHALINI</v>
@@ -723,8 +725,8 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15">
-            <v>1820014</v>
+          <cell r="A15" t="str">
+            <v>MMS18-20/14</v>
           </cell>
           <cell r="B15" t="str">
             <v>BHOSALE MAYUR PRATAPRAO USHA</v>
@@ -734,8 +736,8 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16">
-            <v>1820015</v>
+          <cell r="A16" t="str">
+            <v>MMS18-20/15</v>
           </cell>
           <cell r="B16" t="str">
             <v>BIDVI ABOLI AJENDRA NEHA</v>
@@ -745,8 +747,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17">
-            <v>1820016</v>
+          <cell r="A17" t="str">
+            <v>MMS18-20/16</v>
           </cell>
           <cell r="B17" t="str">
             <v>BORKAR DIPESH SHYAM SANGITA</v>
@@ -756,8 +758,8 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18">
-            <v>1820017</v>
+          <cell r="A18" t="str">
+            <v>MMS18-20/17</v>
           </cell>
           <cell r="B18" t="str">
             <v>CHANDORKAR PRAJAL MADHUKAR VANITA</v>
@@ -767,8 +769,8 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19">
-            <v>1820018</v>
+          <cell r="A19" t="str">
+            <v>MMS18-20/18</v>
           </cell>
           <cell r="B19" t="str">
             <v>CHAUDHARI TRUPAL JEEVAN SMITA</v>
@@ -778,8 +780,8 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20">
-            <v>1820019</v>
+          <cell r="A20" t="str">
+            <v>MMS18-20/19</v>
           </cell>
           <cell r="B20" t="str">
             <v>CHAVAN SURAJ SURESH SUREKHA</v>
@@ -789,8 +791,8 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21">
-            <v>1820020</v>
+          <cell r="A21" t="str">
+            <v>MMS18-20/20</v>
           </cell>
           <cell r="B21" t="str">
             <v>CHAWHAN SAMTA VIJAY SUNITA</v>
@@ -800,8 +802,8 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="A22">
-            <v>1820021</v>
+          <cell r="A22" t="str">
+            <v>MMS18-20/21</v>
           </cell>
           <cell r="B22" t="str">
             <v>DESAI SAURABH HARESH HARSHADA</v>
@@ -811,8 +813,8 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23">
-            <v>1820022</v>
+          <cell r="A23" t="str">
+            <v>MMS18-20/22</v>
           </cell>
           <cell r="B23" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -822,8 +824,8 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24">
-            <v>1820023</v>
+          <cell r="A24" t="str">
+            <v>MMS18-20/23</v>
           </cell>
           <cell r="B24" t="str">
             <v xml:space="preserve">PICHAD DESHMUKH GIRIJA HEMANT MOHINI </v>
@@ -833,8 +835,8 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25">
-            <v>1820024</v>
+          <cell r="A25" t="str">
+            <v>MMS18-20/24</v>
           </cell>
           <cell r="B25" t="str">
             <v>DHUMAL SAURABH RAMESH RAJASHREE</v>
@@ -844,8 +846,8 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26">
-            <v>1820025</v>
+          <cell r="A26" t="str">
+            <v>MMS18-20/25</v>
           </cell>
           <cell r="B26" t="str">
             <v>DSOUZA FLOSSIE JOACHIM RITA</v>
@@ -855,8 +857,8 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27">
-            <v>1820026</v>
+          <cell r="A27" t="str">
+            <v>MMS18-20/26</v>
           </cell>
           <cell r="B27" t="str">
             <v>DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</v>
@@ -866,8 +868,8 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28">
-            <v>1820027</v>
+          <cell r="A28" t="str">
+            <v>MMS18-20/27</v>
           </cell>
           <cell r="B28" t="str">
             <v>ERANDE TRUPTI UTTAM SUNITA</v>
@@ -877,8 +879,8 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="A29">
-            <v>1820028</v>
+          <cell r="A29" t="str">
+            <v>MMS18-20/28</v>
           </cell>
           <cell r="B29" t="str">
             <v>GAMBHIRRAO MANISH HARISHCHANDRA RANJANA</v>
@@ -888,8 +890,8 @@
           </cell>
         </row>
         <row r="30">
-          <cell r="A30">
-            <v>1820029</v>
+          <cell r="A30" t="str">
+            <v>MMS18-20/29</v>
           </cell>
           <cell r="B30" t="str">
             <v>GANGANI ANKIT SURESH TEJAL</v>
@@ -899,8 +901,8 @@
           </cell>
         </row>
         <row r="31">
-          <cell r="A31">
-            <v>1820030</v>
+          <cell r="A31" t="str">
+            <v>MMS18-20/30</v>
           </cell>
           <cell r="B31" t="str">
             <v>GANGURDE SAKSHI SUDHIR ASHA</v>
@@ -910,8 +912,8 @@
           </cell>
         </row>
         <row r="32">
-          <cell r="A32">
-            <v>1820031</v>
+          <cell r="A32" t="str">
+            <v>MMS18-20/31</v>
           </cell>
           <cell r="B32" t="str">
             <v>GHUMARE SANKET RAMESH JAYSHREE</v>
@@ -921,8 +923,8 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="A33">
-            <v>1820032</v>
+          <cell r="A33" t="str">
+            <v>MMS18-20/32</v>
           </cell>
           <cell r="B33" t="str">
             <v>GUPTA NITIN RAJESH CHANDRAKALA</v>
@@ -932,8 +934,8 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="A34">
-            <v>1820033</v>
+          <cell r="A34" t="str">
+            <v>MMS18-20/33</v>
           </cell>
           <cell r="B34" t="str">
             <v>HANDE RAHUL RANGARAO NALINI</v>
@@ -943,8 +945,8 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="A35">
-            <v>1820034</v>
+          <cell r="A35" t="str">
+            <v>MMS18-20/34</v>
           </cell>
           <cell r="B35" t="str">
             <v>HARMALKAR PRATHAMESH SUBHASH SUBHASHINI</v>
@@ -954,8 +956,8 @@
           </cell>
         </row>
         <row r="36">
-          <cell r="A36">
-            <v>1820035</v>
+          <cell r="A36" t="str">
+            <v>MMS18-20/35</v>
           </cell>
           <cell r="B36" t="str">
             <v>KADAM AVIRAJ MOHAN MOHINI</v>
@@ -965,8 +967,8 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="A37">
-            <v>1820036</v>
+          <cell r="A37" t="str">
+            <v>MMS18-20/36</v>
           </cell>
           <cell r="B37" t="str">
             <v>JADHAV ANKUR SHIVAJI ANAGHA</v>
@@ -976,8 +978,8 @@
           </cell>
         </row>
         <row r="38">
-          <cell r="A38">
-            <v>1820037</v>
+          <cell r="A38" t="str">
+            <v>MMS18-20/37</v>
           </cell>
           <cell r="B38" t="str">
             <v>KADAM AKSHAY RAMESH REEMA</v>
@@ -987,8 +989,8 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="A39">
-            <v>1820038</v>
+          <cell r="A39" t="str">
+            <v>MMS18-20/38</v>
           </cell>
           <cell r="B39" t="str">
             <v>KADAM SHANTANU DILEEP ANITA</v>
@@ -998,8 +1000,8 @@
           </cell>
         </row>
         <row r="40">
-          <cell r="A40">
-            <v>1820039</v>
+          <cell r="A40" t="str">
+            <v>MMS18-20/39</v>
           </cell>
           <cell r="B40" t="str">
             <v>KAMBLE NIKHIL KESHAVRAO SUSHILA</v>
@@ -1009,8 +1011,8 @@
           </cell>
         </row>
         <row r="41">
-          <cell r="A41">
-            <v>1820040</v>
+          <cell r="A41" t="str">
+            <v>MMS18-20/40</v>
           </cell>
           <cell r="B41" t="str">
             <v>KAMBLE SIDDHESH RAMESH SUHASINI</v>
@@ -1020,8 +1022,8 @@
           </cell>
         </row>
         <row r="42">
-          <cell r="A42">
-            <v>1820041</v>
+          <cell r="A42" t="str">
+            <v>MMS18-20/41</v>
           </cell>
           <cell r="B42" t="str">
             <v>KATARE MAYANK PRAMOD PRANITA</v>
@@ -1031,8 +1033,8 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="A43">
-            <v>1820042</v>
+          <cell r="A43" t="str">
+            <v>MMS18-20/42</v>
           </cell>
           <cell r="B43" t="str">
             <v>KHAN SAIF ALI NIZAM BILKIS</v>
@@ -1042,8 +1044,8 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="A44">
-            <v>1820043</v>
+          <cell r="A44" t="str">
+            <v>MMS18-20/43</v>
           </cell>
           <cell r="B44" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -1053,8 +1055,8 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45">
-            <v>1820044</v>
+          <cell r="A45" t="str">
+            <v>MMS18-20/44</v>
           </cell>
           <cell r="B45" t="str">
             <v>KOLGE VARDA DEEPAK AARTI</v>
@@ -1064,8 +1066,8 @@
           </cell>
         </row>
         <row r="46">
-          <cell r="A46">
-            <v>1820045</v>
+          <cell r="A46" t="str">
+            <v>MMS18-20/45</v>
           </cell>
           <cell r="B46" t="str">
             <v>KOLI PRATIK PRABHAKAR NALINI</v>
@@ -1075,8 +1077,8 @@
           </cell>
         </row>
         <row r="47">
-          <cell r="A47">
-            <v>1820046</v>
+          <cell r="A47" t="str">
+            <v>MMS18-20/46</v>
           </cell>
           <cell r="B47" t="str">
             <v>KONDEKAR VAIBHAV VIJAY VAISHALI</v>
@@ -1086,8 +1088,8 @@
           </cell>
         </row>
         <row r="48">
-          <cell r="A48">
-            <v>1820047</v>
+          <cell r="A48" t="str">
+            <v>MMS18-20/47</v>
           </cell>
           <cell r="B48" t="str">
             <v>KORE PRASHEEL PRASHANT SHEELA</v>
@@ -1097,8 +1099,8 @@
           </cell>
         </row>
         <row r="49">
-          <cell r="A49">
-            <v>1820048</v>
+          <cell r="A49" t="str">
+            <v>MMS18-20/48</v>
           </cell>
           <cell r="B49" t="str">
             <v>LATE VISHAL BALASAHEB PRAMILA</v>
@@ -1108,8 +1110,8 @@
           </cell>
         </row>
         <row r="50">
-          <cell r="A50">
-            <v>1820049</v>
+          <cell r="A50" t="str">
+            <v>MMS18-20/49</v>
           </cell>
           <cell r="B50" t="str">
             <v xml:space="preserve">LOKE TEJAL JITENDRA GEETA </v>
@@ -1119,8 +1121,8 @@
           </cell>
         </row>
         <row r="51">
-          <cell r="A51">
-            <v>1820050</v>
+          <cell r="A51" t="str">
+            <v>MMS18-20/50</v>
           </cell>
           <cell r="B51" t="str">
             <v>MANDAVKAR CHAITRALI SANJAY SUCHITA</v>
@@ -1130,8 +1132,8 @@
           </cell>
         </row>
         <row r="52">
-          <cell r="A52">
-            <v>1820051</v>
+          <cell r="A52" t="str">
+            <v>MMS18-20/51</v>
           </cell>
           <cell r="B52" t="str">
             <v>MARCHANDE SHWETA SHANTARAM SHEETAL</v>
@@ -1141,8 +1143,8 @@
           </cell>
         </row>
         <row r="53">
-          <cell r="A53">
-            <v>1820052</v>
+          <cell r="A53" t="str">
+            <v>MMS18-20/52</v>
           </cell>
           <cell r="B53" t="str">
             <v>MHATRE VARAD GURUNATH SUSHMA</v>
@@ -1152,8 +1154,8 @@
           </cell>
         </row>
         <row r="54">
-          <cell r="A54">
-            <v>1820053</v>
+          <cell r="A54" t="str">
+            <v>MMS18-20/53</v>
           </cell>
           <cell r="B54" t="str">
             <v>MISHRA RASHMI SHIVKANT PRATIBHA</v>
@@ -1163,8 +1165,8 @@
           </cell>
         </row>
         <row r="55">
-          <cell r="A55">
-            <v>1820054</v>
+          <cell r="A55" t="str">
+            <v>MMS18-20/54</v>
           </cell>
           <cell r="B55" t="str">
             <v>NAIR ANAGHA ANANDKUMAR BHANUMATHI</v>
@@ -1174,8 +1176,8 @@
           </cell>
         </row>
         <row r="56">
-          <cell r="A56">
-            <v>1820055</v>
+          <cell r="A56" t="str">
+            <v>MMS18-20/55</v>
           </cell>
           <cell r="B56" t="str">
             <v xml:space="preserve">PANCHAL ANIKET AVINASH AARTI </v>
@@ -1185,8 +1187,8 @@
           </cell>
         </row>
         <row r="57">
-          <cell r="A57">
-            <v>1820056</v>
+          <cell r="A57" t="str">
+            <v>MMS18-20/56</v>
           </cell>
           <cell r="B57" t="str">
             <v>SHAIKH SAMEER MOHAMMADHUSSAIN FATIMA</v>
@@ -1196,8 +1198,8 @@
           </cell>
         </row>
         <row r="58">
-          <cell r="A58">
-            <v>1820057</v>
+          <cell r="A58" t="str">
+            <v>MMS18-20/57</v>
           </cell>
           <cell r="B58" t="str">
             <v>SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</v>
@@ -1207,8 +1209,8 @@
           </cell>
         </row>
         <row r="59">
-          <cell r="A59">
-            <v>1820058</v>
+          <cell r="A59" t="str">
+            <v>MMS18-20/58</v>
           </cell>
           <cell r="B59" t="str">
             <v>SINGH ASHWIN BHAGWANPRASAD SADHANA</v>
@@ -1218,8 +1220,8 @@
           </cell>
         </row>
         <row r="60">
-          <cell r="A60">
-            <v>1820059</v>
+          <cell r="A60" t="str">
+            <v>MMS18-20/59</v>
           </cell>
           <cell r="B60" t="str">
             <v>WANKHADE NIKHIL MADHUKAR JYOTI</v>
@@ -1229,8 +1231,8 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="A61">
-            <v>1820060</v>
+          <cell r="A61" t="str">
+            <v>MMS18-20/60</v>
           </cell>
           <cell r="B61" t="str">
             <v>WORLIKAR SIDDHANT PANKAJ VIDYA</v>
@@ -1240,8 +1242,8 @@
           </cell>
         </row>
         <row r="62">
-          <cell r="A62">
-            <v>1820061</v>
+          <cell r="A62" t="str">
+            <v>MMS18-20/61</v>
           </cell>
           <cell r="B62" t="str">
             <v>AGATE AKASH PRAKASH KIRAN</v>
@@ -1251,8 +1253,8 @@
           </cell>
         </row>
         <row r="63">
-          <cell r="A63">
-            <v>1820062</v>
+          <cell r="A63" t="str">
+            <v>MMS18-20/62</v>
           </cell>
           <cell r="B63" t="str">
             <v>AVHAD VISHAKHA MILIND RAKHI</v>
@@ -1262,8 +1264,8 @@
           </cell>
         </row>
         <row r="64">
-          <cell r="A64">
-            <v>1820063</v>
+          <cell r="A64" t="str">
+            <v>MMS18-20/63</v>
           </cell>
           <cell r="B64" t="str">
             <v>CHILE VARAD KISHOR NEHA</v>
@@ -1273,8 +1275,8 @@
           </cell>
         </row>
         <row r="65">
-          <cell r="A65">
-            <v>1820064</v>
+          <cell r="A65" t="str">
+            <v>MMS18-20/64</v>
           </cell>
           <cell r="B65" t="str">
             <v>DALVI AKASH SHANKAR NIRMALA</v>
@@ -1284,8 +1286,8 @@
           </cell>
         </row>
         <row r="66">
-          <cell r="A66">
-            <v>1820065</v>
+          <cell r="A66" t="str">
+            <v>MMS18-20/65</v>
           </cell>
           <cell r="B66" t="str">
             <v>DALVI RUTUJA JAGDISH SUPRIYA</v>
@@ -1295,8 +1297,8 @@
           </cell>
         </row>
         <row r="67">
-          <cell r="A67">
-            <v>1820066</v>
+          <cell r="A67" t="str">
+            <v>MMS18-20/66</v>
           </cell>
           <cell r="B67" t="str">
             <v xml:space="preserve">GANDHI BHAVIK AJAY HARSHA </v>
@@ -1306,8 +1308,8 @@
           </cell>
         </row>
         <row r="68">
-          <cell r="A68">
-            <v>1820067</v>
+          <cell r="A68" t="str">
+            <v>MMS18-20/67</v>
           </cell>
           <cell r="B68" t="str">
             <v>GUNDU MEGHNA GUNASHALI SUJATHA</v>
@@ -1317,8 +1319,8 @@
           </cell>
         </row>
         <row r="69">
-          <cell r="A69">
-            <v>1820068</v>
+          <cell r="A69" t="str">
+            <v>MMS18-20/68</v>
           </cell>
           <cell r="B69" t="str">
             <v>GUPTA AAYUSH NEELKAMAL MANSHA</v>
@@ -1328,8 +1330,8 @@
           </cell>
         </row>
         <row r="70">
-          <cell r="A70">
-            <v>1820069</v>
+          <cell r="A70" t="str">
+            <v>MMS18-20/69</v>
           </cell>
           <cell r="B70" t="str">
             <v>GUPTA PRAMOD OMPRAKASH RAMAVATI</v>
@@ -1339,8 +1341,8 @@
           </cell>
         </row>
         <row r="71">
-          <cell r="A71">
-            <v>1820070</v>
+          <cell r="A71" t="str">
+            <v>MMS18-20/70</v>
           </cell>
           <cell r="B71" t="str">
             <v>JADHAV SHWETA NARESH LATA</v>
@@ -1350,8 +1352,8 @@
           </cell>
         </row>
         <row r="72">
-          <cell r="A72">
-            <v>1820071</v>
+          <cell r="A72" t="str">
+            <v>MMS18-20/71</v>
           </cell>
           <cell r="B72" t="str">
             <v>INGLE ATHARAVA SHASHIKANT SAILEE</v>
@@ -1361,8 +1363,8 @@
           </cell>
         </row>
         <row r="73">
-          <cell r="A73">
-            <v>1820072</v>
+          <cell r="A73" t="str">
+            <v>MMS18-20/72</v>
           </cell>
           <cell r="B73" t="str">
             <v>KEMPU VIDYA LAXMAN SHANTAMMA</v>
@@ -1372,8 +1374,8 @@
           </cell>
         </row>
         <row r="74">
-          <cell r="A74">
-            <v>1820073</v>
+          <cell r="A74" t="str">
+            <v>MMS18-20/73</v>
           </cell>
           <cell r="B74" t="str">
             <v>KHADE VRUSHALEE SUKHADEV RAJASHREE</v>
@@ -1383,8 +1385,8 @@
           </cell>
         </row>
         <row r="75">
-          <cell r="A75">
-            <v>1820074</v>
+          <cell r="A75" t="str">
+            <v>MMS18-20/74</v>
           </cell>
           <cell r="B75" t="str">
             <v>KUSHWAHA PRAMOD RAMSAKHA ASHA</v>
@@ -1394,8 +1396,8 @@
           </cell>
         </row>
         <row r="76">
-          <cell r="A76">
-            <v>1820075</v>
+          <cell r="A76" t="str">
+            <v>MMS18-20/75</v>
           </cell>
           <cell r="B76" t="str">
             <v>MAURYA NEHA JAYSHANKAR GEETA</v>
@@ -1405,8 +1407,8 @@
           </cell>
         </row>
         <row r="77">
-          <cell r="A77">
-            <v>1820076</v>
+          <cell r="A77" t="str">
+            <v>MMS18-20/76</v>
           </cell>
           <cell r="B77" t="str">
             <v>PANCHAL SWAPNIL SATYAWAN MANASI</v>
@@ -1416,8 +1418,8 @@
           </cell>
         </row>
         <row r="78">
-          <cell r="A78">
-            <v>1820077</v>
+          <cell r="A78" t="str">
+            <v>MMS18-20/77</v>
           </cell>
           <cell r="B78" t="str">
             <v>PANDYA VANESHA EDWIN SHASHMIRA</v>
@@ -1427,8 +1429,8 @@
           </cell>
         </row>
         <row r="79">
-          <cell r="A79">
-            <v>1820078</v>
+          <cell r="A79" t="str">
+            <v>MMS18-20/78</v>
           </cell>
           <cell r="B79" t="str">
             <v xml:space="preserve">PATEKAR RUPESH GANESH MANJULA </v>
@@ -1438,8 +1440,8 @@
           </cell>
         </row>
         <row r="80">
-          <cell r="A80">
-            <v>1820079</v>
+          <cell r="A80" t="str">
+            <v>MMS18-20/79</v>
           </cell>
           <cell r="B80" t="str">
             <v>PATEL PRAGNESH KISHORBHAI DAMYANTIBEN</v>
@@ -1449,8 +1451,8 @@
           </cell>
         </row>
         <row r="81">
-          <cell r="A81">
-            <v>1820080</v>
+          <cell r="A81" t="str">
+            <v>MMS18-20/80</v>
           </cell>
           <cell r="B81" t="str">
             <v>PATIL CHAITALEE NARESH NAMITA</v>
@@ -1460,8 +1462,8 @@
           </cell>
         </row>
         <row r="82">
-          <cell r="A82">
-            <v>1820081</v>
+          <cell r="A82" t="str">
+            <v>MMS18-20/81</v>
           </cell>
           <cell r="B82" t="str">
             <v>PEDNEKAR MADHUGANDHA DILIP DEEPALI</v>
@@ -1471,8 +1473,8 @@
           </cell>
         </row>
         <row r="83">
-          <cell r="A83">
-            <v>1820082</v>
+          <cell r="A83" t="str">
+            <v>MMS18-20/82</v>
           </cell>
           <cell r="B83" t="str">
             <v>PHANSE SAILEE VINOD LEELA</v>
@@ -1482,8 +1484,8 @@
           </cell>
         </row>
         <row r="84">
-          <cell r="A84">
-            <v>1820083</v>
+          <cell r="A84" t="str">
+            <v>MMS18-20/83</v>
           </cell>
           <cell r="B84" t="str">
             <v>PRASAD ROHAN RAJENDRA RAJKUMARI</v>
@@ -1493,8 +1495,8 @@
           </cell>
         </row>
         <row r="85">
-          <cell r="A85">
-            <v>1820084</v>
+          <cell r="A85" t="str">
+            <v>MMS18-20/84</v>
           </cell>
           <cell r="B85" t="str">
             <v>RAI JAYESH RAVINDRANATH DIVYA</v>
@@ -1504,8 +1506,8 @@
           </cell>
         </row>
         <row r="86">
-          <cell r="A86">
-            <v>1820085</v>
+          <cell r="A86" t="str">
+            <v>MMS18-20/85</v>
           </cell>
           <cell r="B86" t="str">
             <v>RANE ASHWINI SANTOSH SAVITA</v>
@@ -1515,8 +1517,8 @@
           </cell>
         </row>
         <row r="87">
-          <cell r="A87">
-            <v>1820086</v>
+          <cell r="A87" t="str">
+            <v>MMS18-20/86</v>
           </cell>
           <cell r="B87" t="str">
             <v>RANE MAYURI SUHAS ARCHANA</v>
@@ -1526,8 +1528,8 @@
           </cell>
         </row>
         <row r="88">
-          <cell r="A88">
-            <v>1820087</v>
+          <cell r="A88" t="str">
+            <v>MMS18-20/87</v>
           </cell>
           <cell r="B88" t="str">
             <v>RAORANE SAINI SATISH SANCHITA</v>
@@ -1537,8 +1539,8 @@
           </cell>
         </row>
         <row r="89">
-          <cell r="A89">
-            <v>1820088</v>
+          <cell r="A89" t="str">
+            <v>MMS18-20/88</v>
           </cell>
           <cell r="B89" t="str">
             <v>RATHOD OMKAR PANDIT DEVIKA</v>
@@ -1548,8 +1550,8 @@
           </cell>
         </row>
         <row r="90">
-          <cell r="A90">
-            <v>1820089</v>
+          <cell r="A90" t="str">
+            <v>MMS18-20/89</v>
           </cell>
           <cell r="B90" t="str">
             <v>SANGLE SINDHANT NAVANATH PRATIBHA</v>
@@ -1559,8 +1561,8 @@
           </cell>
         </row>
         <row r="91">
-          <cell r="A91">
-            <v>1820090</v>
+          <cell r="A91" t="str">
+            <v>MMS18-20/90</v>
           </cell>
           <cell r="B91" t="str">
             <v>SARMALKAR SANIKA SUNILDATTA MANISHA</v>
@@ -1570,8 +1572,8 @@
           </cell>
         </row>
         <row r="92">
-          <cell r="A92">
-            <v>1820091</v>
+          <cell r="A92" t="str">
+            <v>MMS18-20/91</v>
           </cell>
           <cell r="B92" t="str">
             <v>SATAM NEHA ANIL ASMITA</v>
@@ -1581,8 +1583,8 @@
           </cell>
         </row>
         <row r="93">
-          <cell r="A93">
-            <v>1820092</v>
+          <cell r="A93" t="str">
+            <v>MMS18-20/92</v>
           </cell>
           <cell r="B93" t="str">
             <v>SAWANT AVADHUT RAJAN SHRADDHA</v>
@@ -1592,8 +1594,8 @@
           </cell>
         </row>
         <row r="94">
-          <cell r="A94">
-            <v>1820093</v>
+          <cell r="A94" t="str">
+            <v>MMS18-20/93</v>
           </cell>
           <cell r="B94" t="str">
             <v>SHARMA PALAK PRAHLAD MRIDULA</v>
@@ -1603,8 +1605,8 @@
           </cell>
         </row>
         <row r="95">
-          <cell r="A95">
-            <v>1820094</v>
+          <cell r="A95" t="str">
+            <v>MMS18-20/94</v>
           </cell>
           <cell r="B95" t="str">
             <v>SHETTY SHIFALI PRASHANT ASHALATA</v>
@@ -1614,8 +1616,8 @@
           </cell>
         </row>
         <row r="96">
-          <cell r="A96">
-            <v>1820095</v>
+          <cell r="A96" t="str">
+            <v>MMS18-20/95</v>
           </cell>
           <cell r="B96" t="str">
             <v>SHINDE AKSHAY SURENDRA SUPRIYA</v>
@@ -1625,8 +1627,8 @@
           </cell>
         </row>
         <row r="97">
-          <cell r="A97">
-            <v>1820096</v>
+          <cell r="A97" t="str">
+            <v>MMS18-20/96</v>
           </cell>
           <cell r="B97" t="str">
             <v>SHINDE ASHUTOSH BHASKAR BHAVANA</v>
@@ -1636,8 +1638,8 @@
           </cell>
         </row>
         <row r="98">
-          <cell r="A98">
-            <v>1820097</v>
+          <cell r="A98" t="str">
+            <v>MMS18-20/97</v>
           </cell>
           <cell r="B98" t="str">
             <v>SHINDE NIKHIL KRISHNAT MANISHA</v>
@@ -1647,8 +1649,8 @@
           </cell>
         </row>
         <row r="99">
-          <cell r="A99">
-            <v>1820098</v>
+          <cell r="A99" t="str">
+            <v>MMS18-20/98</v>
           </cell>
           <cell r="B99" t="str">
             <v>SHINDE SAIRAJ VIKAS SHRADHA</v>
@@ -1658,8 +1660,8 @@
           </cell>
         </row>
         <row r="100">
-          <cell r="A100">
-            <v>1820099</v>
+          <cell r="A100" t="str">
+            <v>MMS18-20/99</v>
           </cell>
           <cell r="B100" t="str">
             <v>SHINDE SURAJ SHASHIKANT SHOBHA</v>
@@ -1669,8 +1671,8 @@
           </cell>
         </row>
         <row r="101">
-          <cell r="A101">
-            <v>1820100</v>
+          <cell r="A101" t="str">
+            <v>MMS18-20/100</v>
           </cell>
           <cell r="B101" t="str">
             <v>SHITYALKAR SHUBHAM DHONDIBA SHALAN</v>
@@ -1680,8 +1682,8 @@
           </cell>
         </row>
         <row r="102">
-          <cell r="A102">
-            <v>1820101</v>
+          <cell r="A102" t="str">
+            <v>MMS18-20/101</v>
           </cell>
           <cell r="B102" t="str">
             <v>SHIVKAR PRIYANKA JANARDHAN REKHA</v>
@@ -1691,8 +1693,8 @@
           </cell>
         </row>
         <row r="103">
-          <cell r="A103">
-            <v>1820102</v>
+          <cell r="A103" t="str">
+            <v>MMS18-20/102</v>
           </cell>
           <cell r="B103" t="str">
             <v>SHRIGADI ROHIT DHARMENDRA RUPA</v>
@@ -1702,8 +1704,8 @@
           </cell>
         </row>
         <row r="104">
-          <cell r="A104">
-            <v>1820103</v>
+          <cell r="A104" t="str">
+            <v>MMS18-20/103</v>
           </cell>
           <cell r="B104" t="str">
             <v>SINGH PRATIK SANJAY MEENA</v>
@@ -1713,8 +1715,8 @@
           </cell>
         </row>
         <row r="105">
-          <cell r="A105">
-            <v>1820104</v>
+          <cell r="A105" t="str">
+            <v>MMS18-20/104</v>
           </cell>
           <cell r="B105" t="str">
             <v>SINGH VARSHA GURUPRASAD VEENA</v>
@@ -1724,8 +1726,8 @@
           </cell>
         </row>
         <row r="106">
-          <cell r="A106">
-            <v>1820105</v>
+          <cell r="A106" t="str">
+            <v>MMS18-20/105</v>
           </cell>
           <cell r="B106" t="str">
             <v>SOLANKI PRAKASH RAMESH SUREKHA</v>
@@ -1735,8 +1737,8 @@
           </cell>
         </row>
         <row r="107">
-          <cell r="A107">
-            <v>1820106</v>
+          <cell r="A107" t="str">
+            <v>MMS18-20/106</v>
           </cell>
           <cell r="B107" t="str">
             <v>SURYAVANSHI MAYURI DILIP BHAGIRATHI</v>
@@ -1746,8 +1748,8 @@
           </cell>
         </row>
         <row r="108">
-          <cell r="A108">
-            <v>1820107</v>
+          <cell r="A108" t="str">
+            <v>MMS18-20/107</v>
           </cell>
           <cell r="B108" t="str">
             <v>SWAMY VIOLET BENEDICT JULIET</v>
@@ -1757,8 +1759,8 @@
           </cell>
         </row>
         <row r="109">
-          <cell r="A109">
-            <v>1820108</v>
+          <cell r="A109" t="str">
+            <v>MMS18-20/108</v>
           </cell>
           <cell r="B109" t="str">
             <v xml:space="preserve">TAKKE SAIRAJ SURESH SHRUTIKA </v>
@@ -1768,8 +1770,8 @@
           </cell>
         </row>
         <row r="110">
-          <cell r="A110">
-            <v>1820109</v>
+          <cell r="A110" t="str">
+            <v>MMS18-20/109</v>
           </cell>
           <cell r="B110" t="str">
             <v>TALELE BHOOMA GHANASHYAM KALPANA</v>
@@ -1779,8 +1781,8 @@
           </cell>
         </row>
         <row r="111">
-          <cell r="A111">
-            <v>1820110</v>
+          <cell r="A111" t="str">
+            <v>MMS18-20/110</v>
           </cell>
           <cell r="B111" t="str">
             <v>THOOLKAR SAMEER ARVIND KIRAN</v>
@@ -1790,8 +1792,8 @@
           </cell>
         </row>
         <row r="112">
-          <cell r="A112">
-            <v>1820111</v>
+          <cell r="A112" t="str">
+            <v>MMS18-20/111</v>
           </cell>
           <cell r="B112" t="str">
             <v>TIWARI VIKAS CHINTAMANI SHAILA</v>
@@ -1801,8 +1803,8 @@
           </cell>
         </row>
         <row r="113">
-          <cell r="A113">
-            <v>1820112</v>
+          <cell r="A113" t="str">
+            <v>MMS18-20/112</v>
           </cell>
           <cell r="B113" t="str">
             <v>TREHAN VILAKSHAN SUMAN NEENA</v>
@@ -1812,8 +1814,8 @@
           </cell>
         </row>
         <row r="114">
-          <cell r="A114">
-            <v>1820113</v>
+          <cell r="A114" t="str">
+            <v>MMS18-20/113</v>
           </cell>
           <cell r="B114" t="str">
             <v>VHAVALE YOGESH VIJANAND ANITA</v>
@@ -1823,8 +1825,8 @@
           </cell>
         </row>
         <row r="115">
-          <cell r="A115">
-            <v>1820114</v>
+          <cell r="A115" t="str">
+            <v>MMS18-20/114</v>
           </cell>
           <cell r="B115" t="str">
             <v>VICHARE SAMRUDHI SANJAY VAIBHAVI</v>
@@ -1834,8 +1836,8 @@
           </cell>
         </row>
         <row r="116">
-          <cell r="A116">
-            <v>1820115</v>
+          <cell r="A116" t="str">
+            <v>MMS18-20/115</v>
           </cell>
           <cell r="B116" t="str">
             <v>WAGHMARE SHEETAL SURYAKANT SUNANDA</v>
@@ -1845,8 +1847,8 @@
           </cell>
         </row>
         <row r="117">
-          <cell r="A117">
-            <v>1820116</v>
+          <cell r="A117" t="str">
+            <v>MMS18-20/116</v>
           </cell>
           <cell r="B117" t="str">
             <v>WANI SHUBHAM RAJENDRA  JYOTI</v>
@@ -1856,8 +1858,8 @@
           </cell>
         </row>
         <row r="118">
-          <cell r="A118">
-            <v>1820117</v>
+          <cell r="A118" t="str">
+            <v>MMS18-20/117</v>
           </cell>
           <cell r="B118" t="str">
             <v>YADAV ANKITA OMPRAKASH SHASHANK DEVI</v>
@@ -1867,8 +1869,8 @@
           </cell>
         </row>
         <row r="119">
-          <cell r="A119">
-            <v>1820118</v>
+          <cell r="A119" t="str">
+            <v>MMS18-20/118</v>
           </cell>
           <cell r="B119" t="str">
             <v>YADAV ANUSH MAHANTA MALTI</v>
@@ -1878,8 +1880,8 @@
           </cell>
         </row>
         <row r="120">
-          <cell r="A120">
-            <v>1820119</v>
+          <cell r="A120" t="str">
+            <v>MMS18-20/119</v>
           </cell>
           <cell r="B120" t="str">
             <v>YADAV SUMAN RAMJEET SAVITRIDEVI</v>
@@ -1889,14 +1891,118 @@
           </cell>
         </row>
         <row r="121">
-          <cell r="A121">
-            <v>1820120</v>
+          <cell r="A121" t="str">
+            <v>MMS18-20/120</v>
           </cell>
           <cell r="B121" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
           </cell>
           <cell r="C121" t="str">
             <v>NA</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122" t="str">
+            <v>MMS18-20/121</v>
+          </cell>
+          <cell r="B122" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>MMS18-20/122</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>MMS18-20/123</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>MMS18-20/124</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>MMS18-20/125</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>MMS18-20/126</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>MMS18-20/127</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>MMS18-20/128</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>MMS18-20/129</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>MMS18-20/130</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>MMS18-20/131</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>MMS18-20/132</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>MMS18-20/133</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
           </cell>
         </row>
       </sheetData>
@@ -1914,8 +2020,8 @@
     <sheetDataSet>
       <sheetData sheetId="0">
         <row r="3">
-          <cell r="A3">
-            <v>1820001</v>
+          <cell r="A3" t="str">
+            <v>MMS18-20/1</v>
           </cell>
           <cell r="B3" t="str">
             <v>ADEPU CHETAN GANESH ARCHANA</v>
@@ -1942,25 +2048,25 @@
             <v>40</v>
           </cell>
           <cell r="J3">
-            <v>30</v>
+            <v>40</v>
           </cell>
           <cell r="K3">
+            <v>60</v>
+          </cell>
+          <cell r="L3">
+            <v>100</v>
+          </cell>
+          <cell r="M3" t="str">
+            <v>O</v>
+          </cell>
+          <cell r="N3" t="str">
+            <v>10</v>
+          </cell>
+          <cell r="O3">
+            <v>4</v>
+          </cell>
+          <cell r="P3">
             <v>40</v>
-          </cell>
-          <cell r="L3">
-            <v>70</v>
-          </cell>
-          <cell r="M3" t="str">
-            <v>A</v>
-          </cell>
-          <cell r="N3" t="str">
-            <v>8</v>
-          </cell>
-          <cell r="O3">
-            <v>4</v>
-          </cell>
-          <cell r="P3">
-            <v>32</v>
           </cell>
           <cell r="Q3">
             <v>30</v>
@@ -2089,39 +2195,39 @@
             <v>32</v>
           </cell>
           <cell r="BG3">
-            <v>250</v>
+            <v>260</v>
           </cell>
           <cell r="BH3">
-            <v>340</v>
+            <v>360</v>
           </cell>
           <cell r="BI3">
-            <v>590</v>
+            <v>620</v>
           </cell>
           <cell r="BJ3">
-            <v>66</v>
+            <v>68</v>
           </cell>
           <cell r="BK3">
-            <v>264</v>
+            <v>272</v>
           </cell>
           <cell r="BL3">
-            <v>73.75</v>
+            <v>77.5</v>
           </cell>
           <cell r="BM3" t="str">
             <v>Successful</v>
           </cell>
           <cell r="BN3">
-            <v>8.25</v>
+            <v>8.5</v>
           </cell>
           <cell r="BO3" t="str">
-            <v>A</v>
+            <v>A+</v>
           </cell>
           <cell r="BP3" t="str">
             <v>70.74.99</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="A4">
-            <v>1820002</v>
+          <cell r="A4" t="str">
+            <v>MMS18-20/2</v>
           </cell>
           <cell r="B4" t="str">
             <v>ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
@@ -2326,8 +2432,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5">
-            <v>1820003</v>
+          <cell r="A5" t="str">
+            <v>MMS18-20/3</v>
           </cell>
           <cell r="B5" t="str">
             <v>AMBALLA VISHAL MANOHAR BHARATHI</v>
@@ -2532,8 +2638,8 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6">
-            <v>1820004</v>
+          <cell r="A6" t="str">
+            <v>MMS18-20/4</v>
           </cell>
           <cell r="B6" t="str">
             <v>AMIN MEENAL PRAVIN ANITA</v>
@@ -2738,8 +2844,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7">
-            <v>1820005</v>
+          <cell r="A7" t="str">
+            <v>MMS18-20/5</v>
           </cell>
           <cell r="B7" t="str">
             <v>ARANJO JULIANA MICHAEL LEENA</v>
@@ -2944,8 +3050,8 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8">
-            <v>1820006</v>
+          <cell r="A8" t="str">
+            <v>MMS18-20/6</v>
           </cell>
           <cell r="B8" t="str">
             <v>BAGUL PRANAV PRAMOD MEENA</v>
@@ -3150,8 +3256,8 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9">
-            <v>1820007</v>
+          <cell r="A9" t="str">
+            <v>MMS18-20/7</v>
           </cell>
           <cell r="B9" t="str">
             <v>BAMANE RENUKA UTTAM SUNITA</v>
@@ -3356,8 +3462,8 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10">
-            <v>1820008</v>
+          <cell r="A10" t="str">
+            <v>MMS18-20/8</v>
           </cell>
           <cell r="B10" t="str">
             <v>BANSODE NAMRATA SUHAS SANGEETA</v>
@@ -3562,8 +3668,8 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11">
-            <v>1820009</v>
+          <cell r="A11" t="str">
+            <v>MMS18-20/9</v>
           </cell>
           <cell r="B11" t="str">
             <v>BHAJANI DHANASHREE MANOHAR KAVITA</v>
@@ -3768,8 +3874,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12">
-            <v>1820010</v>
+          <cell r="A12" t="str">
+            <v>MMS18-20/10</v>
           </cell>
           <cell r="B12" t="str">
             <v>BHANGALE BHUPENDRA RAMESH JYOTI</v>
@@ -3974,8 +4080,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13">
-            <v>1820011</v>
+          <cell r="A13" t="str">
+            <v>MMS18-20/11</v>
           </cell>
           <cell r="B13" t="str">
             <v>BHATKAR ANAGHA ANIL AKSHATA</v>
@@ -4180,8 +4286,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14">
-            <v>1820012</v>
+          <cell r="A14" t="str">
+            <v>MMS18-20/12</v>
           </cell>
           <cell r="B14" t="str">
             <v>BHOIR PRANAV SURESH SWETA</v>
@@ -4386,8 +4492,8 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15">
-            <v>1820013</v>
+          <cell r="A15" t="str">
+            <v>MMS18-20/13</v>
           </cell>
           <cell r="B15" t="str">
             <v>BHOIR VINAYAK CHINTAMAN SHALINI</v>
@@ -4592,8 +4698,8 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16">
-            <v>1820014</v>
+          <cell r="A16" t="str">
+            <v>MMS18-20/14</v>
           </cell>
           <cell r="B16" t="str">
             <v>BHOSALE MAYUR PRATAPRAO USHA</v>
@@ -4798,8 +4904,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17">
-            <v>1820015</v>
+          <cell r="A17" t="str">
+            <v>MMS18-20/15</v>
           </cell>
           <cell r="B17" t="str">
             <v>BIDVI ABOLI AJENDRA NEHA</v>
@@ -5004,8 +5110,8 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18">
-            <v>1820016</v>
+          <cell r="A18" t="str">
+            <v>MMS18-20/16</v>
           </cell>
           <cell r="B18" t="str">
             <v>BORKAR DIPESH SHYAM SANGITA</v>
@@ -5210,8 +5316,8 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19">
-            <v>1820017</v>
+          <cell r="A19" t="str">
+            <v>MMS18-20/17</v>
           </cell>
           <cell r="B19" t="str">
             <v>CHANDORKAR PRAJAL MADHUKAR VANITA</v>
@@ -5416,8 +5522,8 @@
           </cell>
         </row>
         <row r="20">
-          <cell r="A20">
-            <v>1820018</v>
+          <cell r="A20" t="str">
+            <v>MMS18-20/18</v>
           </cell>
           <cell r="B20" t="str">
             <v>CHAUDHARI TRUPAL JEEVAN SMITA</v>
@@ -5622,8 +5728,8 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="A21">
-            <v>1820019</v>
+          <cell r="A21" t="str">
+            <v>MMS18-20/19</v>
           </cell>
           <cell r="B21" t="str">
             <v>CHAVAN SURAJ SURESH SUREKHA</v>
@@ -5828,8 +5934,8 @@
           </cell>
         </row>
         <row r="22">
-          <cell r="A22">
-            <v>1820020</v>
+          <cell r="A22" t="str">
+            <v>MMS18-20/20</v>
           </cell>
           <cell r="B22" t="str">
             <v>CHAWHAN SAMTA VIJAY SUNITA</v>
@@ -6034,8 +6140,8 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="A23">
-            <v>1820021</v>
+          <cell r="A23" t="str">
+            <v>MMS18-20/21</v>
           </cell>
           <cell r="B23" t="str">
             <v>DESAI SAURABH HARESH HARSHADA</v>
@@ -6240,8 +6346,8 @@
           </cell>
         </row>
         <row r="24">
-          <cell r="A24">
-            <v>1820022</v>
+          <cell r="A24" t="str">
+            <v>MMS18-20/22</v>
           </cell>
           <cell r="B24" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -6446,8 +6552,8 @@
           </cell>
         </row>
         <row r="25">
-          <cell r="A25">
-            <v>1820023</v>
+          <cell r="A25" t="str">
+            <v>MMS18-20/23</v>
           </cell>
           <cell r="B25" t="str">
             <v xml:space="preserve">PICHAD DESHMUKH GIRIJA HEMANT MOHINI </v>
@@ -6652,8 +6758,8 @@
           </cell>
         </row>
         <row r="26">
-          <cell r="A26">
-            <v>1820024</v>
+          <cell r="A26" t="str">
+            <v>MMS18-20/24</v>
           </cell>
           <cell r="B26" t="str">
             <v>DHUMAL SAURABH RAMESH RAJASHREE</v>
@@ -6858,8 +6964,8 @@
           </cell>
         </row>
         <row r="27">
-          <cell r="A27">
-            <v>1820025</v>
+          <cell r="A27" t="str">
+            <v>MMS18-20/25</v>
           </cell>
           <cell r="B27" t="str">
             <v>DSOUZA FLOSSIE JOACHIM RITA</v>
@@ -7064,8 +7170,8 @@
           </cell>
         </row>
         <row r="28">
-          <cell r="A28">
-            <v>1820026</v>
+          <cell r="A28" t="str">
+            <v>MMS18-20/26</v>
           </cell>
           <cell r="B28" t="str">
             <v>DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</v>
@@ -7270,8 +7376,8 @@
           </cell>
         </row>
         <row r="29">
-          <cell r="A29">
-            <v>1820027</v>
+          <cell r="A29" t="str">
+            <v>MMS18-20/27</v>
           </cell>
           <cell r="B29" t="str">
             <v>ERANDE TRUPTI UTTAM SUNITA</v>
@@ -7476,8 +7582,8 @@
           </cell>
         </row>
         <row r="30">
-          <cell r="A30">
-            <v>1820028</v>
+          <cell r="A30" t="str">
+            <v>MMS18-20/28</v>
           </cell>
           <cell r="B30" t="str">
             <v>GAMBHIRRAO MANISH HARISHCHANDRA RANJANA</v>
@@ -7682,8 +7788,8 @@
           </cell>
         </row>
         <row r="31">
-          <cell r="A31">
-            <v>1820029</v>
+          <cell r="A31" t="str">
+            <v>MMS18-20/29</v>
           </cell>
           <cell r="B31" t="str">
             <v>GANGANI ANKIT SURESH TEJAL</v>
@@ -7888,8 +7994,8 @@
           </cell>
         </row>
         <row r="32">
-          <cell r="A32">
-            <v>1820030</v>
+          <cell r="A32" t="str">
+            <v>MMS18-20/30</v>
           </cell>
           <cell r="B32" t="str">
             <v>GANGURDE SAKSHI SUDHIR ASHA</v>
@@ -8094,8 +8200,8 @@
           </cell>
         </row>
         <row r="33">
-          <cell r="A33">
-            <v>1820031</v>
+          <cell r="A33" t="str">
+            <v>MMS18-20/31</v>
           </cell>
           <cell r="B33" t="str">
             <v>GHUMARE SANKET RAMESH JAYSHREE</v>
@@ -8300,8 +8406,8 @@
           </cell>
         </row>
         <row r="34">
-          <cell r="A34">
-            <v>1820032</v>
+          <cell r="A34" t="str">
+            <v>MMS18-20/32</v>
           </cell>
           <cell r="B34" t="str">
             <v>GUPTA NITIN RAJESH CHANDRAKALA</v>
@@ -8506,8 +8612,8 @@
           </cell>
         </row>
         <row r="35">
-          <cell r="A35">
-            <v>1820033</v>
+          <cell r="A35" t="str">
+            <v>MMS18-20/33</v>
           </cell>
           <cell r="B35" t="str">
             <v>HANDE RAHUL RANGARAO NALINI</v>
@@ -8712,8 +8818,8 @@
           </cell>
         </row>
         <row r="36">
-          <cell r="A36">
-            <v>1820034</v>
+          <cell r="A36" t="str">
+            <v>MMS18-20/34</v>
           </cell>
           <cell r="B36" t="str">
             <v>HARMALKAR PRATHAMESH SUBHASH SUBHASHINI</v>
@@ -8918,8 +9024,8 @@
           </cell>
         </row>
         <row r="37">
-          <cell r="A37">
-            <v>1820035</v>
+          <cell r="A37" t="str">
+            <v>MMS18-20/35</v>
           </cell>
           <cell r="B37" t="str">
             <v>KADAM AVIRAJ MOHAN MOHINI</v>
@@ -9124,8 +9230,8 @@
           </cell>
         </row>
         <row r="38">
-          <cell r="A38">
-            <v>1820036</v>
+          <cell r="A38" t="str">
+            <v>MMS18-20/36</v>
           </cell>
           <cell r="B38" t="str">
             <v>JADHAV ANKUR SHIVAJI ANAGHA</v>
@@ -9330,8 +9436,8 @@
           </cell>
         </row>
         <row r="39">
-          <cell r="A39">
-            <v>1820037</v>
+          <cell r="A39" t="str">
+            <v>MMS18-20/37</v>
           </cell>
           <cell r="B39" t="str">
             <v>KADAM AKSHAY RAMESH REEMA</v>
@@ -9536,8 +9642,8 @@
           </cell>
         </row>
         <row r="40">
-          <cell r="A40">
-            <v>1820038</v>
+          <cell r="A40" t="str">
+            <v>MMS18-20/38</v>
           </cell>
           <cell r="B40" t="str">
             <v>KADAM SHANTANU DILEEP ANITA</v>
@@ -9742,8 +9848,8 @@
           </cell>
         </row>
         <row r="41">
-          <cell r="A41">
-            <v>1820039</v>
+          <cell r="A41" t="str">
+            <v>MMS18-20/39</v>
           </cell>
           <cell r="B41" t="str">
             <v>KAMBLE NIKHIL KESHAVRAO SUSHILA</v>
@@ -9948,8 +10054,8 @@
           </cell>
         </row>
         <row r="42">
-          <cell r="A42">
-            <v>1820040</v>
+          <cell r="A42" t="str">
+            <v>MMS18-20/40</v>
           </cell>
           <cell r="B42" t="str">
             <v>KAMBLE SIDDHESH RAMESH SUHASINI</v>
@@ -10154,8 +10260,8 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="A43">
-            <v>1820041</v>
+          <cell r="A43" t="str">
+            <v>MMS18-20/41</v>
           </cell>
           <cell r="B43" t="str">
             <v>KATARE MAYANK PRAMOD PRANITA</v>
@@ -10360,8 +10466,8 @@
           </cell>
         </row>
         <row r="44">
-          <cell r="A44">
-            <v>1820042</v>
+          <cell r="A44" t="str">
+            <v>MMS18-20/42</v>
           </cell>
           <cell r="B44" t="str">
             <v>KHAN SAIF ALI NIZAM BILKIS</v>
@@ -10566,8 +10672,8 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="A45">
-            <v>1820043</v>
+          <cell r="A45" t="str">
+            <v>MMS18-20/43</v>
           </cell>
           <cell r="B45" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -10772,8 +10878,8 @@
           </cell>
         </row>
         <row r="46">
-          <cell r="A46">
-            <v>1820044</v>
+          <cell r="A46" t="str">
+            <v>MMS18-20/44</v>
           </cell>
           <cell r="B46" t="str">
             <v>KOLGE VARDA DEEPAK AARTI</v>
@@ -10978,8 +11084,8 @@
           </cell>
         </row>
         <row r="47">
-          <cell r="A47">
-            <v>1820045</v>
+          <cell r="A47" t="str">
+            <v>MMS18-20/45</v>
           </cell>
           <cell r="B47" t="str">
             <v>KOLI PRATIK PRABHAKAR NALINI</v>
@@ -11184,8 +11290,8 @@
           </cell>
         </row>
         <row r="48">
-          <cell r="A48">
-            <v>1820046</v>
+          <cell r="A48" t="str">
+            <v>MMS18-20/46</v>
           </cell>
           <cell r="B48" t="str">
             <v>KONDEKAR VAIBHAV VIJAY VAISHALI</v>
@@ -11390,8 +11496,8 @@
           </cell>
         </row>
         <row r="49">
-          <cell r="A49">
-            <v>1820047</v>
+          <cell r="A49" t="str">
+            <v>MMS18-20/47</v>
           </cell>
           <cell r="B49" t="str">
             <v>KORE PRASHEEL PRASHANT SHEELA</v>
@@ -11596,8 +11702,8 @@
           </cell>
         </row>
         <row r="50">
-          <cell r="A50">
-            <v>1820048</v>
+          <cell r="A50" t="str">
+            <v>MMS18-20/48</v>
           </cell>
           <cell r="B50" t="str">
             <v>LATE VISHAL BALASAHEB PRAMILA</v>
@@ -11802,8 +11908,8 @@
           </cell>
         </row>
         <row r="51">
-          <cell r="A51">
-            <v>1820049</v>
+          <cell r="A51" t="str">
+            <v>MMS18-20/49</v>
           </cell>
           <cell r="B51" t="str">
             <v xml:space="preserve">LOKE TEJAL JITENDRA GEETA </v>
@@ -12008,8 +12114,8 @@
           </cell>
         </row>
         <row r="52">
-          <cell r="A52">
-            <v>1820050</v>
+          <cell r="A52" t="str">
+            <v>MMS18-20/50</v>
           </cell>
           <cell r="B52" t="str">
             <v>MANDAVKAR CHAITRALI SANJAY SUCHITA</v>
@@ -12214,8 +12320,8 @@
           </cell>
         </row>
         <row r="53">
-          <cell r="A53">
-            <v>1820051</v>
+          <cell r="A53" t="str">
+            <v>MMS18-20/51</v>
           </cell>
           <cell r="B53" t="str">
             <v>MARCHANDE SHWETA SHANTARAM SHEETAL</v>
@@ -12420,8 +12526,8 @@
           </cell>
         </row>
         <row r="54">
-          <cell r="A54">
-            <v>1820052</v>
+          <cell r="A54" t="str">
+            <v>MMS18-20/52</v>
           </cell>
           <cell r="B54" t="str">
             <v>MHATRE VARAD GURUNATH SUSHMA</v>
@@ -12626,8 +12732,8 @@
           </cell>
         </row>
         <row r="55">
-          <cell r="A55">
-            <v>1820053</v>
+          <cell r="A55" t="str">
+            <v>MMS18-20/53</v>
           </cell>
           <cell r="B55" t="str">
             <v>MISHRA RASHMI SHIVKANT PRATIBHA</v>
@@ -12832,8 +12938,8 @@
           </cell>
         </row>
         <row r="56">
-          <cell r="A56">
-            <v>1820054</v>
+          <cell r="A56" t="str">
+            <v>MMS18-20/54</v>
           </cell>
           <cell r="B56" t="str">
             <v>NAIR ANAGHA ANANDKUMAR BHANUMATHI</v>
@@ -13038,8 +13144,8 @@
           </cell>
         </row>
         <row r="57">
-          <cell r="A57">
-            <v>1820055</v>
+          <cell r="A57" t="str">
+            <v>MMS18-20/55</v>
           </cell>
           <cell r="B57" t="str">
             <v xml:space="preserve">PANCHAL ANIKET AVINASH AARTI </v>
@@ -13244,8 +13350,8 @@
           </cell>
         </row>
         <row r="58">
-          <cell r="A58">
-            <v>1820056</v>
+          <cell r="A58" t="str">
+            <v>MMS18-20/56</v>
           </cell>
           <cell r="B58" t="str">
             <v>SHAIKH SAMEER MOHAMMADHUSSAIN FATIMA</v>
@@ -13450,8 +13556,8 @@
           </cell>
         </row>
         <row r="59">
-          <cell r="A59">
-            <v>1820057</v>
+          <cell r="A59" t="str">
+            <v>MMS18-20/57</v>
           </cell>
           <cell r="B59" t="str">
             <v>SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</v>
@@ -13656,8 +13762,8 @@
           </cell>
         </row>
         <row r="60">
-          <cell r="A60">
-            <v>1820058</v>
+          <cell r="A60" t="str">
+            <v>MMS18-20/58</v>
           </cell>
           <cell r="B60" t="str">
             <v>SINGH ASHWIN BHAGWANPRASAD SADHANA</v>
@@ -13862,8 +13968,8 @@
           </cell>
         </row>
         <row r="61">
-          <cell r="A61">
-            <v>1820059</v>
+          <cell r="A61" t="str">
+            <v>MMS18-20/59</v>
           </cell>
           <cell r="B61" t="str">
             <v>WANKHADE NIKHIL MADHUKAR JYOTI</v>
@@ -14068,8 +14174,8 @@
           </cell>
         </row>
         <row r="62">
-          <cell r="A62">
-            <v>1820060</v>
+          <cell r="A62" t="str">
+            <v>MMS18-20/60</v>
           </cell>
           <cell r="B62" t="str">
             <v>WORLIKAR SIDDHANT PANKAJ VIDYA</v>
@@ -14274,8 +14380,8 @@
           </cell>
         </row>
         <row r="63">
-          <cell r="A63">
-            <v>1820061</v>
+          <cell r="A63" t="str">
+            <v>MMS18-20/61</v>
           </cell>
           <cell r="B63" t="str">
             <v>AGATE AKASH PRAKASH KIRAN</v>
@@ -14480,8 +14586,8 @@
           </cell>
         </row>
         <row r="64">
-          <cell r="A64">
-            <v>1820062</v>
+          <cell r="A64" t="str">
+            <v>MMS18-20/62</v>
           </cell>
           <cell r="B64" t="str">
             <v>AVHAD VISHAKHA MILIND RAKHI</v>
@@ -14686,8 +14792,8 @@
           </cell>
         </row>
         <row r="65">
-          <cell r="A65">
-            <v>1820063</v>
+          <cell r="A65" t="str">
+            <v>MMS18-20/63</v>
           </cell>
           <cell r="B65" t="str">
             <v>CHILE VARAD KISHOR NEHA</v>
@@ -14892,8 +14998,8 @@
           </cell>
         </row>
         <row r="66">
-          <cell r="A66">
-            <v>1820064</v>
+          <cell r="A66" t="str">
+            <v>MMS18-20/64</v>
           </cell>
           <cell r="B66" t="str">
             <v>DALVI AKASH SHANKAR NIRMALA</v>
@@ -15098,8 +15204,8 @@
           </cell>
         </row>
         <row r="67">
-          <cell r="A67">
-            <v>1820065</v>
+          <cell r="A67" t="str">
+            <v>MMS18-20/65</v>
           </cell>
           <cell r="B67" t="str">
             <v>DALVI RUTUJA JAGDISH SUPRIYA</v>
@@ -15304,8 +15410,8 @@
           </cell>
         </row>
         <row r="68">
-          <cell r="A68">
-            <v>1820066</v>
+          <cell r="A68" t="str">
+            <v>MMS18-20/66</v>
           </cell>
           <cell r="B68" t="str">
             <v xml:space="preserve">GANDHI BHAVIK AJAY HARSHA </v>
@@ -15510,8 +15616,8 @@
           </cell>
         </row>
         <row r="69">
-          <cell r="A69">
-            <v>1820067</v>
+          <cell r="A69" t="str">
+            <v>MMS18-20/67</v>
           </cell>
           <cell r="B69" t="str">
             <v>GUNDU MEGHNA GUNASHALI SUJATHA</v>
@@ -15716,8 +15822,8 @@
           </cell>
         </row>
         <row r="70">
-          <cell r="A70">
-            <v>1820068</v>
+          <cell r="A70" t="str">
+            <v>MMS18-20/68</v>
           </cell>
           <cell r="B70" t="str">
             <v>GUPTA AAYUSH NEELKAMAL MANSHA</v>
@@ -15922,8 +16028,8 @@
           </cell>
         </row>
         <row r="71">
-          <cell r="A71">
-            <v>1820069</v>
+          <cell r="A71" t="str">
+            <v>MMS18-20/69</v>
           </cell>
           <cell r="B71" t="str">
             <v>GUPTA PRAMOD OMPRAKASH RAMAVATI</v>
@@ -16128,8 +16234,8 @@
           </cell>
         </row>
         <row r="72">
-          <cell r="A72">
-            <v>1820070</v>
+          <cell r="A72" t="str">
+            <v>MMS18-20/70</v>
           </cell>
           <cell r="B72" t="str">
             <v>JADHAV SHWETA NARESH LATA</v>
@@ -16334,8 +16440,8 @@
           </cell>
         </row>
         <row r="73">
-          <cell r="A73">
-            <v>1820071</v>
+          <cell r="A73" t="str">
+            <v>MMS18-20/71</v>
           </cell>
           <cell r="B73" t="str">
             <v>INGLE ATHARAVA SHASHIKANT SAILEE</v>
@@ -16540,8 +16646,8 @@
           </cell>
         </row>
         <row r="74">
-          <cell r="A74">
-            <v>1820072</v>
+          <cell r="A74" t="str">
+            <v>MMS18-20/72</v>
           </cell>
           <cell r="B74" t="str">
             <v>KEMPU VIDYA LAXMAN SHANTAMMA</v>
@@ -16746,8 +16852,8 @@
           </cell>
         </row>
         <row r="75">
-          <cell r="A75">
-            <v>1820073</v>
+          <cell r="A75" t="str">
+            <v>MMS18-20/73</v>
           </cell>
           <cell r="B75" t="str">
             <v>KHADE VRUSHALEE SUKHADEV RAJASHREE</v>
@@ -16952,8 +17058,8 @@
           </cell>
         </row>
         <row r="76">
-          <cell r="A76">
-            <v>1820074</v>
+          <cell r="A76" t="str">
+            <v>MMS18-20/74</v>
           </cell>
           <cell r="B76" t="str">
             <v>KUSHWAHA PRAMOD RAMSAKHA ASHA</v>
@@ -17158,8 +17264,8 @@
           </cell>
         </row>
         <row r="77">
-          <cell r="A77">
-            <v>1820075</v>
+          <cell r="A77" t="str">
+            <v>MMS18-20/75</v>
           </cell>
           <cell r="B77" t="str">
             <v>MAURYA NEHA JAYSHANKAR GEETA</v>
@@ -17364,8 +17470,8 @@
           </cell>
         </row>
         <row r="78">
-          <cell r="A78">
-            <v>1820076</v>
+          <cell r="A78" t="str">
+            <v>MMS18-20/76</v>
           </cell>
           <cell r="B78" t="str">
             <v>PANCHAL SWAPNIL SATYAWAN MANASI</v>
@@ -17570,8 +17676,8 @@
           </cell>
         </row>
         <row r="79">
-          <cell r="A79">
-            <v>1820077</v>
+          <cell r="A79" t="str">
+            <v>MMS18-20/77</v>
           </cell>
           <cell r="B79" t="str">
             <v>PANDYA VANESHA EDWIN SHASHMIRA</v>
@@ -17776,8 +17882,8 @@
           </cell>
         </row>
         <row r="80">
-          <cell r="A80">
-            <v>1820078</v>
+          <cell r="A80" t="str">
+            <v>MMS18-20/78</v>
           </cell>
           <cell r="B80" t="str">
             <v xml:space="preserve">PATEKAR RUPESH GANESH MANJULA </v>
@@ -17982,8 +18088,8 @@
           </cell>
         </row>
         <row r="81">
-          <cell r="A81">
-            <v>1820079</v>
+          <cell r="A81" t="str">
+            <v>MMS18-20/79</v>
           </cell>
           <cell r="B81" t="str">
             <v>PATEL PRAGNESH KISHORBHAI DAMYANTIBEN</v>
@@ -18188,8 +18294,8 @@
           </cell>
         </row>
         <row r="82">
-          <cell r="A82">
-            <v>1820080</v>
+          <cell r="A82" t="str">
+            <v>MMS18-20/80</v>
           </cell>
           <cell r="B82" t="str">
             <v>PATIL CHAITALEE NARESH NAMITA</v>
@@ -18394,8 +18500,8 @@
           </cell>
         </row>
         <row r="83">
-          <cell r="A83">
-            <v>1820081</v>
+          <cell r="A83" t="str">
+            <v>MMS18-20/81</v>
           </cell>
           <cell r="B83" t="str">
             <v>PEDNEKAR MADHUGANDHA DILIP DEEPALI</v>
@@ -18600,8 +18706,8 @@
           </cell>
         </row>
         <row r="84">
-          <cell r="A84">
-            <v>1820082</v>
+          <cell r="A84" t="str">
+            <v>MMS18-20/82</v>
           </cell>
           <cell r="B84" t="str">
             <v>PHANSE SAILEE VINOD LEELA</v>
@@ -18806,8 +18912,8 @@
           </cell>
         </row>
         <row r="85">
-          <cell r="A85">
-            <v>1820083</v>
+          <cell r="A85" t="str">
+            <v>MMS18-20/83</v>
           </cell>
           <cell r="B85" t="str">
             <v>PRASAD ROHAN RAJENDRA RAJKUMARI</v>
@@ -19012,8 +19118,8 @@
           </cell>
         </row>
         <row r="86">
-          <cell r="A86">
-            <v>1820084</v>
+          <cell r="A86" t="str">
+            <v>MMS18-20/84</v>
           </cell>
           <cell r="B86" t="str">
             <v>RAI JAYESH RAVINDRANATH DIVYA</v>
@@ -19218,8 +19324,8 @@
           </cell>
         </row>
         <row r="87">
-          <cell r="A87">
-            <v>1820085</v>
+          <cell r="A87" t="str">
+            <v>MMS18-20/85</v>
           </cell>
           <cell r="B87" t="str">
             <v>RANE ASHWINI SANTOSH SAVITA</v>
@@ -19424,8 +19530,8 @@
           </cell>
         </row>
         <row r="88">
-          <cell r="A88">
-            <v>1820086</v>
+          <cell r="A88" t="str">
+            <v>MMS18-20/86</v>
           </cell>
           <cell r="B88" t="str">
             <v>RANE MAYURI SUHAS ARCHANA</v>
@@ -19630,8 +19736,8 @@
           </cell>
         </row>
         <row r="89">
-          <cell r="A89">
-            <v>1820087</v>
+          <cell r="A89" t="str">
+            <v>MMS18-20/87</v>
           </cell>
           <cell r="B89" t="str">
             <v>RAORANE SAINI SATISH SANCHITA</v>
@@ -19836,8 +19942,8 @@
           </cell>
         </row>
         <row r="90">
-          <cell r="A90">
-            <v>1820088</v>
+          <cell r="A90" t="str">
+            <v>MMS18-20/88</v>
           </cell>
           <cell r="B90" t="str">
             <v>RATHOD OMKAR PANDIT DEVIKA</v>
@@ -20042,8 +20148,8 @@
           </cell>
         </row>
         <row r="91">
-          <cell r="A91">
-            <v>1820089</v>
+          <cell r="A91" t="str">
+            <v>MMS18-20/89</v>
           </cell>
           <cell r="B91" t="str">
             <v>SANGLE SINDHANT NAVANATH PRATIBHA</v>
@@ -20248,8 +20354,8 @@
           </cell>
         </row>
         <row r="92">
-          <cell r="A92">
-            <v>1820090</v>
+          <cell r="A92" t="str">
+            <v>MMS18-20/90</v>
           </cell>
           <cell r="B92" t="str">
             <v>SARMALKAR SANIKA SUNILDATTA MANISHA</v>
@@ -20454,8 +20560,8 @@
           </cell>
         </row>
         <row r="93">
-          <cell r="A93">
-            <v>1820091</v>
+          <cell r="A93" t="str">
+            <v>MMS18-20/91</v>
           </cell>
           <cell r="B93" t="str">
             <v>SATAM NEHA ANIL ASMITA</v>
@@ -20660,8 +20766,8 @@
           </cell>
         </row>
         <row r="94">
-          <cell r="A94">
-            <v>1820092</v>
+          <cell r="A94" t="str">
+            <v>MMS18-20/92</v>
           </cell>
           <cell r="B94" t="str">
             <v>SAWANT AVADHUT RAJAN SHRADDHA</v>
@@ -20866,8 +20972,8 @@
           </cell>
         </row>
         <row r="95">
-          <cell r="A95">
-            <v>1820093</v>
+          <cell r="A95" t="str">
+            <v>MMS18-20/93</v>
           </cell>
           <cell r="B95" t="str">
             <v>SHARMA PALAK PRAHLAD MRIDULA</v>
@@ -21072,8 +21178,8 @@
           </cell>
         </row>
         <row r="96">
-          <cell r="A96">
-            <v>1820094</v>
+          <cell r="A96" t="str">
+            <v>MMS18-20/94</v>
           </cell>
           <cell r="B96" t="str">
             <v>SHETTY SHIFALI PRASHANT ASHALATA</v>
@@ -21278,8 +21384,8 @@
           </cell>
         </row>
         <row r="97">
-          <cell r="A97">
-            <v>1820095</v>
+          <cell r="A97" t="str">
+            <v>MMS18-20/95</v>
           </cell>
           <cell r="B97" t="str">
             <v>SHINDE AKSHAY SURENDRA SUPRIYA</v>
@@ -21484,8 +21590,8 @@
           </cell>
         </row>
         <row r="98">
-          <cell r="A98">
-            <v>1820096</v>
+          <cell r="A98" t="str">
+            <v>MMS18-20/96</v>
           </cell>
           <cell r="B98" t="str">
             <v>SHINDE ASHUTOSH BHASKAR BHAVANA</v>
@@ -21690,8 +21796,8 @@
           </cell>
         </row>
         <row r="99">
-          <cell r="A99">
-            <v>1820097</v>
+          <cell r="A99" t="str">
+            <v>MMS18-20/97</v>
           </cell>
           <cell r="B99" t="str">
             <v>SHINDE NIKHIL KRISHNAT MANISHA</v>
@@ -21896,8 +22002,8 @@
           </cell>
         </row>
         <row r="100">
-          <cell r="A100">
-            <v>1820098</v>
+          <cell r="A100" t="str">
+            <v>MMS18-20/98</v>
           </cell>
           <cell r="B100" t="str">
             <v>SHINDE SAIRAJ VIKAS SHRADHA</v>
@@ -22102,8 +22208,8 @@
           </cell>
         </row>
         <row r="101">
-          <cell r="A101">
-            <v>1820099</v>
+          <cell r="A101" t="str">
+            <v>MMS18-20/99</v>
           </cell>
           <cell r="B101" t="str">
             <v>SHINDE SURAJ SHASHIKANT SHOBHA</v>
@@ -22308,8 +22414,8 @@
           </cell>
         </row>
         <row r="102">
-          <cell r="A102">
-            <v>1820100</v>
+          <cell r="A102" t="str">
+            <v>MMS18-20/100</v>
           </cell>
           <cell r="B102" t="str">
             <v>SHITYALKAR SHUBHAM DHONDIBA SHALAN</v>
@@ -22514,8 +22620,8 @@
           </cell>
         </row>
         <row r="103">
-          <cell r="A103">
-            <v>1820101</v>
+          <cell r="A103" t="str">
+            <v>MMS18-20/101</v>
           </cell>
           <cell r="B103" t="str">
             <v>SHIVKAR PRIYANKA JANARDHAN REKHA</v>
@@ -22720,8 +22826,8 @@
           </cell>
         </row>
         <row r="104">
-          <cell r="A104">
-            <v>1820102</v>
+          <cell r="A104" t="str">
+            <v>MMS18-20/102</v>
           </cell>
           <cell r="B104" t="str">
             <v>SHRIGADI ROHIT DHARMENDRA RUPA</v>
@@ -22926,8 +23032,8 @@
           </cell>
         </row>
         <row r="105">
-          <cell r="A105">
-            <v>1820103</v>
+          <cell r="A105" t="str">
+            <v>MMS18-20/103</v>
           </cell>
           <cell r="B105" t="str">
             <v>SINGH PRATIK SANJAY MEENA</v>
@@ -23132,8 +23238,8 @@
           </cell>
         </row>
         <row r="106">
-          <cell r="A106">
-            <v>1820104</v>
+          <cell r="A106" t="str">
+            <v>MMS18-20/104</v>
           </cell>
           <cell r="B106" t="str">
             <v>SINGH VARSHA GURUPRASAD VEENA</v>
@@ -23338,8 +23444,8 @@
           </cell>
         </row>
         <row r="107">
-          <cell r="A107">
-            <v>1820105</v>
+          <cell r="A107" t="str">
+            <v>MMS18-20/105</v>
           </cell>
           <cell r="B107" t="str">
             <v>SOLANKI PRAKASH RAMESH SUREKHA</v>
@@ -23544,8 +23650,8 @@
           </cell>
         </row>
         <row r="108">
-          <cell r="A108">
-            <v>1820106</v>
+          <cell r="A108" t="str">
+            <v>MMS18-20/106</v>
           </cell>
           <cell r="B108" t="str">
             <v>SURYAVANSHI MAYURI DILIP BHAGIRATHI</v>
@@ -23750,8 +23856,8 @@
           </cell>
         </row>
         <row r="109">
-          <cell r="A109">
-            <v>1820107</v>
+          <cell r="A109" t="str">
+            <v>MMS18-20/107</v>
           </cell>
           <cell r="B109" t="str">
             <v>SWAMY VIOLET BENEDICT JULIET</v>
@@ -23956,8 +24062,8 @@
           </cell>
         </row>
         <row r="110">
-          <cell r="A110">
-            <v>1820108</v>
+          <cell r="A110" t="str">
+            <v>MMS18-20/108</v>
           </cell>
           <cell r="B110" t="str">
             <v xml:space="preserve">TAKKE SAIRAJ SURESH SHRUTIKA </v>
@@ -24162,8 +24268,8 @@
           </cell>
         </row>
         <row r="111">
-          <cell r="A111">
-            <v>1820109</v>
+          <cell r="A111" t="str">
+            <v>MMS18-20/109</v>
           </cell>
           <cell r="B111" t="str">
             <v>TALELE BHOOMA GHANASHYAM KALPANA</v>
@@ -24368,8 +24474,8 @@
           </cell>
         </row>
         <row r="112">
-          <cell r="A112">
-            <v>1820110</v>
+          <cell r="A112" t="str">
+            <v>MMS18-20/110</v>
           </cell>
           <cell r="B112" t="str">
             <v>THOOLKAR SAMEER ARVIND KIRAN</v>
@@ -24574,8 +24680,8 @@
           </cell>
         </row>
         <row r="113">
-          <cell r="A113">
-            <v>1820111</v>
+          <cell r="A113" t="str">
+            <v>MMS18-20/111</v>
           </cell>
           <cell r="B113" t="str">
             <v>TIWARI VIKAS CHINTAMANI SHAILA</v>
@@ -24780,8 +24886,8 @@
           </cell>
         </row>
         <row r="114">
-          <cell r="A114">
-            <v>1820112</v>
+          <cell r="A114" t="str">
+            <v>MMS18-20/112</v>
           </cell>
           <cell r="B114" t="str">
             <v>TREHAN VILAKSHAN SUMAN NEENA</v>
@@ -24986,8 +25092,8 @@
           </cell>
         </row>
         <row r="115">
-          <cell r="A115">
-            <v>1820113</v>
+          <cell r="A115" t="str">
+            <v>MMS18-20/113</v>
           </cell>
           <cell r="B115" t="str">
             <v>VHAVALE YOGESH VIJANAND ANITA</v>
@@ -25192,8 +25298,8 @@
           </cell>
         </row>
         <row r="116">
-          <cell r="A116">
-            <v>1820114</v>
+          <cell r="A116" t="str">
+            <v>MMS18-20/114</v>
           </cell>
           <cell r="B116" t="str">
             <v>VICHARE SAMRUDHI SANJAY VAIBHAVI</v>
@@ -25398,8 +25504,8 @@
           </cell>
         </row>
         <row r="117">
-          <cell r="A117">
-            <v>1820115</v>
+          <cell r="A117" t="str">
+            <v>MMS18-20/115</v>
           </cell>
           <cell r="B117" t="str">
             <v>WAGHMARE SHEETAL SURYAKANT SUNANDA</v>
@@ -25604,8 +25710,8 @@
           </cell>
         </row>
         <row r="118">
-          <cell r="A118">
-            <v>1820116</v>
+          <cell r="A118" t="str">
+            <v>MMS18-20/116</v>
           </cell>
           <cell r="B118" t="str">
             <v>WANI SHUBHAM RAJENDRA  JYOTI</v>
@@ -25810,8 +25916,8 @@
           </cell>
         </row>
         <row r="119">
-          <cell r="A119">
-            <v>1820117</v>
+          <cell r="A119" t="str">
+            <v>MMS18-20/117</v>
           </cell>
           <cell r="B119" t="str">
             <v>YADAV ANKITA OMPRAKASH SHASHANK DEVI</v>
@@ -26016,8 +26122,8 @@
           </cell>
         </row>
         <row r="120">
-          <cell r="A120">
-            <v>1820118</v>
+          <cell r="A120" t="str">
+            <v>MMS18-20/118</v>
           </cell>
           <cell r="B120" t="str">
             <v>YADAV ANUSH MAHANTA MALTI</v>
@@ -26222,8 +26328,8 @@
           </cell>
         </row>
         <row r="121">
-          <cell r="A121">
-            <v>1820119</v>
+          <cell r="A121" t="str">
+            <v>MMS18-20/119</v>
           </cell>
           <cell r="B121" t="str">
             <v>YADAV SUMAN RAMJEET SAVITRIDEVI</v>
@@ -26428,8 +26534,8 @@
           </cell>
         </row>
         <row r="122">
-          <cell r="A122">
-            <v>1820120</v>
+          <cell r="A122" t="str">
+            <v>MMS18-20/120</v>
           </cell>
           <cell r="B122" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -26633,20 +26739,2217 @@
             <v>65-69.99</v>
           </cell>
         </row>
+        <row r="123">
+          <cell r="A123" t="str">
+            <v>MMS18-20/121</v>
+          </cell>
+          <cell r="B123" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C123">
+            <v>0</v>
+          </cell>
+          <cell r="D123">
+            <v>0</v>
+          </cell>
+          <cell r="E123">
+            <v>0</v>
+          </cell>
+          <cell r="F123" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G123" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H123">
+            <v>4</v>
+          </cell>
+          <cell r="I123">
+            <v>0</v>
+          </cell>
+          <cell r="J123">
+            <v>0</v>
+          </cell>
+          <cell r="K123">
+            <v>0</v>
+          </cell>
+          <cell r="L123">
+            <v>0</v>
+          </cell>
+          <cell r="M123" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N123" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O123">
+            <v>4</v>
+          </cell>
+          <cell r="P123">
+            <v>0</v>
+          </cell>
+          <cell r="Q123">
+            <v>0</v>
+          </cell>
+          <cell r="R123">
+            <v>0</v>
+          </cell>
+          <cell r="S123">
+            <v>0</v>
+          </cell>
+          <cell r="T123" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U123" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V123">
+            <v>4</v>
+          </cell>
+          <cell r="W123">
+            <v>0</v>
+          </cell>
+          <cell r="X123">
+            <v>28</v>
+          </cell>
+          <cell r="Y123">
+            <v>37</v>
+          </cell>
+          <cell r="Z123">
+            <v>65</v>
+          </cell>
+          <cell r="AA123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB123" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC123">
+            <v>4</v>
+          </cell>
+          <cell r="AD123">
+            <v>28</v>
+          </cell>
+          <cell r="AE123">
+            <v>28</v>
+          </cell>
+          <cell r="AF123">
+            <v>37</v>
+          </cell>
+          <cell r="AG123">
+            <v>65</v>
+          </cell>
+          <cell r="AH123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI123" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ123">
+            <v>4</v>
+          </cell>
+          <cell r="AK123">
+            <v>28</v>
+          </cell>
+          <cell r="AL123">
+            <v>28</v>
+          </cell>
+          <cell r="AM123">
+            <v>37</v>
+          </cell>
+          <cell r="AN123">
+            <v>65</v>
+          </cell>
+          <cell r="AO123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP123" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ123">
+            <v>4</v>
+          </cell>
+          <cell r="AR123">
+            <v>28</v>
+          </cell>
+          <cell r="AS123">
+            <v>28</v>
+          </cell>
+          <cell r="AT123">
+            <v>37</v>
+          </cell>
+          <cell r="AU123">
+            <v>65</v>
+          </cell>
+          <cell r="AV123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW123" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX123">
+            <v>4</v>
+          </cell>
+          <cell r="AY123">
+            <v>28</v>
+          </cell>
+          <cell r="AZ123">
+            <v>28</v>
+          </cell>
+          <cell r="BA123">
+            <v>37</v>
+          </cell>
+          <cell r="BB123">
+            <v>65</v>
+          </cell>
+          <cell r="BC123" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD123" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124" t="str">
+            <v>MMS18-20/122</v>
+          </cell>
+          <cell r="B124" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C124">
+            <v>0</v>
+          </cell>
+          <cell r="D124">
+            <v>0</v>
+          </cell>
+          <cell r="E124">
+            <v>0</v>
+          </cell>
+          <cell r="F124" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G124" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H124">
+            <v>4</v>
+          </cell>
+          <cell r="I124">
+            <v>0</v>
+          </cell>
+          <cell r="J124">
+            <v>0</v>
+          </cell>
+          <cell r="K124">
+            <v>0</v>
+          </cell>
+          <cell r="L124">
+            <v>0</v>
+          </cell>
+          <cell r="M124" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N124" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O124">
+            <v>4</v>
+          </cell>
+          <cell r="P124">
+            <v>0</v>
+          </cell>
+          <cell r="Q124">
+            <v>0</v>
+          </cell>
+          <cell r="R124">
+            <v>0</v>
+          </cell>
+          <cell r="S124">
+            <v>0</v>
+          </cell>
+          <cell r="T124" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U124" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V124">
+            <v>4</v>
+          </cell>
+          <cell r="W124">
+            <v>0</v>
+          </cell>
+          <cell r="X124">
+            <v>30</v>
+          </cell>
+          <cell r="Y124">
+            <v>40</v>
+          </cell>
+          <cell r="Z124">
+            <v>70</v>
+          </cell>
+          <cell r="AA124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AB124" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AC124">
+            <v>4</v>
+          </cell>
+          <cell r="AD124">
+            <v>32</v>
+          </cell>
+          <cell r="AE124">
+            <v>30</v>
+          </cell>
+          <cell r="AF124">
+            <v>40</v>
+          </cell>
+          <cell r="AG124">
+            <v>70</v>
+          </cell>
+          <cell r="AH124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AI124" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AJ124">
+            <v>4</v>
+          </cell>
+          <cell r="AK124">
+            <v>32</v>
+          </cell>
+          <cell r="AL124">
+            <v>30</v>
+          </cell>
+          <cell r="AM124">
+            <v>40</v>
+          </cell>
+          <cell r="AN124">
+            <v>70</v>
+          </cell>
+          <cell r="AO124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AP124" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AQ124">
+            <v>4</v>
+          </cell>
+          <cell r="AR124">
+            <v>32</v>
+          </cell>
+          <cell r="AS124">
+            <v>30</v>
+          </cell>
+          <cell r="AT124">
+            <v>40</v>
+          </cell>
+          <cell r="AU124">
+            <v>70</v>
+          </cell>
+          <cell r="AV124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AW124" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AX124">
+            <v>4</v>
+          </cell>
+          <cell r="AY124">
+            <v>32</v>
+          </cell>
+          <cell r="AZ124">
+            <v>30</v>
+          </cell>
+          <cell r="BA124">
+            <v>40</v>
+          </cell>
+          <cell r="BB124">
+            <v>70</v>
+          </cell>
+          <cell r="BC124" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="BD124" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125" t="str">
+            <v>MMS18-20/123</v>
+          </cell>
+          <cell r="B125" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C125">
+            <v>0</v>
+          </cell>
+          <cell r="D125">
+            <v>0</v>
+          </cell>
+          <cell r="E125">
+            <v>0</v>
+          </cell>
+          <cell r="F125" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G125" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H125">
+            <v>4</v>
+          </cell>
+          <cell r="I125">
+            <v>0</v>
+          </cell>
+          <cell r="J125">
+            <v>0</v>
+          </cell>
+          <cell r="K125">
+            <v>0</v>
+          </cell>
+          <cell r="L125">
+            <v>0</v>
+          </cell>
+          <cell r="M125" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N125" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O125">
+            <v>4</v>
+          </cell>
+          <cell r="P125">
+            <v>0</v>
+          </cell>
+          <cell r="Q125">
+            <v>0</v>
+          </cell>
+          <cell r="R125">
+            <v>0</v>
+          </cell>
+          <cell r="S125">
+            <v>0</v>
+          </cell>
+          <cell r="T125" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U125" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V125">
+            <v>4</v>
+          </cell>
+          <cell r="W125">
+            <v>0</v>
+          </cell>
+          <cell r="X125">
+            <v>25</v>
+          </cell>
+          <cell r="Y125">
+            <v>35</v>
+          </cell>
+          <cell r="Z125">
+            <v>60</v>
+          </cell>
+          <cell r="AA125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="AB125" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="AC125">
+            <v>4</v>
+          </cell>
+          <cell r="AD125">
+            <v>24</v>
+          </cell>
+          <cell r="AE125">
+            <v>25</v>
+          </cell>
+          <cell r="AF125">
+            <v>35</v>
+          </cell>
+          <cell r="AG125">
+            <v>60</v>
+          </cell>
+          <cell r="AH125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="AI125" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="AJ125">
+            <v>4</v>
+          </cell>
+          <cell r="AK125">
+            <v>24</v>
+          </cell>
+          <cell r="AL125">
+            <v>25</v>
+          </cell>
+          <cell r="AM125">
+            <v>35</v>
+          </cell>
+          <cell r="AN125">
+            <v>60</v>
+          </cell>
+          <cell r="AO125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="AP125" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="AQ125">
+            <v>4</v>
+          </cell>
+          <cell r="AR125">
+            <v>24</v>
+          </cell>
+          <cell r="AS125">
+            <v>25</v>
+          </cell>
+          <cell r="AT125">
+            <v>35</v>
+          </cell>
+          <cell r="AU125">
+            <v>60</v>
+          </cell>
+          <cell r="AV125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="AW125" t="str">
+            <v>6</v>
+          </cell>
+          <cell r="AX125">
+            <v>4</v>
+          </cell>
+          <cell r="AY125">
+            <v>24</v>
+          </cell>
+          <cell r="AZ125">
+            <v>25</v>
+          </cell>
+          <cell r="BA125">
+            <v>35</v>
+          </cell>
+          <cell r="BB125">
+            <v>60</v>
+          </cell>
+          <cell r="BC125" t="str">
+            <v>B</v>
+          </cell>
+          <cell r="BD125" t="str">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="A126" t="str">
+            <v>MMS18-20/124</v>
+          </cell>
+          <cell r="B126" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C126">
+            <v>0</v>
+          </cell>
+          <cell r="D126">
+            <v>0</v>
+          </cell>
+          <cell r="E126">
+            <v>0</v>
+          </cell>
+          <cell r="F126" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G126" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H126">
+            <v>4</v>
+          </cell>
+          <cell r="I126">
+            <v>0</v>
+          </cell>
+          <cell r="J126">
+            <v>0</v>
+          </cell>
+          <cell r="K126">
+            <v>0</v>
+          </cell>
+          <cell r="L126">
+            <v>0</v>
+          </cell>
+          <cell r="M126" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N126" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O126">
+            <v>4</v>
+          </cell>
+          <cell r="P126">
+            <v>0</v>
+          </cell>
+          <cell r="Q126">
+            <v>0</v>
+          </cell>
+          <cell r="R126">
+            <v>0</v>
+          </cell>
+          <cell r="S126">
+            <v>0</v>
+          </cell>
+          <cell r="T126" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U126" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V126">
+            <v>4</v>
+          </cell>
+          <cell r="W126">
+            <v>0</v>
+          </cell>
+          <cell r="X126">
+            <v>32</v>
+          </cell>
+          <cell r="Y126">
+            <v>42</v>
+          </cell>
+          <cell r="Z126">
+            <v>74</v>
+          </cell>
+          <cell r="AA126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AB126" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AC126">
+            <v>4</v>
+          </cell>
+          <cell r="AD126">
+            <v>32</v>
+          </cell>
+          <cell r="AE126">
+            <v>32</v>
+          </cell>
+          <cell r="AF126">
+            <v>42</v>
+          </cell>
+          <cell r="AG126">
+            <v>74</v>
+          </cell>
+          <cell r="AH126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AI126" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AJ126">
+            <v>4</v>
+          </cell>
+          <cell r="AK126">
+            <v>32</v>
+          </cell>
+          <cell r="AL126">
+            <v>32</v>
+          </cell>
+          <cell r="AM126">
+            <v>42</v>
+          </cell>
+          <cell r="AN126">
+            <v>74</v>
+          </cell>
+          <cell r="AO126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AP126" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AQ126">
+            <v>4</v>
+          </cell>
+          <cell r="AR126">
+            <v>32</v>
+          </cell>
+          <cell r="AS126">
+            <v>32</v>
+          </cell>
+          <cell r="AT126">
+            <v>42</v>
+          </cell>
+          <cell r="AU126">
+            <v>74</v>
+          </cell>
+          <cell r="AV126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AW126" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AX126">
+            <v>4</v>
+          </cell>
+          <cell r="AY126">
+            <v>32</v>
+          </cell>
+          <cell r="AZ126">
+            <v>32</v>
+          </cell>
+          <cell r="BA126">
+            <v>42</v>
+          </cell>
+          <cell r="BB126">
+            <v>74</v>
+          </cell>
+          <cell r="BC126" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="BD126" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="A127" t="str">
+            <v>MMS18-20/125</v>
+          </cell>
+          <cell r="B127" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C127">
+            <v>0</v>
+          </cell>
+          <cell r="D127">
+            <v>0</v>
+          </cell>
+          <cell r="E127">
+            <v>0</v>
+          </cell>
+          <cell r="F127" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G127" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H127">
+            <v>4</v>
+          </cell>
+          <cell r="I127">
+            <v>0</v>
+          </cell>
+          <cell r="J127">
+            <v>0</v>
+          </cell>
+          <cell r="K127">
+            <v>0</v>
+          </cell>
+          <cell r="L127">
+            <v>0</v>
+          </cell>
+          <cell r="M127" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N127" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O127">
+            <v>4</v>
+          </cell>
+          <cell r="P127">
+            <v>0</v>
+          </cell>
+          <cell r="Q127">
+            <v>0</v>
+          </cell>
+          <cell r="R127">
+            <v>0</v>
+          </cell>
+          <cell r="S127">
+            <v>0</v>
+          </cell>
+          <cell r="T127" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U127" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V127">
+            <v>4</v>
+          </cell>
+          <cell r="W127">
+            <v>0</v>
+          </cell>
+          <cell r="X127">
+            <v>31</v>
+          </cell>
+          <cell r="Y127">
+            <v>45</v>
+          </cell>
+          <cell r="Z127">
+            <v>76</v>
+          </cell>
+          <cell r="AA127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AB127" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AC127">
+            <v>4</v>
+          </cell>
+          <cell r="AD127">
+            <v>36</v>
+          </cell>
+          <cell r="AE127">
+            <v>31</v>
+          </cell>
+          <cell r="AF127">
+            <v>45</v>
+          </cell>
+          <cell r="AG127">
+            <v>76</v>
+          </cell>
+          <cell r="AH127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AI127" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AJ127">
+            <v>4</v>
+          </cell>
+          <cell r="AK127">
+            <v>36</v>
+          </cell>
+          <cell r="AL127">
+            <v>31</v>
+          </cell>
+          <cell r="AM127">
+            <v>45</v>
+          </cell>
+          <cell r="AN127">
+            <v>76</v>
+          </cell>
+          <cell r="AO127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AP127" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AQ127">
+            <v>4</v>
+          </cell>
+          <cell r="AR127">
+            <v>36</v>
+          </cell>
+          <cell r="AS127">
+            <v>31</v>
+          </cell>
+          <cell r="AT127">
+            <v>45</v>
+          </cell>
+          <cell r="AU127">
+            <v>76</v>
+          </cell>
+          <cell r="AV127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AW127" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AX127">
+            <v>4</v>
+          </cell>
+          <cell r="AY127">
+            <v>36</v>
+          </cell>
+          <cell r="AZ127">
+            <v>31</v>
+          </cell>
+          <cell r="BA127">
+            <v>45</v>
+          </cell>
+          <cell r="BB127">
+            <v>76</v>
+          </cell>
+          <cell r="BC127" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="BD127" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="A128" t="str">
+            <v>MMS18-20/126</v>
+          </cell>
+          <cell r="B128" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C128">
+            <v>0</v>
+          </cell>
+          <cell r="D128">
+            <v>0</v>
+          </cell>
+          <cell r="E128">
+            <v>0</v>
+          </cell>
+          <cell r="F128" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G128" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H128">
+            <v>4</v>
+          </cell>
+          <cell r="I128">
+            <v>0</v>
+          </cell>
+          <cell r="J128">
+            <v>0</v>
+          </cell>
+          <cell r="K128">
+            <v>0</v>
+          </cell>
+          <cell r="L128">
+            <v>0</v>
+          </cell>
+          <cell r="M128" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N128" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O128">
+            <v>4</v>
+          </cell>
+          <cell r="P128">
+            <v>0</v>
+          </cell>
+          <cell r="Q128">
+            <v>0</v>
+          </cell>
+          <cell r="R128">
+            <v>0</v>
+          </cell>
+          <cell r="S128">
+            <v>0</v>
+          </cell>
+          <cell r="T128" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U128" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V128">
+            <v>4</v>
+          </cell>
+          <cell r="W128">
+            <v>0</v>
+          </cell>
+          <cell r="X128">
+            <v>33</v>
+          </cell>
+          <cell r="Y128">
+            <v>36</v>
+          </cell>
+          <cell r="Z128">
+            <v>69</v>
+          </cell>
+          <cell r="AA128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB128" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC128">
+            <v>4</v>
+          </cell>
+          <cell r="AD128">
+            <v>28</v>
+          </cell>
+          <cell r="AE128">
+            <v>33</v>
+          </cell>
+          <cell r="AF128">
+            <v>36</v>
+          </cell>
+          <cell r="AG128">
+            <v>69</v>
+          </cell>
+          <cell r="AH128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI128" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ128">
+            <v>4</v>
+          </cell>
+          <cell r="AK128">
+            <v>28</v>
+          </cell>
+          <cell r="AL128">
+            <v>33</v>
+          </cell>
+          <cell r="AM128">
+            <v>36</v>
+          </cell>
+          <cell r="AN128">
+            <v>69</v>
+          </cell>
+          <cell r="AO128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP128" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ128">
+            <v>4</v>
+          </cell>
+          <cell r="AR128">
+            <v>28</v>
+          </cell>
+          <cell r="AS128">
+            <v>33</v>
+          </cell>
+          <cell r="AT128">
+            <v>36</v>
+          </cell>
+          <cell r="AU128">
+            <v>69</v>
+          </cell>
+          <cell r="AV128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW128" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX128">
+            <v>4</v>
+          </cell>
+          <cell r="AY128">
+            <v>28</v>
+          </cell>
+          <cell r="AZ128">
+            <v>33</v>
+          </cell>
+          <cell r="BA128">
+            <v>36</v>
+          </cell>
+          <cell r="BB128">
+            <v>69</v>
+          </cell>
+          <cell r="BC128" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD128" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="A129" t="str">
+            <v>MMS18-20/127</v>
+          </cell>
+          <cell r="B129" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C129">
+            <v>0</v>
+          </cell>
+          <cell r="D129">
+            <v>0</v>
+          </cell>
+          <cell r="E129">
+            <v>0</v>
+          </cell>
+          <cell r="F129" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G129" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H129">
+            <v>4</v>
+          </cell>
+          <cell r="I129">
+            <v>0</v>
+          </cell>
+          <cell r="J129">
+            <v>0</v>
+          </cell>
+          <cell r="K129">
+            <v>0</v>
+          </cell>
+          <cell r="L129">
+            <v>0</v>
+          </cell>
+          <cell r="M129" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N129" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O129">
+            <v>4</v>
+          </cell>
+          <cell r="P129">
+            <v>0</v>
+          </cell>
+          <cell r="Q129">
+            <v>0</v>
+          </cell>
+          <cell r="R129">
+            <v>0</v>
+          </cell>
+          <cell r="S129">
+            <v>0</v>
+          </cell>
+          <cell r="T129" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U129" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V129">
+            <v>4</v>
+          </cell>
+          <cell r="W129">
+            <v>0</v>
+          </cell>
+          <cell r="X129">
+            <v>32</v>
+          </cell>
+          <cell r="Y129">
+            <v>39</v>
+          </cell>
+          <cell r="Z129">
+            <v>71</v>
+          </cell>
+          <cell r="AA129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AB129" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AC129">
+            <v>4</v>
+          </cell>
+          <cell r="AD129">
+            <v>32</v>
+          </cell>
+          <cell r="AE129">
+            <v>32</v>
+          </cell>
+          <cell r="AF129">
+            <v>39</v>
+          </cell>
+          <cell r="AG129">
+            <v>71</v>
+          </cell>
+          <cell r="AH129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AI129" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AJ129">
+            <v>4</v>
+          </cell>
+          <cell r="AK129">
+            <v>32</v>
+          </cell>
+          <cell r="AL129">
+            <v>32</v>
+          </cell>
+          <cell r="AM129">
+            <v>39</v>
+          </cell>
+          <cell r="AN129">
+            <v>71</v>
+          </cell>
+          <cell r="AO129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AP129" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AQ129">
+            <v>4</v>
+          </cell>
+          <cell r="AR129">
+            <v>32</v>
+          </cell>
+          <cell r="AS129">
+            <v>32</v>
+          </cell>
+          <cell r="AT129">
+            <v>39</v>
+          </cell>
+          <cell r="AU129">
+            <v>71</v>
+          </cell>
+          <cell r="AV129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AW129" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AX129">
+            <v>4</v>
+          </cell>
+          <cell r="AY129">
+            <v>32</v>
+          </cell>
+          <cell r="AZ129">
+            <v>32</v>
+          </cell>
+          <cell r="BA129">
+            <v>39</v>
+          </cell>
+          <cell r="BB129">
+            <v>71</v>
+          </cell>
+          <cell r="BC129" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="BD129" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="A130" t="str">
+            <v>MMS18-20/128</v>
+          </cell>
+          <cell r="B130" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C130">
+            <v>0</v>
+          </cell>
+          <cell r="D130">
+            <v>0</v>
+          </cell>
+          <cell r="E130">
+            <v>0</v>
+          </cell>
+          <cell r="F130" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G130" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H130">
+            <v>4</v>
+          </cell>
+          <cell r="I130">
+            <v>0</v>
+          </cell>
+          <cell r="J130">
+            <v>0</v>
+          </cell>
+          <cell r="K130">
+            <v>0</v>
+          </cell>
+          <cell r="L130">
+            <v>0</v>
+          </cell>
+          <cell r="M130" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N130" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O130">
+            <v>4</v>
+          </cell>
+          <cell r="P130">
+            <v>0</v>
+          </cell>
+          <cell r="Q130">
+            <v>0</v>
+          </cell>
+          <cell r="R130">
+            <v>0</v>
+          </cell>
+          <cell r="S130">
+            <v>0</v>
+          </cell>
+          <cell r="T130" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U130" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V130">
+            <v>4</v>
+          </cell>
+          <cell r="W130">
+            <v>0</v>
+          </cell>
+          <cell r="X130">
+            <v>30</v>
+          </cell>
+          <cell r="Y130">
+            <v>41</v>
+          </cell>
+          <cell r="Z130">
+            <v>71</v>
+          </cell>
+          <cell r="AA130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AB130" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AC130">
+            <v>4</v>
+          </cell>
+          <cell r="AD130">
+            <v>32</v>
+          </cell>
+          <cell r="AE130">
+            <v>30</v>
+          </cell>
+          <cell r="AF130">
+            <v>41</v>
+          </cell>
+          <cell r="AG130">
+            <v>71</v>
+          </cell>
+          <cell r="AH130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AI130" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AJ130">
+            <v>4</v>
+          </cell>
+          <cell r="AK130">
+            <v>32</v>
+          </cell>
+          <cell r="AL130">
+            <v>30</v>
+          </cell>
+          <cell r="AM130">
+            <v>41</v>
+          </cell>
+          <cell r="AN130">
+            <v>71</v>
+          </cell>
+          <cell r="AO130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AP130" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AQ130">
+            <v>4</v>
+          </cell>
+          <cell r="AR130">
+            <v>32</v>
+          </cell>
+          <cell r="AS130">
+            <v>30</v>
+          </cell>
+          <cell r="AT130">
+            <v>41</v>
+          </cell>
+          <cell r="AU130">
+            <v>71</v>
+          </cell>
+          <cell r="AV130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="AW130" t="str">
+            <v>8</v>
+          </cell>
+          <cell r="AX130">
+            <v>4</v>
+          </cell>
+          <cell r="AY130">
+            <v>32</v>
+          </cell>
+          <cell r="AZ130">
+            <v>30</v>
+          </cell>
+          <cell r="BA130">
+            <v>41</v>
+          </cell>
+          <cell r="BB130">
+            <v>71</v>
+          </cell>
+          <cell r="BC130" t="str">
+            <v>A</v>
+          </cell>
+          <cell r="BD130" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="A131" t="str">
+            <v>MMS18-20/129</v>
+          </cell>
+          <cell r="B131" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C131">
+            <v>0</v>
+          </cell>
+          <cell r="D131">
+            <v>0</v>
+          </cell>
+          <cell r="E131">
+            <v>0</v>
+          </cell>
+          <cell r="F131" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G131" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H131">
+            <v>4</v>
+          </cell>
+          <cell r="I131">
+            <v>0</v>
+          </cell>
+          <cell r="J131">
+            <v>0</v>
+          </cell>
+          <cell r="K131">
+            <v>0</v>
+          </cell>
+          <cell r="L131">
+            <v>0</v>
+          </cell>
+          <cell r="M131" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N131" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O131">
+            <v>4</v>
+          </cell>
+          <cell r="P131">
+            <v>0</v>
+          </cell>
+          <cell r="Q131">
+            <v>0</v>
+          </cell>
+          <cell r="R131">
+            <v>0</v>
+          </cell>
+          <cell r="S131">
+            <v>0</v>
+          </cell>
+          <cell r="T131" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U131" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V131">
+            <v>4</v>
+          </cell>
+          <cell r="W131">
+            <v>0</v>
+          </cell>
+          <cell r="X131">
+            <v>29</v>
+          </cell>
+          <cell r="Y131">
+            <v>46</v>
+          </cell>
+          <cell r="Z131">
+            <v>75</v>
+          </cell>
+          <cell r="AA131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AB131" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AC131">
+            <v>4</v>
+          </cell>
+          <cell r="AD131">
+            <v>36</v>
+          </cell>
+          <cell r="AE131">
+            <v>29</v>
+          </cell>
+          <cell r="AF131">
+            <v>46</v>
+          </cell>
+          <cell r="AG131">
+            <v>75</v>
+          </cell>
+          <cell r="AH131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AI131" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AJ131">
+            <v>4</v>
+          </cell>
+          <cell r="AK131">
+            <v>36</v>
+          </cell>
+          <cell r="AL131">
+            <v>29</v>
+          </cell>
+          <cell r="AM131">
+            <v>46</v>
+          </cell>
+          <cell r="AN131">
+            <v>75</v>
+          </cell>
+          <cell r="AO131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AP131" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AQ131">
+            <v>4</v>
+          </cell>
+          <cell r="AR131">
+            <v>36</v>
+          </cell>
+          <cell r="AS131">
+            <v>29</v>
+          </cell>
+          <cell r="AT131">
+            <v>46</v>
+          </cell>
+          <cell r="AU131">
+            <v>75</v>
+          </cell>
+          <cell r="AV131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="AW131" t="str">
+            <v>9</v>
+          </cell>
+          <cell r="AX131">
+            <v>4</v>
+          </cell>
+          <cell r="AY131">
+            <v>36</v>
+          </cell>
+          <cell r="AZ131">
+            <v>29</v>
+          </cell>
+          <cell r="BA131">
+            <v>46</v>
+          </cell>
+          <cell r="BB131">
+            <v>75</v>
+          </cell>
+          <cell r="BC131" t="str">
+            <v>A+</v>
+          </cell>
+          <cell r="BD131" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="A132" t="str">
+            <v>MMS18-20/130</v>
+          </cell>
+          <cell r="B132" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C132">
+            <v>0</v>
+          </cell>
+          <cell r="D132">
+            <v>0</v>
+          </cell>
+          <cell r="E132">
+            <v>0</v>
+          </cell>
+          <cell r="F132" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G132" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H132">
+            <v>4</v>
+          </cell>
+          <cell r="I132">
+            <v>0</v>
+          </cell>
+          <cell r="J132">
+            <v>0</v>
+          </cell>
+          <cell r="K132">
+            <v>0</v>
+          </cell>
+          <cell r="L132">
+            <v>0</v>
+          </cell>
+          <cell r="M132" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N132" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O132">
+            <v>4</v>
+          </cell>
+          <cell r="P132">
+            <v>0</v>
+          </cell>
+          <cell r="Q132">
+            <v>0</v>
+          </cell>
+          <cell r="R132">
+            <v>0</v>
+          </cell>
+          <cell r="S132">
+            <v>0</v>
+          </cell>
+          <cell r="T132" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U132" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V132">
+            <v>4</v>
+          </cell>
+          <cell r="W132">
+            <v>0</v>
+          </cell>
+          <cell r="X132">
+            <v>27</v>
+          </cell>
+          <cell r="Y132">
+            <v>40</v>
+          </cell>
+          <cell r="Z132">
+            <v>67</v>
+          </cell>
+          <cell r="AA132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB132" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC132">
+            <v>4</v>
+          </cell>
+          <cell r="AD132">
+            <v>28</v>
+          </cell>
+          <cell r="AE132">
+            <v>27</v>
+          </cell>
+          <cell r="AF132">
+            <v>40</v>
+          </cell>
+          <cell r="AG132">
+            <v>67</v>
+          </cell>
+          <cell r="AH132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI132" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ132">
+            <v>4</v>
+          </cell>
+          <cell r="AK132">
+            <v>28</v>
+          </cell>
+          <cell r="AL132">
+            <v>27</v>
+          </cell>
+          <cell r="AM132">
+            <v>40</v>
+          </cell>
+          <cell r="AN132">
+            <v>67</v>
+          </cell>
+          <cell r="AO132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP132" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ132">
+            <v>4</v>
+          </cell>
+          <cell r="AR132">
+            <v>28</v>
+          </cell>
+          <cell r="AS132">
+            <v>27</v>
+          </cell>
+          <cell r="AT132">
+            <v>40</v>
+          </cell>
+          <cell r="AU132">
+            <v>67</v>
+          </cell>
+          <cell r="AV132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW132" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX132">
+            <v>4</v>
+          </cell>
+          <cell r="AY132">
+            <v>28</v>
+          </cell>
+          <cell r="AZ132">
+            <v>27</v>
+          </cell>
+          <cell r="BA132">
+            <v>40</v>
+          </cell>
+          <cell r="BB132">
+            <v>67</v>
+          </cell>
+          <cell r="BC132" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD132" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="A133" t="str">
+            <v>MMS18-20/131</v>
+          </cell>
+          <cell r="B133" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C133">
+            <v>0</v>
+          </cell>
+          <cell r="D133">
+            <v>0</v>
+          </cell>
+          <cell r="E133">
+            <v>0</v>
+          </cell>
+          <cell r="F133" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G133" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H133">
+            <v>4</v>
+          </cell>
+          <cell r="I133">
+            <v>0</v>
+          </cell>
+          <cell r="J133">
+            <v>0</v>
+          </cell>
+          <cell r="K133">
+            <v>0</v>
+          </cell>
+          <cell r="L133">
+            <v>0</v>
+          </cell>
+          <cell r="M133" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N133" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O133">
+            <v>4</v>
+          </cell>
+          <cell r="P133">
+            <v>0</v>
+          </cell>
+          <cell r="Q133">
+            <v>0</v>
+          </cell>
+          <cell r="R133">
+            <v>0</v>
+          </cell>
+          <cell r="S133">
+            <v>0</v>
+          </cell>
+          <cell r="T133" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U133" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V133">
+            <v>4</v>
+          </cell>
+          <cell r="W133">
+            <v>0</v>
+          </cell>
+          <cell r="X133">
+            <v>31</v>
+          </cell>
+          <cell r="Y133">
+            <v>38</v>
+          </cell>
+          <cell r="Z133">
+            <v>69</v>
+          </cell>
+          <cell r="AA133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB133" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC133">
+            <v>4</v>
+          </cell>
+          <cell r="AD133">
+            <v>28</v>
+          </cell>
+          <cell r="AE133">
+            <v>31</v>
+          </cell>
+          <cell r="AF133">
+            <v>38</v>
+          </cell>
+          <cell r="AG133">
+            <v>69</v>
+          </cell>
+          <cell r="AH133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI133" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ133">
+            <v>4</v>
+          </cell>
+          <cell r="AK133">
+            <v>28</v>
+          </cell>
+          <cell r="AL133">
+            <v>31</v>
+          </cell>
+          <cell r="AM133">
+            <v>38</v>
+          </cell>
+          <cell r="AN133">
+            <v>69</v>
+          </cell>
+          <cell r="AO133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP133" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ133">
+            <v>4</v>
+          </cell>
+          <cell r="AR133">
+            <v>28</v>
+          </cell>
+          <cell r="AS133">
+            <v>31</v>
+          </cell>
+          <cell r="AT133">
+            <v>38</v>
+          </cell>
+          <cell r="AU133">
+            <v>69</v>
+          </cell>
+          <cell r="AV133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW133" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX133">
+            <v>4</v>
+          </cell>
+          <cell r="AY133">
+            <v>28</v>
+          </cell>
+          <cell r="AZ133">
+            <v>31</v>
+          </cell>
+          <cell r="BA133">
+            <v>38</v>
+          </cell>
+          <cell r="BB133">
+            <v>69</v>
+          </cell>
+          <cell r="BC133" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD133" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="A134" t="str">
+            <v>MMS18-20/132</v>
+          </cell>
+          <cell r="B134" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C134">
+            <v>0</v>
+          </cell>
+          <cell r="D134">
+            <v>0</v>
+          </cell>
+          <cell r="E134">
+            <v>0</v>
+          </cell>
+          <cell r="F134" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G134" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H134">
+            <v>4</v>
+          </cell>
+          <cell r="I134">
+            <v>0</v>
+          </cell>
+          <cell r="J134">
+            <v>0</v>
+          </cell>
+          <cell r="K134">
+            <v>0</v>
+          </cell>
+          <cell r="L134">
+            <v>0</v>
+          </cell>
+          <cell r="M134" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N134" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O134">
+            <v>4</v>
+          </cell>
+          <cell r="P134">
+            <v>0</v>
+          </cell>
+          <cell r="Q134">
+            <v>0</v>
+          </cell>
+          <cell r="R134">
+            <v>0</v>
+          </cell>
+          <cell r="S134">
+            <v>0</v>
+          </cell>
+          <cell r="T134" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U134" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V134">
+            <v>4</v>
+          </cell>
+          <cell r="W134">
+            <v>0</v>
+          </cell>
+          <cell r="X134">
+            <v>28</v>
+          </cell>
+          <cell r="Y134">
+            <v>37</v>
+          </cell>
+          <cell r="Z134">
+            <v>65</v>
+          </cell>
+          <cell r="AA134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AB134" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AC134">
+            <v>4</v>
+          </cell>
+          <cell r="AD134">
+            <v>28</v>
+          </cell>
+          <cell r="AE134">
+            <v>28</v>
+          </cell>
+          <cell r="AF134">
+            <v>37</v>
+          </cell>
+          <cell r="AG134">
+            <v>65</v>
+          </cell>
+          <cell r="AH134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AI134" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AJ134">
+            <v>4</v>
+          </cell>
+          <cell r="AK134">
+            <v>28</v>
+          </cell>
+          <cell r="AL134">
+            <v>28</v>
+          </cell>
+          <cell r="AM134">
+            <v>37</v>
+          </cell>
+          <cell r="AN134">
+            <v>65</v>
+          </cell>
+          <cell r="AO134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AP134" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AQ134">
+            <v>4</v>
+          </cell>
+          <cell r="AR134">
+            <v>28</v>
+          </cell>
+          <cell r="AS134">
+            <v>28</v>
+          </cell>
+          <cell r="AT134">
+            <v>37</v>
+          </cell>
+          <cell r="AU134">
+            <v>65</v>
+          </cell>
+          <cell r="AV134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="AW134" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="AX134">
+            <v>4</v>
+          </cell>
+          <cell r="AY134">
+            <v>28</v>
+          </cell>
+          <cell r="AZ134">
+            <v>28</v>
+          </cell>
+          <cell r="BA134">
+            <v>37</v>
+          </cell>
+          <cell r="BB134">
+            <v>65</v>
+          </cell>
+          <cell r="BC134" t="str">
+            <v>B+</v>
+          </cell>
+          <cell r="BD134" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="A135" t="str">
+            <v>MMS18-20/133</v>
+          </cell>
+          <cell r="B135" t="str">
+            <v>*** (NOT AVAILABLE) ***</v>
+          </cell>
+          <cell r="C135">
+            <v>0</v>
+          </cell>
+          <cell r="D135">
+            <v>0</v>
+          </cell>
+          <cell r="E135">
+            <v>0</v>
+          </cell>
+          <cell r="F135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="G135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="H135">
+            <v>4</v>
+          </cell>
+          <cell r="I135">
+            <v>0</v>
+          </cell>
+          <cell r="J135">
+            <v>0</v>
+          </cell>
+          <cell r="K135">
+            <v>0</v>
+          </cell>
+          <cell r="L135">
+            <v>0</v>
+          </cell>
+          <cell r="M135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="N135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="O135">
+            <v>4</v>
+          </cell>
+          <cell r="P135">
+            <v>0</v>
+          </cell>
+          <cell r="Q135">
+            <v>0</v>
+          </cell>
+          <cell r="R135">
+            <v>0</v>
+          </cell>
+          <cell r="S135">
+            <v>0</v>
+          </cell>
+          <cell r="T135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="U135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="V135">
+            <v>4</v>
+          </cell>
+          <cell r="W135">
+            <v>0</v>
+          </cell>
+          <cell r="X135">
+            <v>0</v>
+          </cell>
+          <cell r="Y135">
+            <v>0</v>
+          </cell>
+          <cell r="Z135">
+            <v>0</v>
+          </cell>
+          <cell r="AA135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="AB135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="AC135">
+            <v>4</v>
+          </cell>
+          <cell r="AD135">
+            <v>0</v>
+          </cell>
+          <cell r="AE135">
+            <v>0</v>
+          </cell>
+          <cell r="AF135">
+            <v>0</v>
+          </cell>
+          <cell r="AG135">
+            <v>0</v>
+          </cell>
+          <cell r="AH135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="AI135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="AJ135">
+            <v>4</v>
+          </cell>
+          <cell r="AK135">
+            <v>0</v>
+          </cell>
+          <cell r="AL135">
+            <v>0</v>
+          </cell>
+          <cell r="AM135">
+            <v>0</v>
+          </cell>
+          <cell r="AN135">
+            <v>0</v>
+          </cell>
+          <cell r="AO135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="AP135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="AQ135">
+            <v>4</v>
+          </cell>
+          <cell r="AR135">
+            <v>0</v>
+          </cell>
+          <cell r="AS135">
+            <v>0</v>
+          </cell>
+          <cell r="AT135">
+            <v>0</v>
+          </cell>
+          <cell r="AU135">
+            <v>0</v>
+          </cell>
+          <cell r="AV135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="AW135" t="str">
+            <v>0</v>
+          </cell>
+          <cell r="AX135">
+            <v>4</v>
+          </cell>
+          <cell r="AY135">
+            <v>0</v>
+          </cell>
+          <cell r="AZ135">
+            <v>0</v>
+          </cell>
+          <cell r="BA135">
+            <v>0</v>
+          </cell>
+          <cell r="BB135">
+            <v>0</v>
+          </cell>
+          <cell r="BC135" t="str">
+            <v>F</v>
+          </cell>
+          <cell r="BD135" t="str">
+            <v>0</v>
+          </cell>
+        </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -27229,8 +29532,8 @@
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="26"/>
-      <c r="D13" s="27">
-        <v>1820001</v>
+      <c r="D13" s="27" t="s">
+        <v>39</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
@@ -27355,7 +29658,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$C$122,3,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$C$135,3,0)</f>
         <v>40</v>
       </c>
       <c r="H17" s="3">
@@ -27365,7 +29668,7 @@
         <v>30</v>
       </c>
       <c r="J17" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$D$122,4,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$D$135,4,0)</f>
         <v>60</v>
       </c>
       <c r="K17" s="3">
@@ -27382,14 +29685,14 @@
         <v>4</v>
       </c>
       <c r="O17" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$F$122,6,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$F$135,6,0)</f>
         <v>O</v>
       </c>
       <c r="P17" s="3">
         <v>4</v>
       </c>
       <c r="Q17" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$G$122,7,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$G$135,7,0)</f>
         <v>10</v>
       </c>
       <c r="R17" s="3">
@@ -27413,8 +29716,8 @@
         <v>20</v>
       </c>
       <c r="G18" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$J$122,10,0)</f>
-        <v>30</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$J$135,10,0)</f>
+        <v>40</v>
       </c>
       <c r="H18" s="3">
         <v>60</v>
@@ -27423,8 +29726,8 @@
         <v>30</v>
       </c>
       <c r="J18" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$K$122,11,0)</f>
-        <v>40</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$K$135,11,0)</f>
+        <v>60</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
@@ -27434,25 +29737,25 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" ref="M18:M24" si="0">SUM(G18,J18)</f>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
         <v>4</v>
       </c>
       <c r="O18" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$M$122,13,0)</f>
-        <v>A</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$M$135,13,0)</f>
+        <v>O</v>
       </c>
       <c r="P18" s="3">
         <v>4</v>
       </c>
       <c r="Q18" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$N$122,14,0)</f>
-        <v>8</v>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$N$135,14,0)</f>
+        <v>10</v>
       </c>
       <c r="R18" s="3">
         <f t="shared" ref="R18:R24" si="1">P18*Q18</f>
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -27471,7 +29774,7 @@
         <v>20</v>
       </c>
       <c r="G19" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$Q$122,17,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$Q$135,17,0)</f>
         <v>30</v>
       </c>
       <c r="H19" s="3">
@@ -27481,7 +29784,7 @@
         <v>30</v>
       </c>
       <c r="J19" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$R$122,18,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$R$135,18,0)</f>
         <v>40</v>
       </c>
       <c r="K19" s="3">
@@ -27498,14 +29801,14 @@
         <v>4</v>
       </c>
       <c r="O19" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$T$122,20,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$T$135,20,0)</f>
         <v>A+</v>
       </c>
       <c r="P19" s="3">
         <v>4</v>
       </c>
       <c r="Q19" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$U$122,21,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$U$135,21,0)</f>
         <v>8</v>
       </c>
       <c r="R19" s="3">
@@ -27529,7 +29832,7 @@
         <v>20</v>
       </c>
       <c r="G20" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$X$122,24,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$X$135,24,0)</f>
         <v>30</v>
       </c>
       <c r="H20" s="3">
@@ -27539,7 +29842,7 @@
         <v>30</v>
       </c>
       <c r="J20" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$Y$122,25,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$Y$135,25,0)</f>
         <v>40</v>
       </c>
       <c r="K20" s="3">
@@ -27556,14 +29859,14 @@
         <v>4</v>
       </c>
       <c r="O20" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AA$122,27,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AA$135,27,0)</f>
         <v>A</v>
       </c>
       <c r="P20" s="3">
         <v>4</v>
       </c>
       <c r="Q20" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AB$122,28,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AB$135,28,0)</f>
         <v>8</v>
       </c>
       <c r="R20" s="3">
@@ -27587,7 +29890,7 @@
         <v>20</v>
       </c>
       <c r="G21" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AE$122,31,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AE$135,31,0)</f>
         <v>30</v>
       </c>
       <c r="H21" s="3">
@@ -27597,7 +29900,7 @@
         <v>30</v>
       </c>
       <c r="J21" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AF$122,32,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AF$135,32,0)</f>
         <v>40</v>
       </c>
       <c r="K21" s="3">
@@ -27614,14 +29917,14 @@
         <v>4</v>
       </c>
       <c r="O21" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AH$122,34,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AH$135,34,0)</f>
         <v>A</v>
       </c>
       <c r="P21" s="3">
         <v>4</v>
       </c>
       <c r="Q21" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AI$122,35,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AI$135,35,0)</f>
         <v>8</v>
       </c>
       <c r="R21" s="3">
@@ -27645,7 +29948,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AL$122,38,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AL$135,38,0)</f>
         <v>30</v>
       </c>
       <c r="H22" s="3">
@@ -27655,7 +29958,7 @@
         <v>30</v>
       </c>
       <c r="J22" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AM$122,39,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AM$135,39,0)</f>
         <v>40</v>
       </c>
       <c r="K22" s="3">
@@ -27672,14 +29975,14 @@
         <v>4</v>
       </c>
       <c r="O22" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AO$122,41,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AO$135,41,0)</f>
         <v>A</v>
       </c>
       <c r="P22" s="3">
         <v>4</v>
       </c>
       <c r="Q22" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AP$122,42,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AP$135,42,0)</f>
         <v>8</v>
       </c>
       <c r="R22" s="3">
@@ -27703,7 +30006,7 @@
         <v>20</v>
       </c>
       <c r="G23" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AS$122,45,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AS$135,45,0)</f>
         <v>30</v>
       </c>
       <c r="H23" s="3">
@@ -27713,7 +30016,7 @@
         <v>30</v>
       </c>
       <c r="J23" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AT$122,46,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AT$135,46,0)</f>
         <v>40</v>
       </c>
       <c r="K23" s="3">
@@ -27730,14 +30033,14 @@
         <v>4</v>
       </c>
       <c r="O23" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AV$122,48,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AV$135,48,0)</f>
         <v>A</v>
       </c>
       <c r="P23" s="3">
         <v>4</v>
       </c>
       <c r="Q23" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AW$122,49,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AW$135,49,0)</f>
         <v>8</v>
       </c>
       <c r="R23" s="3">
@@ -27761,7 +30064,7 @@
         <v>20</v>
       </c>
       <c r="G24" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AZ$122,52,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$AZ$135,52,0)</f>
         <v>30</v>
       </c>
       <c r="H24" s="3">
@@ -27771,7 +30074,7 @@
         <v>30</v>
       </c>
       <c r="J24" s="3">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BA$122,53,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BA$135,53,0)</f>
         <v>40</v>
       </c>
       <c r="K24" s="3">
@@ -27788,14 +30091,14 @@
         <v>4</v>
       </c>
       <c r="O24" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BC$122,55,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BC$135,55,0)</f>
         <v>A</v>
       </c>
       <c r="P24" s="3">
         <v>4</v>
       </c>
       <c r="Q24" s="3" t="str">
-        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BD$122,56,0)</f>
+        <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BD$135,56,0)</f>
         <v>8</v>
       </c>
       <c r="R24" s="3">
@@ -27822,7 +30125,7 @@
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f>SUM(M17:M24)</f>
-        <v>590</v>
+        <v>620</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="7"/>
@@ -27832,7 +30135,7 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <f>SUM(R17:R24)</f>
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
@@ -27854,12 +30157,12 @@
       <c r="M26" s="24"/>
       <c r="N26" s="24" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BN$122,66,0)</f>
-        <v>SGPI : 8.25</v>
+        <v>SGPI : 8.5</v>
       </c>
       <c r="O26" s="24"/>
       <c r="P26" s="23" t="str">
         <f>"Overall Grade:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BO$122,67,0)</f>
-        <v>Overall Grade:A</v>
+        <v>Overall Grade:A+</v>
       </c>
       <c r="Q26" s="23"/>
       <c r="R26" s="6" t="str">
@@ -27941,6 +30244,11 @@
       <c r="S32" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="SaBY/Nyw12zx69UT6DwkhHRclISvB8EiOghV0sHzQGuGk3lVke0kN/1eS7wOnR6kq4Rt72x0GzmcO9GKDK5/kg==" saltValue="eGvvt/XZd8pQFwhblw7Wug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="A27" name="Range2"/>
+    <protectedRange sqref="D13" name="Range1"/>
+  </protectedRanges>
   <mergeCells count="39">
     <mergeCell ref="D9:O9"/>
     <mergeCell ref="D10:O10"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abhishek Chitnis\Videos\Results Genetaor\Batch 2018-20\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Results Genetaor\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B45ADB-A58C-499E-A3B3-73F7A29B06C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D70EB4-3B72-4023-BFE5-62958018F6AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -362,6 +362,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,44 +422,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,20 +504,20 @@
           <xdr:col>16</xdr:col>
           <xdr:colOff>28575</xdr:colOff>
           <xdr:row>7</xdr:row>
-          <xdr:rowOff>19049</xdr:rowOff>
+          <xdr:rowOff>28575</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>17</xdr:col>
           <xdr:colOff>828675</xdr:colOff>
           <xdr:row>12</xdr:row>
-          <xdr:rowOff>180975</xdr:rowOff>
+          <xdr:rowOff>171450</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="8" name="Picture 7">
+            <xdr:cNvPr id="5" name="Picture 4">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C8854B5-4655-43C8-8E81-122493EAE494}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23A67F1B-C1FA-4994-8EC0-9370F76DEED6}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -525,7 +525,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2101"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2112"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -539,8 +539,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="7353300" y="1295399"/>
-              <a:ext cx="1181100" cy="1047751"/>
+              <a:off x="7353300" y="1304925"/>
+              <a:ext cx="1181100" cy="1028700"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -29277,104 +29277,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -29392,223 +29392,223 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:18" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27" t="str">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="str">
         <f>VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>ADEPU CHETAN GANESH ARCHANA</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="27" t="s">
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="18" t="s">
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="18" t="s">
+      <c r="O15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="18" t="s">
+      <c r="P15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="18" t="s">
+      <c r="Q15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="18" t="s">
+      <c r="R15" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
@@ -29636,11 +29636,11 @@
       <c r="M16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -30107,18 +30107,18 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="3">
         <v>800</v>
       </c>
@@ -30139,80 +30139,80 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="str">
+      <c r="A26" s="12" t="str">
         <f>"Remarks : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remarks : Successful</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24" t="str">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 8.5</v>
       </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23" t="str">
+      <c r="O26" s="12"/>
+      <c r="P26" s="13" t="str">
         <f>"Overall Grade:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade:A+</v>
       </c>
-      <c r="Q26" s="23"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="6" t="str">
         <f>"Range:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range:70.74.99</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -30244,35 +30244,13 @@
       <c r="S32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="SaBY/Nyw12zx69UT6DwkhHRclISvB8EiOghV0sHzQGuGk3lVke0kN/1eS7wOnR6kq4Rt72x0GzmcO9GKDK5/kg==" saltValue="eGvvt/XZd8pQFwhblw7Wug==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="9VfSymIJn/CA3Sa6U35zcuAXutJdqD09C4Iv1uzdrxabyyjMra9CY177uWo/Sv+2sDvbjUqAY73j1rPnh3Us1g==" saltValue="QUzrKix66lNFesi3D62EOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="A27" name="Range2"/>
-    <protectedRange sqref="D13" name="Range1"/>
+    <protectedRange sqref="D11" name="Held In"/>
+    <protectedRange sqref="D13" name="Seat No."/>
+    <protectedRange sqref="A27" name="Declared Date"/>
   </protectedRanges>
   <mergeCells count="39">
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
     <mergeCell ref="A1:R5"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:P8"/>
@@ -30289,6 +30267,29 @@
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:D16"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Results Genetaor\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D70EB4-3B72-4023-BFE5-62958018F6AC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA58EF5-C240-4AFD-B600-0F160BAC8C06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -362,39 +362,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -422,11 +389,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +525,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2112"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2113"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -2027,34 +2027,34 @@
             <v>ADEPU CHETAN GANESH ARCHANA</v>
           </cell>
           <cell r="C3">
-            <v>40</v>
+            <v>10</v>
           </cell>
           <cell r="D3">
             <v>60</v>
           </cell>
           <cell r="E3">
-            <v>100</v>
+            <v>70</v>
           </cell>
           <cell r="F3" t="str">
-            <v>O</v>
+            <v>A</v>
           </cell>
           <cell r="G3" t="str">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="H3">
             <v>4</v>
           </cell>
           <cell r="I3">
-            <v>40</v>
+            <v>32</v>
           </cell>
           <cell r="J3">
-            <v>40</v>
+            <v>38</v>
           </cell>
           <cell r="K3">
-            <v>60</v>
+            <v>56</v>
           </cell>
           <cell r="L3">
-            <v>100</v>
+            <v>94</v>
           </cell>
           <cell r="M3" t="str">
             <v>O</v>
@@ -2195,31 +2195,31 @@
             <v>32</v>
           </cell>
           <cell r="BG3">
-            <v>260</v>
+            <v>228</v>
           </cell>
           <cell r="BH3">
-            <v>360</v>
+            <v>356</v>
           </cell>
           <cell r="BI3">
-            <v>620</v>
+            <v>584</v>
           </cell>
           <cell r="BJ3">
-            <v>68</v>
+            <v>66</v>
           </cell>
           <cell r="BK3">
-            <v>272</v>
+            <v>264</v>
           </cell>
           <cell r="BL3">
-            <v>77.5</v>
+            <v>73</v>
           </cell>
           <cell r="BM3" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN3">
-            <v>8.5</v>
+            <v>8.25</v>
           </cell>
           <cell r="BO3" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="BP3" t="str">
             <v>70.74.99</v>
@@ -2648,22 +2648,22 @@
             <v>31</v>
           </cell>
           <cell r="D6">
-            <v>45</v>
+            <v>20</v>
           </cell>
           <cell r="E6">
-            <v>76</v>
+            <v>51</v>
           </cell>
           <cell r="F6" t="str">
-            <v>A+</v>
+            <v>P</v>
           </cell>
           <cell r="G6" t="str">
-            <v>9</v>
+            <v>4</v>
           </cell>
           <cell r="H6">
             <v>4</v>
           </cell>
           <cell r="I6">
-            <v>36</v>
+            <v>16</v>
           </cell>
           <cell r="J6">
             <v>31</v>
@@ -2816,31 +2816,31 @@
             <v>248</v>
           </cell>
           <cell r="BH6">
-            <v>360</v>
+            <v>335</v>
           </cell>
           <cell r="BI6">
-            <v>608</v>
+            <v>583</v>
           </cell>
           <cell r="BJ6">
-            <v>72</v>
+            <v>67</v>
           </cell>
           <cell r="BK6">
-            <v>288</v>
+            <v>268</v>
           </cell>
           <cell r="BL6">
-            <v>76</v>
+            <v>72.875</v>
           </cell>
           <cell r="BM6" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN6">
-            <v>9</v>
+            <v>8.375</v>
           </cell>
           <cell r="BO6" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="BP6" t="str">
-            <v>75-79-99</v>
+            <v>70.74.99</v>
           </cell>
         </row>
         <row r="7">
@@ -6353,202 +6353,202 @@
             <v>*** (NOT AVAILABLE) ***</v>
           </cell>
           <cell r="C24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="D24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="E24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="F24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="G24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="H24">
             <v>4</v>
           </cell>
           <cell r="I24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="J24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="K24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="L24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="M24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="N24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="O24">
             <v>4</v>
           </cell>
           <cell r="P24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Q24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="R24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="S24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="T24" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="U24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="V24">
             <v>4</v>
           </cell>
           <cell r="W24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="X24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Y24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="Z24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AA24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC24">
             <v>4</v>
           </cell>
           <cell r="AD24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AF24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AG24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AH24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ24">
             <v>4</v>
           </cell>
           <cell r="AK24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AM24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AN24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AO24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ24">
             <v>4</v>
           </cell>
           <cell r="AR24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AT24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AU24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AV24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX24">
             <v>4</v>
           </cell>
           <cell r="AY24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BA24">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="BB24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="BC24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD24" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BE24">
             <v>4</v>
           </cell>
           <cell r="BF24">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BG24">
-            <v>224</v>
+            <v>0</v>
           </cell>
           <cell r="BH24">
-            <v>296</v>
+            <v>0</v>
           </cell>
           <cell r="BI24">
-            <v>520</v>
+            <v>0</v>
           </cell>
           <cell r="BJ24">
-            <v>56</v>
+            <v>0</v>
           </cell>
           <cell r="BK24">
-            <v>224</v>
+            <v>0</v>
           </cell>
           <cell r="BL24">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="BM24" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN24">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BO24" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BP24" t="str">
-            <v>65-69.99</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="25">
@@ -10679,202 +10679,202 @@
             <v>*** (NOT AVAILABLE) ***</v>
           </cell>
           <cell r="C45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="E45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="F45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="G45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="H45">
             <v>4</v>
           </cell>
           <cell r="I45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="J45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="K45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="L45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="M45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="N45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="O45">
             <v>4</v>
           </cell>
           <cell r="P45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Q45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="R45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="S45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="T45" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="U45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="V45">
             <v>4</v>
           </cell>
           <cell r="W45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="X45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="Y45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="Z45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AA45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC45">
             <v>4</v>
           </cell>
           <cell r="AD45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AF45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AG45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AH45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ45">
             <v>4</v>
           </cell>
           <cell r="AK45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AM45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AN45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AO45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ45">
             <v>4</v>
           </cell>
           <cell r="AR45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AT45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AU45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AV45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX45">
             <v>4</v>
           </cell>
           <cell r="AY45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ45">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="BA45">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="BB45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BC45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD45" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BE45">
             <v>4</v>
           </cell>
           <cell r="BF45">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BG45">
-            <v>248</v>
+            <v>0</v>
           </cell>
           <cell r="BH45">
-            <v>304</v>
+            <v>0</v>
           </cell>
           <cell r="BI45">
-            <v>552</v>
+            <v>0</v>
           </cell>
           <cell r="BJ45">
-            <v>56</v>
+            <v>0</v>
           </cell>
           <cell r="BK45">
-            <v>224</v>
+            <v>0</v>
           </cell>
           <cell r="BL45">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BM45" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN45">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BO45" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BP45" t="str">
-            <v>65-69.99</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="46">
@@ -26338,22 +26338,22 @@
             <v>27</v>
           </cell>
           <cell r="D121">
-            <v>40</v>
+            <v>36</v>
           </cell>
           <cell r="E121">
-            <v>67</v>
+            <v>63</v>
           </cell>
           <cell r="F121" t="str">
-            <v>B+</v>
+            <v>B</v>
           </cell>
           <cell r="G121" t="str">
-            <v>7</v>
+            <v>6</v>
           </cell>
           <cell r="H121">
             <v>4</v>
           </cell>
           <cell r="I121">
-            <v>28</v>
+            <v>24</v>
           </cell>
           <cell r="J121">
             <v>27</v>
@@ -26506,25 +26506,25 @@
             <v>216</v>
           </cell>
           <cell r="BH121">
-            <v>320</v>
+            <v>316</v>
           </cell>
           <cell r="BI121">
-            <v>536</v>
+            <v>532</v>
           </cell>
           <cell r="BJ121">
-            <v>56</v>
+            <v>55</v>
           </cell>
           <cell r="BK121">
-            <v>224</v>
+            <v>220</v>
           </cell>
           <cell r="BL121">
-            <v>67</v>
+            <v>66.5</v>
           </cell>
           <cell r="BM121" t="str">
             <v>Successful</v>
           </cell>
           <cell r="BN121">
-            <v>7</v>
+            <v>6.875</v>
           </cell>
           <cell r="BO121" t="str">
             <v>B+</v>
@@ -26541,202 +26541,202 @@
             <v>*** (NOT AVAILABLE) ***</v>
           </cell>
           <cell r="C122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="D122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="E122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="F122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="G122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="H122">
             <v>4</v>
           </cell>
           <cell r="I122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="J122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="K122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="L122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="M122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="N122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="O122">
             <v>4</v>
           </cell>
           <cell r="P122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Q122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="R122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="S122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="T122" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="U122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="V122">
             <v>4</v>
           </cell>
           <cell r="W122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="X122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="Y122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="Z122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AA122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC122">
             <v>4</v>
           </cell>
           <cell r="AD122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AF122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AG122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AH122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ122">
             <v>4</v>
           </cell>
           <cell r="AK122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AM122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AN122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AO122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ122">
             <v>4</v>
           </cell>
           <cell r="AR122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AT122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AU122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AV122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX122">
             <v>4</v>
           </cell>
           <cell r="AY122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ122">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="BA122">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="BB122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BC122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD122" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BE122">
             <v>4</v>
           </cell>
           <cell r="BF122">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BG122">
-            <v>248</v>
+            <v>0</v>
           </cell>
           <cell r="BH122">
-            <v>304</v>
+            <v>0</v>
           </cell>
           <cell r="BI122">
-            <v>552</v>
+            <v>0</v>
           </cell>
           <cell r="BJ122">
-            <v>56</v>
+            <v>0</v>
           </cell>
           <cell r="BK122">
-            <v>224</v>
+            <v>0</v>
           </cell>
           <cell r="BL122">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BM122" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN122">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="BO122" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BP122" t="str">
-            <v>65-69.99</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="123">
@@ -26810,103 +26810,103 @@
             <v>0</v>
           </cell>
           <cell r="X123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Y123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="Z123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AA123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC123">
             <v>4</v>
           </cell>
           <cell r="AD123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AF123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AG123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AH123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ123">
             <v>4</v>
           </cell>
           <cell r="AK123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AM123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AN123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AO123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ123">
             <v>4</v>
           </cell>
           <cell r="AR123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AT123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AU123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AV123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX123">
             <v>4</v>
           </cell>
           <cell r="AY123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ123">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BA123">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="BB123">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="BC123" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD123" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="124">
@@ -26980,103 +26980,103 @@
             <v>0</v>
           </cell>
           <cell r="X124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="Y124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="Z124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="AA124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AB124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AC124">
             <v>4</v>
           </cell>
           <cell r="AD124">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AE124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AF124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AG124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="AH124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AI124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AJ124">
             <v>4</v>
           </cell>
           <cell r="AK124">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AL124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AM124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AN124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="AO124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AP124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AQ124">
             <v>4</v>
           </cell>
           <cell r="AR124">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AS124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AT124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AU124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="AV124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AW124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AX124">
             <v>4</v>
           </cell>
           <cell r="AY124">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AZ124">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="BA124">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="BB124">
-            <v>70</v>
+            <v>0</v>
           </cell>
           <cell r="BC124" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="BD124" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="125">
@@ -27150,103 +27150,103 @@
             <v>0</v>
           </cell>
           <cell r="X125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="Y125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="Z125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="AA125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="AB125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="AC125">
             <v>4</v>
           </cell>
           <cell r="AD125">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AE125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="AF125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="AG125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="AH125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="AI125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="AJ125">
             <v>4</v>
           </cell>
           <cell r="AK125">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AL125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="AM125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="AN125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="AO125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="AP125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="AQ125">
             <v>4</v>
           </cell>
           <cell r="AR125">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AS125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="AT125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="AU125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="AV125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="AW125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
           <cell r="AX125">
             <v>4</v>
           </cell>
           <cell r="AY125">
-            <v>24</v>
+            <v>0</v>
           </cell>
           <cell r="AZ125">
-            <v>25</v>
+            <v>0</v>
           </cell>
           <cell r="BA125">
-            <v>35</v>
+            <v>0</v>
           </cell>
           <cell r="BB125">
-            <v>60</v>
+            <v>0</v>
           </cell>
           <cell r="BC125" t="str">
-            <v>B</v>
+            <v>F</v>
           </cell>
           <cell r="BD125" t="str">
-            <v>6</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="126">
@@ -27320,103 +27320,103 @@
             <v>0</v>
           </cell>
           <cell r="X126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="Y126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="Z126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="AA126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AB126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AC126">
             <v>4</v>
           </cell>
           <cell r="AD126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AE126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AF126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="AG126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="AH126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AI126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AJ126">
             <v>4</v>
           </cell>
           <cell r="AK126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AL126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AM126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="AN126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="AO126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AP126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AQ126">
             <v>4</v>
           </cell>
           <cell r="AR126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AS126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AT126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="AU126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="AV126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AW126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AX126">
             <v>4</v>
           </cell>
           <cell r="AY126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AZ126">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="BA126">
-            <v>42</v>
+            <v>0</v>
           </cell>
           <cell r="BB126">
-            <v>74</v>
+            <v>0</v>
           </cell>
           <cell r="BC126" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="BD126" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="127">
@@ -27490,103 +27490,103 @@
             <v>0</v>
           </cell>
           <cell r="X127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="Y127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="Z127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="AA127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AB127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AC127">
             <v>4</v>
           </cell>
           <cell r="AD127">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AE127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AF127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="AG127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="AH127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AI127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AJ127">
             <v>4</v>
           </cell>
           <cell r="AK127">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AL127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AM127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="AN127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="AO127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AP127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AQ127">
             <v>4</v>
           </cell>
           <cell r="AR127">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AS127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AT127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="AU127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="AV127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AW127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AX127">
             <v>4</v>
           </cell>
           <cell r="AY127">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AZ127">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="BA127">
-            <v>45</v>
+            <v>0</v>
           </cell>
           <cell r="BB127">
-            <v>76</v>
+            <v>0</v>
           </cell>
           <cell r="BC127" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="BD127" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="128">
@@ -27660,103 +27660,103 @@
             <v>0</v>
           </cell>
           <cell r="X128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="Y128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="Z128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AA128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC128">
             <v>4</v>
           </cell>
           <cell r="AD128">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="AF128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AG128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AH128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ128">
             <v>4</v>
           </cell>
           <cell r="AK128">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="AM128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AN128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AO128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ128">
             <v>4</v>
           </cell>
           <cell r="AR128">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="AT128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AU128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AV128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX128">
             <v>4</v>
           </cell>
           <cell r="AY128">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ128">
-            <v>33</v>
+            <v>0</v>
           </cell>
           <cell r="BA128">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="BB128">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BC128" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD128" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="129">
@@ -27830,103 +27830,103 @@
             <v>0</v>
           </cell>
           <cell r="X129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="Y129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="Z129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AA129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AB129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AC129">
             <v>4</v>
           </cell>
           <cell r="AD129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AE129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AF129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="AG129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AH129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AI129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AJ129">
             <v>4</v>
           </cell>
           <cell r="AK129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AL129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AM129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="AN129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AO129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AP129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AQ129">
             <v>4</v>
           </cell>
           <cell r="AR129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AS129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AT129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="AU129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AV129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AW129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AX129">
             <v>4</v>
           </cell>
           <cell r="AY129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AZ129">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="BA129">
-            <v>39</v>
+            <v>0</v>
           </cell>
           <cell r="BB129">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="BC129" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="BD129" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="130">
@@ -28000,103 +28000,103 @@
             <v>0</v>
           </cell>
           <cell r="X130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="Y130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="Z130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AA130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AB130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AC130">
             <v>4</v>
           </cell>
           <cell r="AD130">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AE130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AF130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="AG130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AH130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AI130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AJ130">
             <v>4</v>
           </cell>
           <cell r="AK130">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AL130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AM130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="AN130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AO130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AP130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AQ130">
             <v>4</v>
           </cell>
           <cell r="AR130">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AS130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="AT130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="AU130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="AV130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="AW130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="AX130">
             <v>4</v>
           </cell>
           <cell r="AY130">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="AZ130">
-            <v>30</v>
+            <v>0</v>
           </cell>
           <cell r="BA130">
-            <v>41</v>
+            <v>0</v>
           </cell>
           <cell r="BB130">
-            <v>71</v>
+            <v>0</v>
           </cell>
           <cell r="BC130" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="BD130" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="131">
@@ -28170,103 +28170,103 @@
             <v>0</v>
           </cell>
           <cell r="X131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="Y131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="Z131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="AA131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AB131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AC131">
             <v>4</v>
           </cell>
           <cell r="AD131">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AE131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="AF131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="AG131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="AH131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AI131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AJ131">
             <v>4</v>
           </cell>
           <cell r="AK131">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AL131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="AM131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="AN131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="AO131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AP131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AQ131">
             <v>4</v>
           </cell>
           <cell r="AR131">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AS131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="AT131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="AU131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="AV131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="AW131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
           <cell r="AX131">
             <v>4</v>
           </cell>
           <cell r="AY131">
-            <v>36</v>
+            <v>0</v>
           </cell>
           <cell r="AZ131">
-            <v>29</v>
+            <v>0</v>
           </cell>
           <cell r="BA131">
-            <v>46</v>
+            <v>0</v>
           </cell>
           <cell r="BB131">
-            <v>75</v>
+            <v>0</v>
           </cell>
           <cell r="BC131" t="str">
-            <v>A+</v>
+            <v>F</v>
           </cell>
           <cell r="BD131" t="str">
-            <v>9</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="132">
@@ -28340,103 +28340,103 @@
             <v>0</v>
           </cell>
           <cell r="X132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="Y132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="Z132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="AA132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC132">
             <v>4</v>
           </cell>
           <cell r="AD132">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="AF132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AG132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="AH132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ132">
             <v>4</v>
           </cell>
           <cell r="AK132">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="AM132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AN132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="AO132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ132">
             <v>4</v>
           </cell>
           <cell r="AR132">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="AT132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="AU132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="AV132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX132">
             <v>4</v>
           </cell>
           <cell r="AY132">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ132">
-            <v>27</v>
+            <v>0</v>
           </cell>
           <cell r="BA132">
-            <v>40</v>
+            <v>0</v>
           </cell>
           <cell r="BB132">
-            <v>67</v>
+            <v>0</v>
           </cell>
           <cell r="BC132" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD132" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="133">
@@ -28510,103 +28510,103 @@
             <v>0</v>
           </cell>
           <cell r="X133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="Y133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="Z133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AA133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC133">
             <v>4</v>
           </cell>
           <cell r="AD133">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AF133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AG133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AH133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ133">
             <v>4</v>
           </cell>
           <cell r="AK133">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AM133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AN133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AO133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ133">
             <v>4</v>
           </cell>
           <cell r="AR133">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="AT133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="AU133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="AV133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX133">
             <v>4</v>
           </cell>
           <cell r="AY133">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ133">
-            <v>31</v>
+            <v>0</v>
           </cell>
           <cell r="BA133">
-            <v>38</v>
+            <v>0</v>
           </cell>
           <cell r="BB133">
-            <v>69</v>
+            <v>0</v>
           </cell>
           <cell r="BC133" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD133" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="134">
@@ -28680,103 +28680,103 @@
             <v>0</v>
           </cell>
           <cell r="X134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="Y134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="Z134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AA134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AB134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AC134">
             <v>4</v>
           </cell>
           <cell r="AD134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AE134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AF134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AG134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AH134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AI134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AJ134">
             <v>4</v>
           </cell>
           <cell r="AK134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AL134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AM134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AN134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AO134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AP134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AQ134">
             <v>4</v>
           </cell>
           <cell r="AR134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AS134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AT134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="AU134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="AV134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="AW134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
           <cell r="AX134">
             <v>4</v>
           </cell>
           <cell r="AY134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="AZ134">
-            <v>28</v>
+            <v>0</v>
           </cell>
           <cell r="BA134">
-            <v>37</v>
+            <v>0</v>
           </cell>
           <cell r="BB134">
-            <v>65</v>
+            <v>0</v>
           </cell>
           <cell r="BC134" t="str">
-            <v>B+</v>
+            <v>F</v>
           </cell>
           <cell r="BD134" t="str">
-            <v>7</v>
+            <v>0</v>
           </cell>
         </row>
         <row r="135">
@@ -29277,104 +29277,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -29392,223 +29392,223 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
     </row>
     <row r="8" spans="1:18" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="12"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8" t="str">
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="27" t="str">
         <f>VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>ADEPU CHETAN GANESH ARCHANA</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="8" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="8" t="s">
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="14"/>
     </row>
     <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="27"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
     </row>
     <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="16"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18" t="s">
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18" t="s">
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="15" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="O15" s="15" t="s">
+      <c r="O15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="15" t="s">
+      <c r="R15" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
@@ -29636,11 +29636,11 @@
       <c r="M16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="15"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -29659,7 +29659,7 @@
       </c>
       <c r="G17" s="3">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$C$135,3,0)</f>
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H17" s="3">
         <v>60</v>
@@ -29679,25 +29679,25 @@
       </c>
       <c r="M17" s="3">
         <f>SUM(G17,J17)</f>
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="N17" s="3">
         <v>4</v>
       </c>
       <c r="O17" s="3" t="str">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$F$135,6,0)</f>
-        <v>O</v>
+        <v>A</v>
       </c>
       <c r="P17" s="3">
         <v>4</v>
       </c>
       <c r="Q17" s="3" t="str">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$G$135,7,0)</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R17" s="3">
         <f>P17*Q17</f>
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -29717,7 +29717,7 @@
       </c>
       <c r="G18" s="3">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$J$135,10,0)</f>
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H18" s="3">
         <v>60</v>
@@ -29727,7 +29727,7 @@
       </c>
       <c r="J18" s="3">
         <f>VLOOKUP(D13,'[2]Subject Marks'!$A$3:$K$135,11,0)</f>
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K18" s="3">
         <v>100</v>
@@ -29737,7 +29737,7 @@
       </c>
       <c r="M18" s="3">
         <f t="shared" ref="M18:M24" si="0">SUM(G18,J18)</f>
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N18" s="3">
         <v>4</v>
@@ -30107,25 +30107,25 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
       <c r="K25" s="3">
         <v>800</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3">
         <f>SUM(M17:M24)</f>
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="7"/>
@@ -30135,84 +30135,84 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7">
         <f>SUM(R17:R24)</f>
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="str">
+      <c r="A26" s="24" t="str">
         <f>"Remarks : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BM$122,65,0)</f>
-        <v>Remarks : Successful</v>
+        <v>Remarks : Unsuccessful</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12" t="str">
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BN$122,66,0)</f>
-        <v>SGPI : 8.5</v>
+        <v>SGPI : 8.25</v>
       </c>
-      <c r="O26" s="12"/>
-      <c r="P26" s="13" t="str">
+      <c r="O26" s="24"/>
+      <c r="P26" s="23" t="str">
         <f>"Overall Grade:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BO$122,67,0)</f>
-        <v>Overall Grade:A+</v>
+        <v>Overall Grade:A</v>
       </c>
-      <c r="Q26" s="13"/>
+      <c r="Q26" s="23"/>
       <c r="R26" s="6" t="str">
         <f>"Range:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range:70.74.99</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -30244,13 +30244,36 @@
       <c r="S32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="9VfSymIJn/CA3Sa6U35zcuAXutJdqD09C4Iv1uzdrxabyyjMra9CY177uWo/Sv+2sDvbjUqAY73j1rPnh3Us1g==" saltValue="QUzrKix66lNFesi3D62EOg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nrblBHGUWzE+3MHaEBCJdBWws+2awurDuSo28c3l//Yk1yCV0gCkjLQVqzmBtyZ4lWKBYUrGx9a52Cg25uXkYQ==" saltValue="w4Aa6P7QvsaCwoVwwmCJ/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D11" name="Held In"/>
     <protectedRange sqref="D13" name="Seat No."/>
     <protectedRange sqref="A27" name="Declared Date"/>
   </protectedRanges>
   <mergeCells count="39">
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="A1:R5"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:P8"/>
@@ -30267,29 +30290,6 @@
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:D16"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Results Genetaor\Batch 2018-20\Sem 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA58EF5-C240-4AFD-B600-0F160BAC8C06}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431D2EB4-7E0E-4344-B319-0A34D11B6878}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -18,6 +18,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="PicUp">INDEX([1]Sheet1!$C$2:$C$121,MATCH('Final Grade Card'!$D$13:$O$13,[1]Sheet1!$A$2:$A$121,0))</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>University of Mumbai</t>
   </si>
@@ -66,30 +67,6 @@
   </si>
   <si>
     <t>Total Marks</t>
-  </si>
-  <si>
-    <t>Perspective Management</t>
-  </si>
-  <si>
-    <t>Financial Accounting</t>
-  </si>
-  <si>
-    <t>Business Statistics</t>
-  </si>
-  <si>
-    <t>Operations Management</t>
-  </si>
-  <si>
-    <t>Managerial Economics</t>
-  </si>
-  <si>
-    <t>Effective and Management Communication</t>
-  </si>
-  <si>
-    <t>Negotiation and Selling Skills</t>
-  </si>
-  <si>
-    <t>Organisational Behaviour</t>
   </si>
   <si>
     <t>Course
@@ -362,6 +339,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -389,44 +399,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -525,7 +502,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2113"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2115"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -28947,6 +28924,60 @@
           </cell>
           <cell r="BD135" t="str">
             <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Subjects List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Perspective Management</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>Financial Accounting</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6" t="str">
+            <v>Business Statistics</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7" t="str">
+            <v>Operations Management</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>Managerial Economics</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>Effective and Management Communication</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>Negotiation and Selling Skills</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>Organisational Behaviour</v>
           </cell>
         </row>
       </sheetData>
@@ -29277,104 +29308,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
     </row>
     <row r="6" spans="1:18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
@@ -29392,223 +29423,223 @@
       <c r="M6" s="1"/>
     </row>
     <row r="7" spans="1:18" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
     </row>
     <row r="8" spans="1:18" ht="9.9499999999999993" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="11"/>
-      <c r="R8" s="12"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>26</v>
+      <c r="A9" s="9" t="s">
+        <v>18</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="27" t="str">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8" t="str">
         <f>VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>ADEPU CHETAN GANESH ARCHANA</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>27</v>
+      <c r="A10" s="9" t="s">
+        <v>19</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
-    </row>
-    <row r="11" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="14"/>
-    </row>
-    <row r="12" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
-    </row>
-    <row r="13" spans="1:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="27"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="16"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
     </row>
     <row r="14" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22" t="s">
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="18" t="s">
-        <v>18</v>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="15" t="s">
+        <v>10</v>
       </c>
-      <c r="O15" s="18" t="s">
-        <v>19</v>
+      <c r="O15" s="15" t="s">
+        <v>11</v>
       </c>
-      <c r="P15" s="18" t="s">
-        <v>20</v>
+      <c r="P15" s="15" t="s">
+        <v>12</v>
       </c>
-      <c r="Q15" s="18" t="s">
-        <v>21</v>
+      <c r="Q15" s="15" t="s">
+        <v>13</v>
       </c>
-      <c r="R15" s="18" t="s">
-        <v>22</v>
+      <c r="R15" s="15" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
@@ -29636,18 +29667,19 @@
       <c r="M16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>10</v>
+      <c r="B17" s="17" t="str">
+        <f>'[3]Subjects List'!$C4</f>
+        <v>Perspective Management</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -29704,8 +29736,9 @@
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>11</v>
+      <c r="B18" s="17" t="str">
+        <f>'[3]Subjects List'!$C5</f>
+        <v>Financial Accounting</v>
       </c>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -29762,8 +29795,9 @@
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>12</v>
+      <c r="B19" s="17" t="str">
+        <f>'[3]Subjects List'!$C6</f>
+        <v>Business Statistics</v>
       </c>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -29820,8 +29854,9 @@
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>13</v>
+      <c r="B20" s="17" t="str">
+        <f>'[3]Subjects List'!$C7</f>
+        <v>Operations Management</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -29878,8 +29913,9 @@
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>14</v>
+      <c r="B21" s="17" t="str">
+        <f>'[3]Subjects List'!$C8</f>
+        <v>Managerial Economics</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -29936,8 +29972,9 @@
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>15</v>
+      <c r="B22" s="17" t="str">
+        <f>'[3]Subjects List'!$C9</f>
+        <v>Effective and Management Communication</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -29994,8 +30031,9 @@
       <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>16</v>
+      <c r="B23" s="17" t="str">
+        <f>'[3]Subjects List'!$C10</f>
+        <v>Negotiation and Selling Skills</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -30052,8 +30090,9 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>17</v>
+      <c r="B24" s="17" t="str">
+        <f>'[3]Subjects List'!$C11</f>
+        <v>Organisational Behaviour</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -30107,18 +30146,18 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>23</v>
+      <c r="A25" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="3">
         <v>800</v>
       </c>
@@ -30139,104 +30178,104 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="str">
+      <c r="A26" s="12" t="str">
         <f>"Remarks : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remarks : Unsuccessful</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="24" t="str">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 8.25</v>
       </c>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23" t="str">
+      <c r="O26" s="12"/>
+      <c r="P26" s="13" t="str">
         <f>"Overall Grade:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade:A</v>
       </c>
-      <c r="Q26" s="23"/>
+      <c r="Q26" s="13"/>
       <c r="R26" s="6" t="str">
         <f>"Range:"&amp;VLOOKUP(D13,'[2]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range:70.74.99</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>24</v>
+      <c r="A27" s="12" t="s">
+        <v>16</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>25</v>
+      <c r="A28" s="14" t="s">
+        <v>17</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="25"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="P31" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K32" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -30244,36 +30283,13 @@
       <c r="S32" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nrblBHGUWzE+3MHaEBCJdBWws+2awurDuSo28c3l//Yk1yCV0gCkjLQVqzmBtyZ4lWKBYUrGx9a52Cg25uXkYQ==" saltValue="w4Aa6P7QvsaCwoVwwmCJ/g==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="LcjzIpkW0YwBgD+jRaGekbdYBUyJz+ao7Z77uzi9jRAc6CGbnE5BcDZ4Ycc775t4l+WnQ3pWkMsCwZXESQJYHg==" saltValue="olPH5sTzzLtNTDw6Km7GYw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D11" name="Held In"/>
     <protectedRange sqref="D13" name="Seat No."/>
     <protectedRange sqref="A27" name="Declared Date"/>
   </protectedRanges>
   <mergeCells count="39">
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="D12:O12"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:O13"/>
-    <mergeCell ref="A25:J25"/>
-    <mergeCell ref="A26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:R27"/>
-    <mergeCell ref="A28:R28"/>
-    <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
     <mergeCell ref="A1:R5"/>
     <mergeCell ref="A7:R7"/>
     <mergeCell ref="A8:P8"/>
@@ -30290,6 +30306,29 @@
     <mergeCell ref="A14:M14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:D16"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:R27"/>
+    <mergeCell ref="A28:R28"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:O13"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="D12:O12"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632A5A94-1752-4D33-A9A5-A888D241CF34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFCDCDC-C087-4277-A20C-3F481D24D771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -308,35 +308,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -344,8 +362,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,29 +392,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,7 +492,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2126"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2127"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -513,6 +513,11 @@
               <a:avLst/>
             </a:prstGeom>
             <a:noFill/>
+            <a:ln w="28575">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
             <a:extLst>
               <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
                 <a14:hiddenFill>
@@ -29294,495 +29299,495 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
+      <c r="A1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="str">
+      <c r="A9" s="9" t="str">
         <f>"NAME OF THE CANDIDATE : "&amp;VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>NAME OF THE CANDIDATE : ADEPU CHETAN GANESH ARCHANA</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="29" t="s">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="I15" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="27">
+      <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="15" t="str">
+      <c r="B17" s="18" t="str">
         <f>'[2]Subjects List'!$C$4</f>
         <v>Perspective Management</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="27">
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="4">
         <v>4</v>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="F17" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$F$135,6,0)</f>
         <v>A</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="4">
         <v>4</v>
       </c>
-      <c r="H17" s="27" t="str">
+      <c r="H17" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$G$135,7,0)</f>
         <v>8</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="4">
         <f>G17*H17</f>
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="15" t="str">
+      <c r="B18" s="18" t="str">
         <f>'[2]Subjects List'!$C$5</f>
         <v>Financial Accounting</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="27">
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="4">
         <v>4</v>
       </c>
-      <c r="F18" s="27" t="str">
+      <c r="F18" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$M$135,13,0)</f>
         <v>O</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="27" t="str">
+      <c r="H18" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$N$135,14,0)</f>
         <v>10</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="4">
         <f t="shared" ref="I18:I24" si="0">G18*H18</f>
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
+      <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="15" t="str">
+      <c r="B19" s="18" t="str">
         <f>'[2]Subjects List'!$C$6</f>
         <v>Business Statistics</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="27">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="4">
         <v>4</v>
       </c>
-      <c r="F19" s="27" t="str">
+      <c r="F19" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$T$135,20,0)</f>
         <v>A+</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="4">
         <v>4</v>
       </c>
-      <c r="H19" s="27" t="str">
+      <c r="H19" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$U$135,21,0)</f>
         <v>8</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
+      <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="15" t="str">
+      <c r="B20" s="18" t="str">
         <f>'[2]Subjects List'!$C$7</f>
         <v>Operations Management</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="27">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="27" t="str">
+      <c r="F20" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AA$135,27,0)</f>
         <v>A</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="4">
         <v>4</v>
       </c>
-      <c r="H20" s="27" t="str">
+      <c r="H20" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AB$135,28,0)</f>
         <v>8</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
+      <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="15" t="str">
+      <c r="B21" s="18" t="str">
         <f>'[2]Subjects List'!$C$8</f>
         <v>Managerial Economics</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="27">
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21" s="27" t="str">
+      <c r="F21" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AH$135,34,0)</f>
         <v>A</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="4">
         <v>4</v>
       </c>
-      <c r="H21" s="27" t="str">
+      <c r="H21" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AI$135,35,0)</f>
         <v>8</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
+      <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="15" t="str">
+      <c r="B22" s="18" t="str">
         <f>'[2]Subjects List'!$C$9</f>
         <v>Effective and Management Communication</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="27">
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="4">
         <v>4</v>
       </c>
-      <c r="F22" s="27" t="str">
+      <c r="F22" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AO$135,41,0)</f>
         <v>A</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="4">
         <v>4</v>
       </c>
-      <c r="H22" s="27" t="str">
+      <c r="H22" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AP$135,42,0)</f>
         <v>8</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
+      <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="15" t="str">
+      <c r="B23" s="18" t="str">
         <f>'[2]Subjects List'!$C$10</f>
         <v>Negotiation and Selling Skills</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="27">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="4">
         <v>4</v>
       </c>
-      <c r="F23" s="27" t="str">
+      <c r="F23" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AV$135,48,0)</f>
         <v>A</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="4">
         <v>4</v>
       </c>
-      <c r="H23" s="27" t="str">
+      <c r="H23" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AW$135,49,0)</f>
         <v>8</v>
       </c>
-      <c r="I23" s="27">
+      <c r="I23" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
+      <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="15" t="str">
+      <c r="B24" s="18" t="str">
         <f>'[2]Subjects List'!$C$11</f>
         <v>Organisational Behaviour</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="27">
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="4">
         <v>4</v>
       </c>
-      <c r="F24" s="27" t="str">
+      <c r="F24" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BC$135,55,0)</f>
         <v>A</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="4">
         <v>4</v>
       </c>
-      <c r="H24" s="27" t="str">
+      <c r="H24" s="4" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BD$135,56,0)</f>
         <v>8</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="4">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="28">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="5">
         <f>SUM(G17:G24)</f>
         <v>32</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="str">
+      <c r="A26" s="26" t="str">
         <f>"Remark    :  "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remark    :  Unsuccessful</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22" t="str">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 8.25</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="22" t="str">
+      <c r="F26" s="30"/>
+      <c r="G26" s="29" t="str">
         <f>"Overall Grade : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade : A</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="30" t="str">
+      <c r="H26" s="30"/>
+      <c r="I26" s="6" t="str">
         <f>"Range : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range : 70-74.99</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -29827,10 +29832,10 @@
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31" s="6" t="s">
+      <c r="H31" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I31" s="6"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32"/>
@@ -29842,10 +29847,10 @@
         <v>7</v>
       </c>
       <c r="G32"/>
-      <c r="H32" s="6" t="s">
+      <c r="H32" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="6"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -29872,36 +29877,29 @@
       <c r="I34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yUlmU+xt4zNcPkPhRhugg+cFTO59Gid32vSpQJsoreXA2ikO+PqcBpCuDmqFeYGI41f8uo+fFXt2M2CuLLxtRQ==" saltValue="hkavncTtCridZ6Ve69xiSw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="C27" name="Declared Date"/>
     <protectedRange sqref="D13" name="Seat No."/>
     <protectedRange sqref="A11" name="Held In"/>
   </protectedRanges>
   <mergeCells count="36">
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H8:I13"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:I27"/>
@@ -29918,16 +29916,22 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H8:I13"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="H31:I31"/>
     <mergeCell ref="B15:D16"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.69" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFCDCDC-C087-4277-A20C-3F481D24D771}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56821EC3-6F65-4A4E-9D78-2CD803D23D97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -22,6 +22,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="PicUp">INDEX([1]Sheet1!$C$2:$C$121,MATCH('Final Grade Card'!$D$13:$I$13,[1]Sheet1!$A$2:$A$121,0))</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Final Grade Card'!$A$1:$I$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,9 +65,6 @@
     <t>Seal</t>
   </si>
   <si>
-    <t>Director</t>
-  </si>
-  <si>
     <t>MMS18-20/1</t>
   </si>
   <si>
@@ -96,9 +94,6 @@
     <t>Checked By  ______________</t>
   </si>
   <si>
-    <t>SIMSR</t>
-  </si>
-  <si>
     <t>PROGRAMME : MASTER OF MANAGEMENT STUDIES (SEMESTER -I)</t>
   </si>
   <si>
@@ -107,12 +102,19 @@
   <si>
     <t>PATTERN : CHOICE BASED CREDITS &amp; GRADING SYSTEM (CBCSGS)</t>
   </si>
+  <si>
+    <t>Sasmira's Institute of Mngmnt
+Studies and Research</t>
+  </si>
+  <si>
+    <t>Director / Controller of Examination</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +175,14 @@
     <font>
       <b/>
       <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -304,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -314,68 +324,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -394,6 +344,78 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -414,68 +436,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFDE4A27-FCA6-4BF6-999A-335F89A8FFDA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9526" y="9524"/>
-          <a:ext cx="5924550" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>466725</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>76200</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>28574</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>563822</xdr:colOff>
+          <xdr:colOff>954347</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>180974</xdr:rowOff>
         </xdr:to>
@@ -492,13 +464,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2127"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2132"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -506,8 +478,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4410075" y="1295399"/>
-              <a:ext cx="773372" cy="1038225"/>
+              <a:off x="4695825" y="1295399"/>
+              <a:ext cx="878147" cy="1038225"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -534,6 +506,50 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66751A2A-2BAB-4D1F-85FF-23C63FFAB6B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5743575" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -29354,15 +29370,15 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
@@ -29378,141 +29394,141 @@
       <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="str">
+      <c r="A9" s="24" t="str">
         <f>"NAME OF THE CANDIDATE : "&amp;VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>NAME OF THE CANDIDATE : ADEPU CHETAN GANESH ARCHANA</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="20" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="str">
+      <c r="B17" s="19" t="str">
         <f>'[2]Subjects List'!$C$4</f>
         <v>Perspective Management</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="4">
         <v>4</v>
       </c>
@@ -29536,12 +29552,12 @@
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="18" t="str">
+      <c r="B18" s="19" t="str">
         <f>'[2]Subjects List'!$C$5</f>
         <v>Financial Accounting</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="4">
         <v>4</v>
       </c>
@@ -29565,12 +29581,12 @@
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="str">
+      <c r="B19" s="19" t="str">
         <f>'[2]Subjects List'!$C$6</f>
         <v>Business Statistics</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="4">
         <v>4</v>
       </c>
@@ -29594,12 +29610,12 @@
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="18" t="str">
+      <c r="B20" s="19" t="str">
         <f>'[2]Subjects List'!$C$7</f>
         <v>Operations Management</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="4">
         <v>4</v>
       </c>
@@ -29623,12 +29639,12 @@
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="18" t="str">
+      <c r="B21" s="19" t="str">
         <f>'[2]Subjects List'!$C$8</f>
         <v>Managerial Economics</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="4">
         <v>4</v>
       </c>
@@ -29652,12 +29668,12 @@
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="18" t="str">
+      <c r="B22" s="19" t="str">
         <f>'[2]Subjects List'!$C$9</f>
         <v>Effective and Management Communication</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="4">
         <v>4</v>
       </c>
@@ -29681,12 +29697,12 @@
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="18" t="str">
+      <c r="B23" s="19" t="str">
         <f>'[2]Subjects List'!$C$10</f>
         <v>Negotiation and Selling Skills</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="4">
         <v>4</v>
       </c>
@@ -29710,12 +29726,12 @@
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="18" t="str">
+      <c r="B24" s="19" t="str">
         <f>'[2]Subjects List'!$C$11</f>
         <v>Organisational Behaviour</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="4">
         <v>4</v>
       </c>
@@ -29737,50 +29753,53 @@
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="23" t="s">
-        <v>10</v>
+      <c r="B25" s="28" t="s">
+        <v>9</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="25"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="5">
+      <c r="G25" s="32">
         <f>SUM(G17:G24)</f>
         <v>32</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="31">
+        <f>SUM(I17:I24)</f>
+        <v>264</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="str">
+      <c r="A26" s="6" t="str">
         <f>"Remark    :  "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remark    :  Unsuccessful</v>
       </c>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29" t="str">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 8.25</v>
       </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="29" t="str">
+      <c r="F26" s="10"/>
+      <c r="G26" s="9" t="str">
         <f>"Overall Grade : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade : A</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="6" t="str">
+      <c r="H26" s="10"/>
+      <c r="I26" s="5" t="str">
         <f>"Range : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range : 70-74.99</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -29813,7 +29832,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30"/>
       <c r="C30" s="2"/>
@@ -29831,11 +29850,11 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31" s="8" t="s">
-        <v>8</v>
+      <c r="G31" s="35" t="s">
+        <v>21</v>
       </c>
-      <c r="I31" s="8"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32"/>
@@ -29843,27 +29862,26 @@
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32"/>
-      <c r="F32" t="s">
-        <v>7</v>
+      <c r="G32"/>
+      <c r="H32" s="33" t="s">
+        <v>20</v>
       </c>
-      <c r="G32"/>
-      <c r="H32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="8"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33"/>
-      <c r="F33"/>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
       <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34"/>
@@ -29877,17 +29895,17 @@
       <c r="I34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -29896,11 +29914,22 @@
     <protectedRange sqref="A11" name="Held In"/>
   </protectedRanges>
   <mergeCells count="36">
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="H32:I33"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H8:I13"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:I27"/>
     <mergeCell ref="A7:I7"/>
@@ -29916,22 +29945,11 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H8:I13"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:I5"/>
   </mergeCells>
   <pageMargins left="0.69" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56821EC3-6F65-4A4E-9D78-2CD803D23D97}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AEE7E8-168D-4D5A-8C8C-A498E2B63AE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -327,6 +327,75 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -347,75 +416,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,7 +464,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2132"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2133"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -29315,220 +29315,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="12"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="str">
+      <c r="A9" s="12" t="str">
         <f>"NAME OF THE CANDIDATE : "&amp;VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>NAME OF THE CANDIDATE : ADEPU CHETAN GANESH ARCHANA</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="24" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="16" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
-      <c r="B17" s="19" t="str">
+      <c r="B17" s="18" t="str">
         <f>'[2]Subjects List'!$C$4</f>
         <v>Perspective Management</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="4">
         <v>4</v>
       </c>
@@ -29552,12 +29552,12 @@
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="19" t="str">
+      <c r="B18" s="18" t="str">
         <f>'[2]Subjects List'!$C$5</f>
         <v>Financial Accounting</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="4">
         <v>4</v>
       </c>
@@ -29581,12 +29581,12 @@
       <c r="A19" s="4">
         <v>3</v>
       </c>
-      <c r="B19" s="19" t="str">
+      <c r="B19" s="18" t="str">
         <f>'[2]Subjects List'!$C$6</f>
         <v>Business Statistics</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="4">
         <v>4</v>
       </c>
@@ -29610,12 +29610,12 @@
       <c r="A20" s="4">
         <v>4</v>
       </c>
-      <c r="B20" s="19" t="str">
+      <c r="B20" s="18" t="str">
         <f>'[2]Subjects List'!$C$7</f>
         <v>Operations Management</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="4">
         <v>4</v>
       </c>
@@ -29639,12 +29639,12 @@
       <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21" s="19" t="str">
+      <c r="B21" s="18" t="str">
         <f>'[2]Subjects List'!$C$8</f>
         <v>Managerial Economics</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="4">
         <v>4</v>
       </c>
@@ -29668,12 +29668,12 @@
       <c r="A22" s="4">
         <v>6</v>
       </c>
-      <c r="B22" s="19" t="str">
+      <c r="B22" s="18" t="str">
         <f>'[2]Subjects List'!$C$9</f>
         <v>Effective and Management Communication</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="4">
         <v>4</v>
       </c>
@@ -29697,12 +29697,12 @@
       <c r="A23" s="4">
         <v>7</v>
       </c>
-      <c r="B23" s="19" t="str">
+      <c r="B23" s="18" t="str">
         <f>'[2]Subjects List'!$C$10</f>
         <v>Negotiation and Selling Skills</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="4">
         <v>4</v>
       </c>
@@ -29726,12 +29726,12 @@
       <c r="A24" s="4">
         <v>8</v>
       </c>
-      <c r="B24" s="19" t="str">
+      <c r="B24" s="18" t="str">
         <f>'[2]Subjects List'!$C$11</f>
         <v>Organisational Behaviour</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="4">
         <v>4</v>
       </c>
@@ -29753,60 +29753,60 @@
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="32">
+      <c r="G25" s="7">
         <f>SUM(G17:G24)</f>
         <v>32</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="31">
+      <c r="I25" s="6">
         <f>SUM(I17:I24)</f>
         <v>264</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="str">
+      <c r="A26" s="29" t="str">
         <f>"Remark    :  "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remark    :  Unsuccessful</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9" t="str">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 8.25</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="9" t="str">
+      <c r="F26" s="33"/>
+      <c r="G26" s="32" t="str">
         <f>"Overall Grade : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade : A</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="33"/>
       <c r="I26" s="5" t="str">
         <f>"Range : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range : 70-74.99</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="23"/>
+      <c r="C27" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -29850,11 +29850,11 @@
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
-      <c r="G31" s="35" t="s">
+      <c r="G31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32"/>
@@ -29863,10 +29863,10 @@
       <c r="D32"/>
       <c r="E32"/>
       <c r="G32"/>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="34"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -29880,8 +29880,8 @@
         <v>7</v>
       </c>
       <c r="G33"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34"/>
@@ -29895,25 +29895,46 @@
       <c r="I34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="O6aSU7JLVSPOv7rHYM7zZDxE/BKz794fSGU4XnW6qsbUbTxzVLVdFQMc0wMmp+SmQfPJHP4jVsE70YKYR3SUpQ==" saltValue="62/2DfEFtOCkH3SmYLT2Dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="C27" name="Declared Date"/>
     <protectedRange sqref="D13" name="Seat No."/>
     <protectedRange sqref="A11" name="Held In"/>
   </protectedRanges>
   <mergeCells count="36">
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:I5"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="H32:I33"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="A35:I35"/>
@@ -29930,26 +29951,6 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:I5"/>
   </mergeCells>
   <pageMargins left="0.69" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AEE7E8-168D-4D5A-8C8C-A498E2B63AE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE625F6-ED7C-4848-A808-35184D2B46E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>University of Mumbai</t>
   </si>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>PATTERN : CHOICE BASED CREDITS &amp; GRADING SYSTEM (CBCSGS)</t>
-  </si>
-  <si>
-    <t>Sasmira's Institute of Mngmnt
-Studies and Research</t>
   </si>
   <si>
     <t>Director / Controller of Examination</t>
@@ -314,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -333,47 +329,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -393,6 +359,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -405,17 +380,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -464,7 +454,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2133"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2135"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -29296,8 +29286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C8EAEB-E2F7-4568-A48C-2E5909074BE5}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29315,209 +29305,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="35"/>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
+      <c r="A1" s="11"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="str">
+      <c r="A9" s="27" t="str">
         <f>"NAME OF THE CANDIDATE : "&amp;VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>NAME OF THE CANDIDATE : ADEPU CHETAN GANESH ARCHANA</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="12" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16" t="s">
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="19" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
@@ -29753,11 +29743,11 @@
     </row>
     <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="7">
@@ -29771,42 +29761,42 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="str">
+      <c r="A26" s="22" t="str">
         <f>"Remark    :  "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remark    :  Unsuccessful</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32" t="str">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="8" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 8.25</v>
       </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="32" t="str">
+      <c r="F26" s="9"/>
+      <c r="G26" s="8" t="str">
         <f>"Overall Grade : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade : A</v>
       </c>
-      <c r="H26" s="33"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="5" t="str">
         <f>"Range : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range : 70-74.99</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23" t="s">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -29820,9 +29810,11 @@
       <c r="I28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29"/>
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
       <c r="B29"/>
-      <c r="C29"/>
+      <c r="C29" s="2"/>
       <c r="D29"/>
       <c r="E29"/>
       <c r="F29"/>
@@ -29831,90 +29823,80 @@
       <c r="I29"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
+      <c r="A30"/>
       <c r="B30"/>
-      <c r="C30" s="2"/>
+      <c r="C30"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30"/>
-      <c r="I30"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31"/>
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31" s="10" t="s">
-        <v>21</v>
+      <c r="G31" s="16" t="s">
+        <v>20</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="G32"/>
-      <c r="H32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33" t="s">
+      <c r="D32" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="G33"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="O6aSU7JLVSPOv7rHYM7zZDxE/BKz794fSGU4XnW6qsbUbTxzVLVdFQMc0wMmp+SmQfPJHP4jVsE70YKYR3SUpQ==" saltValue="62/2DfEFtOCkH3SmYLT2Dw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="C27" name="Declared Date"/>
     <protectedRange sqref="D13" name="Seat No."/>
     <protectedRange sqref="A11" name="Held In"/>
   </protectedRanges>
   <mergeCells count="36">
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H8:I13"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="A13:C13"/>
@@ -29931,26 +29913,6 @@
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="H32:I33"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="H8:I13"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
   </mergeCells>
   <pageMargins left="0.69" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE625F6-ED7C-4848-A808-35184D2B46E4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B71E0EE-9F9F-4916-86D6-0E3D8B47281F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="PicUp">INDEX([1]Sheet1!$C$2:$C$121,MATCH('Final Grade Card'!$D$13:$I$13,[1]Sheet1!$A$2:$A$121,0))</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Final Grade Card'!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Final Grade Card'!$A$1:$I$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>University of Mumbai</t>
   </si>
@@ -62,19 +62,10 @@
     <t>F-Head of Failure,--Not Applicable, Ab-Absent, /Female, SGPI=Σ(CXG)/Σ©~-Dyslexia Benefit.</t>
   </si>
   <si>
-    <t>Seal</t>
-  </si>
-  <si>
-    <t>MMS18-20/1</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
     <t xml:space="preserve">Result Declared On : </t>
-  </si>
-  <si>
-    <t>31/01/2019</t>
   </si>
   <si>
     <t>EXAMINATION GR.NO/ SEAT NO. :</t>
@@ -97,20 +88,23 @@
     <t>PROGRAMME : MASTER OF MANAGEMENT STUDIES (SEMESTER -I)</t>
   </si>
   <si>
-    <t>HELD IN : DECEMBER 2018</t>
-  </si>
-  <si>
     <t>PATTERN : CHOICE BASED CREDITS &amp; GRADING SYSTEM (CBCSGS)</t>
   </si>
   <si>
     <t>Director / Controller of Examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Seal</t>
+  </si>
+  <si>
+    <t>MMS18-20/002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,20 +115,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Old English Text MT"/>
-      <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -155,34 +135,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Old English Text MT"/>
+      <family val="4"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Old English Text MT"/>
+      <family val="4"/>
     </font>
   </fonts>
   <fills count="2">
@@ -310,24 +279,75 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -335,8 +355,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -353,59 +373,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,13 +403,13 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>76200</xdr:colOff>
+          <xdr:colOff>142875</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>28574</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>8</xdr:col>
-          <xdr:colOff>954347</xdr:colOff>
+          <xdr:colOff>1095375</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>180974</xdr:rowOff>
         </xdr:to>
@@ -454,7 +426,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2135"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2146"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -468,8 +440,8 @@
           </xdr:blipFill>
           <xdr:spPr bwMode="auto">
             <a:xfrm>
-              <a:off x="4695825" y="1295399"/>
-              <a:ext cx="878147" cy="1038225"/>
+              <a:off x="4762500" y="1997074"/>
+              <a:ext cx="952500" cy="1041400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -504,17 +476,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66751A2A-2BAB-4D1F-85FF-23C63FFAB6B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0495B52-70FF-4F9D-9FC7-EEF95A442166}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -523,7 +495,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -531,7 +509,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5743575" cy="952500"/>
+          <a:ext cx="5746750" cy="1619250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -561,7 +539,7 @@
         </row>
         <row r="2">
           <cell r="A2" t="str">
-            <v>MMS18-20/1</v>
+            <v>MMS18-20/001</v>
           </cell>
           <cell r="B2" t="str">
             <v>ADEPU CHETAN GANESH ARCHANA</v>
@@ -572,10 +550,10 @@
         </row>
         <row r="3">
           <cell r="A3" t="str">
-            <v>MMS18-20/2</v>
+            <v>MMS18-20/002</v>
           </cell>
           <cell r="B3" t="str">
-            <v>ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
+            <v>/ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
           </cell>
           <cell r="C3">
             <v>1820002</v>
@@ -583,7 +561,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>MMS18-20/3</v>
+            <v>MMS18-20/003</v>
           </cell>
           <cell r="B4" t="str">
             <v>AMBALLA VISHAL MANOHAR BHARATHI</v>
@@ -594,10 +572,10 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>MMS18-20/4</v>
+            <v>MMS18-20/004</v>
           </cell>
           <cell r="B5" t="str">
-            <v>AMIN MEENAL PRAVIN ANITA</v>
+            <v>/AMIN MEENAL PRAVIN ANITA</v>
           </cell>
           <cell r="C5">
             <v>1820004</v>
@@ -605,10 +583,10 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>MMS18-20/5</v>
+            <v>MMS18-20/005</v>
           </cell>
           <cell r="B6" t="str">
-            <v>ARANJO JULIANA MICHAEL LEENA</v>
+            <v>/ARANJO JULIANA MICHAEL LEENA</v>
           </cell>
           <cell r="C6">
             <v>1820005</v>
@@ -616,7 +594,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>MMS18-20/6</v>
+            <v>MMS18-20/006</v>
           </cell>
           <cell r="B7" t="str">
             <v>BAGUL PRANAV PRAMOD MEENA</v>
@@ -627,10 +605,10 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MMS18-20/7</v>
+            <v>MMS18-20/007</v>
           </cell>
           <cell r="B8" t="str">
-            <v>BAMANE RENUKA UTTAM SUNITA</v>
+            <v>/BAMANE RENUKA UTTAM SUNITA</v>
           </cell>
           <cell r="C8">
             <v>1820007</v>
@@ -638,10 +616,10 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>MMS18-20/8</v>
+            <v>MMS18-20/008</v>
           </cell>
           <cell r="B9" t="str">
-            <v>BANSODE NAMRATA SUHAS SANGEETA</v>
+            <v>/BANSODE NAMRATA SUHAS SANGEETA</v>
           </cell>
           <cell r="C9">
             <v>1820008</v>
@@ -649,10 +627,10 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>MMS18-20/9</v>
+            <v>MMS18-20/009</v>
           </cell>
           <cell r="B10" t="str">
-            <v>BHAJANI DHANASHREE MANOHAR KAVITA</v>
+            <v>/BHAJANI DHANASHREE MANOHAR KAVITA</v>
           </cell>
           <cell r="C10">
             <v>1820009</v>
@@ -660,7 +638,7 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>MMS18-20/10</v>
+            <v>MMS18-20/010</v>
           </cell>
           <cell r="B11" t="str">
             <v>BHANGALE BHUPENDRA RAMESH JYOTI</v>
@@ -671,10 +649,10 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>MMS18-20/11</v>
+            <v>MMS18-20/011</v>
           </cell>
           <cell r="B12" t="str">
-            <v>BHATKAR ANAGHA ANIL AKSHATA</v>
+            <v>/BHATKAR ANAGHA ANIL AKSHATA</v>
           </cell>
           <cell r="C12">
             <v>1820011</v>
@@ -682,7 +660,7 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>MMS18-20/12</v>
+            <v>MMS18-20/012</v>
           </cell>
           <cell r="B13" t="str">
             <v>BHOIR PRANAV SURESH SWETA</v>
@@ -693,7 +671,7 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>MMS18-20/13</v>
+            <v>MMS18-20/013</v>
           </cell>
           <cell r="B14" t="str">
             <v>BHOIR VINAYAK CHINTAMAN SHALINI</v>
@@ -704,7 +682,7 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>MMS18-20/14</v>
+            <v>MMS18-20/014</v>
           </cell>
           <cell r="B15" t="str">
             <v>BHOSALE MAYUR PRATAPRAO USHA</v>
@@ -715,10 +693,10 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>MMS18-20/15</v>
+            <v>MMS18-20/015</v>
           </cell>
           <cell r="B16" t="str">
-            <v>BIDVI ABOLI AJENDRA NEHA</v>
+            <v>/BIDVI ABOLI AJENDRA NEHA</v>
           </cell>
           <cell r="C16">
             <v>1820015</v>
@@ -726,7 +704,7 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>MMS18-20/16</v>
+            <v>MMS18-20/016</v>
           </cell>
           <cell r="B17" t="str">
             <v>BORKAR DIPESH SHYAM SANGITA</v>
@@ -737,10 +715,10 @@
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>MMS18-20/17</v>
+            <v>MMS18-20/017</v>
           </cell>
           <cell r="B18" t="str">
-            <v>CHANDORKAR PRAJAL MADHUKAR VANITA</v>
+            <v>/CHANDORKAR PRAJAL MADHUKAR VANITA</v>
           </cell>
           <cell r="C18">
             <v>1820017</v>
@@ -748,7 +726,7 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>MMS18-20/18</v>
+            <v>MMS18-20/018</v>
           </cell>
           <cell r="B19" t="str">
             <v>CHAUDHARI TRUPAL JEEVAN SMITA</v>
@@ -759,7 +737,7 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>MMS18-20/19</v>
+            <v>MMS18-20/019</v>
           </cell>
           <cell r="B20" t="str">
             <v>CHAVAN SURAJ SURESH SUREKHA</v>
@@ -770,10 +748,10 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>MMS18-20/20</v>
+            <v>MMS18-20/020</v>
           </cell>
           <cell r="B21" t="str">
-            <v>CHAWHAN SAMTA VIJAY SUNITA</v>
+            <v>/CHAWHAN SAMTA VIJAY SUNITA</v>
           </cell>
           <cell r="C21">
             <v>1820020</v>
@@ -781,7 +759,7 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>MMS18-20/21</v>
+            <v>MMS18-20/021</v>
           </cell>
           <cell r="B22" t="str">
             <v>DESAI SAURABH HARESH HARSHADA</v>
@@ -792,7 +770,7 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>MMS18-20/22</v>
+            <v>MMS18-20/022</v>
           </cell>
           <cell r="B23" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -803,10 +781,10 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>MMS18-20/23</v>
+            <v>MMS18-20/023</v>
           </cell>
           <cell r="B24" t="str">
-            <v xml:space="preserve">PICHAD DESHMUKH GIRIJA HEMANT MOHINI </v>
+            <v xml:space="preserve">/PICHAD DESHMUKH GIRIJA HEMANT MOHINI </v>
           </cell>
           <cell r="C24">
             <v>1820023</v>
@@ -814,7 +792,7 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>MMS18-20/24</v>
+            <v>MMS18-20/024</v>
           </cell>
           <cell r="B25" t="str">
             <v>DHUMAL SAURABH RAMESH RAJASHREE</v>
@@ -825,10 +803,10 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>MMS18-20/25</v>
+            <v>MMS18-20/025</v>
           </cell>
           <cell r="B26" t="str">
-            <v>DSOUZA FLOSSIE JOACHIM RITA</v>
+            <v>/DSOUZA FLOSSIE JOACHIM RITA</v>
           </cell>
           <cell r="C26">
             <v>1820025</v>
@@ -836,10 +814,10 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>MMS18-20/26</v>
+            <v>MMS18-20/026</v>
           </cell>
           <cell r="B27" t="str">
-            <v>DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</v>
+            <v>/DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</v>
           </cell>
           <cell r="C27">
             <v>1820026</v>
@@ -847,10 +825,10 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>MMS18-20/27</v>
+            <v>MMS18-20/027</v>
           </cell>
           <cell r="B28" t="str">
-            <v>ERANDE TRUPTI UTTAM SUNITA</v>
+            <v>/ERANDE TRUPTI UTTAM SUNITA</v>
           </cell>
           <cell r="C28">
             <v>1820027</v>
@@ -858,7 +836,7 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>MMS18-20/28</v>
+            <v>MMS18-20/028</v>
           </cell>
           <cell r="B29" t="str">
             <v>GAMBHIRRAO MANISH HARISHCHANDRA RANJANA</v>
@@ -869,7 +847,7 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>MMS18-20/29</v>
+            <v>MMS18-20/029</v>
           </cell>
           <cell r="B30" t="str">
             <v>GANGANI ANKIT SURESH TEJAL</v>
@@ -880,10 +858,10 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>MMS18-20/30</v>
+            <v>MMS18-20/030</v>
           </cell>
           <cell r="B31" t="str">
-            <v>GANGURDE SAKSHI SUDHIR ASHA</v>
+            <v>/GANGURDE SAKSHI SUDHIR ASHA</v>
           </cell>
           <cell r="C31">
             <v>1820030</v>
@@ -891,7 +869,7 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>MMS18-20/31</v>
+            <v>MMS18-20/031</v>
           </cell>
           <cell r="B32" t="str">
             <v>GHUMARE SANKET RAMESH JAYSHREE</v>
@@ -902,7 +880,7 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>MMS18-20/32</v>
+            <v>MMS18-20/032</v>
           </cell>
           <cell r="B33" t="str">
             <v>GUPTA NITIN RAJESH CHANDRAKALA</v>
@@ -913,7 +891,7 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>MMS18-20/33</v>
+            <v>MMS18-20/033</v>
           </cell>
           <cell r="B34" t="str">
             <v>HANDE RAHUL RANGARAO NALINI</v>
@@ -924,7 +902,7 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>MMS18-20/34</v>
+            <v>MMS18-20/034</v>
           </cell>
           <cell r="B35" t="str">
             <v>HARMALKAR PRATHAMESH SUBHASH SUBHASHINI</v>
@@ -935,7 +913,7 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>MMS18-20/35</v>
+            <v>MMS18-20/035</v>
           </cell>
           <cell r="B36" t="str">
             <v>KADAM AVIRAJ MOHAN MOHINI</v>
@@ -946,7 +924,7 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>MMS18-20/36</v>
+            <v>MMS18-20/036</v>
           </cell>
           <cell r="B37" t="str">
             <v>JADHAV ANKUR SHIVAJI ANAGHA</v>
@@ -957,7 +935,7 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>MMS18-20/37</v>
+            <v>MMS18-20/037</v>
           </cell>
           <cell r="B38" t="str">
             <v>KADAM AKSHAY RAMESH REEMA</v>
@@ -968,7 +946,7 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>MMS18-20/38</v>
+            <v>MMS18-20/038</v>
           </cell>
           <cell r="B39" t="str">
             <v>KADAM SHANTANU DILEEP ANITA</v>
@@ -979,7 +957,7 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>MMS18-20/39</v>
+            <v>MMS18-20/039</v>
           </cell>
           <cell r="B40" t="str">
             <v>KAMBLE NIKHIL KESHAVRAO SUSHILA</v>
@@ -990,7 +968,7 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>MMS18-20/40</v>
+            <v>MMS18-20/040</v>
           </cell>
           <cell r="B41" t="str">
             <v>KAMBLE SIDDHESH RAMESH SUHASINI</v>
@@ -1001,7 +979,7 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>MMS18-20/41</v>
+            <v>MMS18-20/041</v>
           </cell>
           <cell r="B42" t="str">
             <v>KATARE MAYANK PRAMOD PRANITA</v>
@@ -1012,7 +990,7 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>MMS18-20/42</v>
+            <v>MMS18-20/042</v>
           </cell>
           <cell r="B43" t="str">
             <v>KHAN SAIF ALI NIZAM BILKIS</v>
@@ -1023,7 +1001,7 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>MMS18-20/43</v>
+            <v>MMS18-20/043</v>
           </cell>
           <cell r="B44" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -1034,10 +1012,10 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>MMS18-20/44</v>
+            <v>MMS18-20/044</v>
           </cell>
           <cell r="B45" t="str">
-            <v>KOLGE VARDA DEEPAK AARTI</v>
+            <v>/KOLGE VARDA DEEPAK AARTI</v>
           </cell>
           <cell r="C45">
             <v>1820044</v>
@@ -1045,7 +1023,7 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>MMS18-20/45</v>
+            <v>MMS18-20/045</v>
           </cell>
           <cell r="B46" t="str">
             <v>KOLI PRATIK PRABHAKAR NALINI</v>
@@ -1056,7 +1034,7 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>MMS18-20/46</v>
+            <v>MMS18-20/046</v>
           </cell>
           <cell r="B47" t="str">
             <v>KONDEKAR VAIBHAV VIJAY VAISHALI</v>
@@ -1067,7 +1045,7 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>MMS18-20/47</v>
+            <v>MMS18-20/047</v>
           </cell>
           <cell r="B48" t="str">
             <v>KORE PRASHEEL PRASHANT SHEELA</v>
@@ -1078,7 +1056,7 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>MMS18-20/48</v>
+            <v>MMS18-20/048</v>
           </cell>
           <cell r="B49" t="str">
             <v>LATE VISHAL BALASAHEB PRAMILA</v>
@@ -1089,10 +1067,10 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>MMS18-20/49</v>
+            <v>MMS18-20/049</v>
           </cell>
           <cell r="B50" t="str">
-            <v xml:space="preserve">LOKE TEJAL JITENDRA GEETA </v>
+            <v xml:space="preserve">/LOKE TEJAL JITENDRA GEETA </v>
           </cell>
           <cell r="C50">
             <v>1820049</v>
@@ -1100,10 +1078,10 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>MMS18-20/50</v>
+            <v>MMS18-20/050</v>
           </cell>
           <cell r="B51" t="str">
-            <v>MANDAVKAR CHAITRALI SANJAY SUCHITA</v>
+            <v>/MANDAVKAR CHAITRALI SANJAY SUCHITA</v>
           </cell>
           <cell r="C51">
             <v>1820050</v>
@@ -1111,10 +1089,10 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>MMS18-20/51</v>
+            <v>MMS18-20/051</v>
           </cell>
           <cell r="B52" t="str">
-            <v>MARCHANDE SHWETA SHANTARAM SHEETAL</v>
+            <v>/MARCHANDE SHWETA SHANTARAM SHEETAL</v>
           </cell>
           <cell r="C52">
             <v>1820051</v>
@@ -1122,7 +1100,7 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>MMS18-20/52</v>
+            <v>MMS18-20/052</v>
           </cell>
           <cell r="B53" t="str">
             <v>MHATRE VARAD GURUNATH SUSHMA</v>
@@ -1133,10 +1111,10 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>MMS18-20/53</v>
+            <v>MMS18-20/053</v>
           </cell>
           <cell r="B54" t="str">
-            <v>MISHRA RASHMI SHIVKANT PRATIBHA</v>
+            <v>/MISHRA RASHMI SHIVKANT PRATIBHA</v>
           </cell>
           <cell r="C54">
             <v>1820053</v>
@@ -1144,10 +1122,10 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>MMS18-20/54</v>
+            <v>MMS18-20/054</v>
           </cell>
           <cell r="B55" t="str">
-            <v>NAIR ANAGHA ANANDKUMAR BHANUMATHI</v>
+            <v>/NAIR ANAGHA ANANDKUMAR BHANUMATHI</v>
           </cell>
           <cell r="C55">
             <v>1820054</v>
@@ -1155,7 +1133,7 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>MMS18-20/55</v>
+            <v>MMS18-20/055</v>
           </cell>
           <cell r="B56" t="str">
             <v xml:space="preserve">PANCHAL ANIKET AVINASH AARTI </v>
@@ -1166,7 +1144,7 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>MMS18-20/56</v>
+            <v>MMS18-20/056</v>
           </cell>
           <cell r="B57" t="str">
             <v>SHAIKH SAMEER MOHAMMADHUSSAIN FATIMA</v>
@@ -1177,10 +1155,10 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>MMS18-20/57</v>
+            <v>MMS18-20/057</v>
           </cell>
           <cell r="B58" t="str">
-            <v>SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</v>
+            <v>/SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</v>
           </cell>
           <cell r="C58">
             <v>1820057</v>
@@ -1188,7 +1166,7 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>MMS18-20/58</v>
+            <v>MMS18-20/058</v>
           </cell>
           <cell r="B59" t="str">
             <v>SINGH ASHWIN BHAGWANPRASAD SADHANA</v>
@@ -1199,7 +1177,7 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>MMS18-20/59</v>
+            <v>MMS18-20/059</v>
           </cell>
           <cell r="B60" t="str">
             <v>WANKHADE NIKHIL MADHUKAR JYOTI</v>
@@ -1210,7 +1188,7 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>MMS18-20/60</v>
+            <v>MMS18-20/060</v>
           </cell>
           <cell r="B61" t="str">
             <v>WORLIKAR SIDDHANT PANKAJ VIDYA</v>
@@ -1221,7 +1199,7 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>MMS18-20/61</v>
+            <v>MMS18-20/061</v>
           </cell>
           <cell r="B62" t="str">
             <v>AGATE AKASH PRAKASH KIRAN</v>
@@ -1232,10 +1210,10 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>MMS18-20/62</v>
+            <v>MMS18-20/062</v>
           </cell>
           <cell r="B63" t="str">
-            <v>AVHAD VISHAKHA MILIND RAKHI</v>
+            <v>/AVHAD VISHAKHA MILIND RAKHI</v>
           </cell>
           <cell r="C63">
             <v>1820062</v>
@@ -1243,7 +1221,7 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>MMS18-20/63</v>
+            <v>MMS18-20/063</v>
           </cell>
           <cell r="B64" t="str">
             <v>CHILE VARAD KISHOR NEHA</v>
@@ -1254,7 +1232,7 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>MMS18-20/64</v>
+            <v>MMS18-20/064</v>
           </cell>
           <cell r="B65" t="str">
             <v>DALVI AKASH SHANKAR NIRMALA</v>
@@ -1265,10 +1243,10 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>MMS18-20/65</v>
+            <v>MMS18-20/065</v>
           </cell>
           <cell r="B66" t="str">
-            <v>DALVI RUTUJA JAGDISH SUPRIYA</v>
+            <v>/DALVI RUTUJA JAGDISH SUPRIYA</v>
           </cell>
           <cell r="C66">
             <v>1820065</v>
@@ -1276,7 +1254,7 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>MMS18-20/66</v>
+            <v>MMS18-20/066</v>
           </cell>
           <cell r="B67" t="str">
             <v xml:space="preserve">GANDHI BHAVIK AJAY HARSHA </v>
@@ -1287,10 +1265,10 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>MMS18-20/67</v>
+            <v>MMS18-20/067</v>
           </cell>
           <cell r="B68" t="str">
-            <v>GUNDU MEGHNA GUNASHALI SUJATHA</v>
+            <v>/GUNDU MEGHNA GUNASHALI SUJATHA</v>
           </cell>
           <cell r="C68">
             <v>1820067</v>
@@ -1298,7 +1276,7 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>MMS18-20/68</v>
+            <v>MMS18-20/068</v>
           </cell>
           <cell r="B69" t="str">
             <v>GUPTA AAYUSH NEELKAMAL MANSHA</v>
@@ -1309,7 +1287,7 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>MMS18-20/69</v>
+            <v>MMS18-20/069</v>
           </cell>
           <cell r="B70" t="str">
             <v>GUPTA PRAMOD OMPRAKASH RAMAVATI</v>
@@ -1320,10 +1298,10 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>MMS18-20/70</v>
+            <v>MMS18-20/070</v>
           </cell>
           <cell r="B71" t="str">
-            <v>JADHAV SHWETA NARESH LATA</v>
+            <v>/JADHAV SHWETA NARESH LATA</v>
           </cell>
           <cell r="C71">
             <v>1820070</v>
@@ -1331,7 +1309,7 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>MMS18-20/71</v>
+            <v>MMS18-20/071</v>
           </cell>
           <cell r="B72" t="str">
             <v>INGLE ATHARAVA SHASHIKANT SAILEE</v>
@@ -1342,10 +1320,10 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>MMS18-20/72</v>
+            <v>MMS18-20/072</v>
           </cell>
           <cell r="B73" t="str">
-            <v>KEMPU VIDYA LAXMAN SHANTAMMA</v>
+            <v>/KEMPU VIDYA LAXMAN SHANTAMMA</v>
           </cell>
           <cell r="C73">
             <v>1820072</v>
@@ -1353,10 +1331,10 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>MMS18-20/73</v>
+            <v>MMS18-20/073</v>
           </cell>
           <cell r="B74" t="str">
-            <v>KHADE VRUSHALEE SUKHADEV RAJASHREE</v>
+            <v>/KHADE VRUSHALEE SUKHADEV RAJASHREE</v>
           </cell>
           <cell r="C74">
             <v>1820073</v>
@@ -1364,7 +1342,7 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>MMS18-20/74</v>
+            <v>MMS18-20/074</v>
           </cell>
           <cell r="B75" t="str">
             <v>KUSHWAHA PRAMOD RAMSAKHA ASHA</v>
@@ -1375,10 +1353,10 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>MMS18-20/75</v>
+            <v>MMS18-20/075</v>
           </cell>
           <cell r="B76" t="str">
-            <v>MAURYA NEHA JAYSHANKAR GEETA</v>
+            <v>/MAURYA NEHA JAYSHANKAR GEETA</v>
           </cell>
           <cell r="C76">
             <v>1820075</v>
@@ -1386,7 +1364,7 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>MMS18-20/76</v>
+            <v>MMS18-20/076</v>
           </cell>
           <cell r="B77" t="str">
             <v>PANCHAL SWAPNIL SATYAWAN MANASI</v>
@@ -1397,10 +1375,10 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>MMS18-20/77</v>
+            <v>MMS18-20/077</v>
           </cell>
           <cell r="B78" t="str">
-            <v>PANDYA VANESHA EDWIN SHASHMIRA</v>
+            <v>/PANDYA VANESHA EDWIN SHASHMIRA</v>
           </cell>
           <cell r="C78">
             <v>1820077</v>
@@ -1408,7 +1386,7 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>MMS18-20/78</v>
+            <v>MMS18-20/078</v>
           </cell>
           <cell r="B79" t="str">
             <v xml:space="preserve">PATEKAR RUPESH GANESH MANJULA </v>
@@ -1419,7 +1397,7 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>MMS18-20/79</v>
+            <v>MMS18-20/079</v>
           </cell>
           <cell r="B80" t="str">
             <v>PATEL PRAGNESH KISHORBHAI DAMYANTIBEN</v>
@@ -1430,10 +1408,10 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>MMS18-20/80</v>
+            <v>MMS18-20/080</v>
           </cell>
           <cell r="B81" t="str">
-            <v>PATIL CHAITALEE NARESH NAMITA</v>
+            <v>/PATIL CHAITALEE NARESH NAMITA</v>
           </cell>
           <cell r="C81">
             <v>1820080</v>
@@ -1441,10 +1419,10 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>MMS18-20/81</v>
+            <v>MMS18-20/081</v>
           </cell>
           <cell r="B82" t="str">
-            <v>PEDNEKAR MADHUGANDHA DILIP DEEPALI</v>
+            <v>/PEDNEKAR MADHUGANDHA DILIP DEEPALI</v>
           </cell>
           <cell r="C82">
             <v>1820081</v>
@@ -1452,10 +1430,10 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>MMS18-20/82</v>
+            <v>MMS18-20/082</v>
           </cell>
           <cell r="B83" t="str">
-            <v>PHANSE SAILEE VINOD LEELA</v>
+            <v>/PHANSE SAILEE VINOD LEELA</v>
           </cell>
           <cell r="C83">
             <v>1820082</v>
@@ -1463,7 +1441,7 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>MMS18-20/83</v>
+            <v>MMS18-20/083</v>
           </cell>
           <cell r="B84" t="str">
             <v>PRASAD ROHAN RAJENDRA RAJKUMARI</v>
@@ -1474,7 +1452,7 @@
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>MMS18-20/84</v>
+            <v>MMS18-20/084</v>
           </cell>
           <cell r="B85" t="str">
             <v>RAI JAYESH RAVINDRANATH DIVYA</v>
@@ -1485,10 +1463,10 @@
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>MMS18-20/85</v>
+            <v>MMS18-20/085</v>
           </cell>
           <cell r="B86" t="str">
-            <v>RANE ASHWINI SANTOSH SAVITA</v>
+            <v>/RANE ASHWINI SANTOSH SAVITA</v>
           </cell>
           <cell r="C86">
             <v>1820085</v>
@@ -1496,10 +1474,10 @@
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>MMS18-20/86</v>
+            <v>MMS18-20/086</v>
           </cell>
           <cell r="B87" t="str">
-            <v>RANE MAYURI SUHAS ARCHANA</v>
+            <v>/RANE MAYURI SUHAS ARCHANA</v>
           </cell>
           <cell r="C87">
             <v>1820086</v>
@@ -1507,10 +1485,10 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>MMS18-20/87</v>
+            <v>MMS18-20/087</v>
           </cell>
           <cell r="B88" t="str">
-            <v>RAORANE SAINI SATISH SANCHITA</v>
+            <v>/RAORANE SAINI SATISH SANCHITA</v>
           </cell>
           <cell r="C88">
             <v>1820087</v>
@@ -1518,7 +1496,7 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>MMS18-20/88</v>
+            <v>MMS18-20/088</v>
           </cell>
           <cell r="B89" t="str">
             <v>RATHOD OMKAR PANDIT DEVIKA</v>
@@ -1529,7 +1507,7 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>MMS18-20/89</v>
+            <v>MMS18-20/089</v>
           </cell>
           <cell r="B90" t="str">
             <v>SANGLE SINDHANT NAVANATH PRATIBHA</v>
@@ -1540,10 +1518,10 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>MMS18-20/90</v>
+            <v>MMS18-20/090</v>
           </cell>
           <cell r="B91" t="str">
-            <v>SARMALKAR SANIKA SUNILDATTA MANISHA</v>
+            <v>/SARMALKAR SANIKA SUNILDATTA MANISHA</v>
           </cell>
           <cell r="C91">
             <v>1820090</v>
@@ -1551,10 +1529,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>MMS18-20/91</v>
+            <v>MMS18-20/091</v>
           </cell>
           <cell r="B92" t="str">
-            <v>SATAM NEHA ANIL ASMITA</v>
+            <v>/SATAM NEHA ANIL ASMITA</v>
           </cell>
           <cell r="C92">
             <v>1820091</v>
@@ -1562,7 +1540,7 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>MMS18-20/92</v>
+            <v>MMS18-20/092</v>
           </cell>
           <cell r="B93" t="str">
             <v>SAWANT AVADHUT RAJAN SHRADDHA</v>
@@ -1573,10 +1551,10 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>MMS18-20/93</v>
+            <v>MMS18-20/093</v>
           </cell>
           <cell r="B94" t="str">
-            <v>SHARMA PALAK PRAHLAD MRIDULA</v>
+            <v>/SHARMA PALAK PRAHLAD MRIDULA</v>
           </cell>
           <cell r="C94">
             <v>1820093</v>
@@ -1584,10 +1562,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>MMS18-20/94</v>
+            <v>MMS18-20/094</v>
           </cell>
           <cell r="B95" t="str">
-            <v>SHETTY SHIFALI PRASHANT ASHALATA</v>
+            <v>/SHETTY SHIFALI PRASHANT ASHALATA</v>
           </cell>
           <cell r="C95">
             <v>1820094</v>
@@ -1595,7 +1573,7 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>MMS18-20/95</v>
+            <v>MMS18-20/095</v>
           </cell>
           <cell r="B96" t="str">
             <v>SHINDE AKSHAY SURENDRA SUPRIYA</v>
@@ -1606,7 +1584,7 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>MMS18-20/96</v>
+            <v>MMS18-20/096</v>
           </cell>
           <cell r="B97" t="str">
             <v>SHINDE ASHUTOSH BHASKAR BHAVANA</v>
@@ -1617,7 +1595,7 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>MMS18-20/97</v>
+            <v>MMS18-20/097</v>
           </cell>
           <cell r="B98" t="str">
             <v>SHINDE NIKHIL KRISHNAT MANISHA</v>
@@ -1628,7 +1606,7 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>MMS18-20/98</v>
+            <v>MMS18-20/098</v>
           </cell>
           <cell r="B99" t="str">
             <v>SHINDE SAIRAJ VIKAS SHRADHA</v>
@@ -1639,7 +1617,7 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>MMS18-20/99</v>
+            <v>MMS18-20/099</v>
           </cell>
           <cell r="B100" t="str">
             <v>SHINDE SURAJ SHASHIKANT SHOBHA</v>
@@ -1664,7 +1642,7 @@
             <v>MMS18-20/101</v>
           </cell>
           <cell r="B102" t="str">
-            <v>SHIVKAR PRIYANKA JANARDHAN REKHA</v>
+            <v>/SHIVKAR PRIYANKA JANARDHAN REKHA</v>
           </cell>
           <cell r="C102">
             <v>1820101</v>
@@ -1697,7 +1675,7 @@
             <v>MMS18-20/104</v>
           </cell>
           <cell r="B105" t="str">
-            <v>SINGH VARSHA GURUPRASAD VEENA</v>
+            <v>/SINGH VARSHA GURUPRASAD VEENA</v>
           </cell>
           <cell r="C105">
             <v>1820104</v>
@@ -1719,7 +1697,7 @@
             <v>MMS18-20/106</v>
           </cell>
           <cell r="B107" t="str">
-            <v>SURYAVANSHI MAYURI DILIP BHAGIRATHI</v>
+            <v>/SURYAVANSHI MAYURI DILIP BHAGIRATHI</v>
           </cell>
           <cell r="C107">
             <v>1820106</v>
@@ -1730,7 +1708,7 @@
             <v>MMS18-20/107</v>
           </cell>
           <cell r="B108" t="str">
-            <v>SWAMY VIOLET BENEDICT JULIET</v>
+            <v>/SWAMY VIOLET BENEDICT JULIET</v>
           </cell>
           <cell r="C108">
             <v>1820107</v>
@@ -1752,7 +1730,7 @@
             <v>MMS18-20/109</v>
           </cell>
           <cell r="B110" t="str">
-            <v>TALELE BHOOMA GHANASHYAM KALPANA</v>
+            <v>/TALELE BHOOMA GHANASHYAM KALPANA</v>
           </cell>
           <cell r="C110">
             <v>1820109</v>
@@ -1807,7 +1785,7 @@
             <v>MMS18-20/114</v>
           </cell>
           <cell r="B115" t="str">
-            <v>VICHARE SAMRUDHI SANJAY VAIBHAVI</v>
+            <v>/VICHARE SAMRUDHI SANJAY VAIBHAVI</v>
           </cell>
           <cell r="C115">
             <v>1820114</v>
@@ -1818,7 +1796,7 @@
             <v>MMS18-20/115</v>
           </cell>
           <cell r="B116" t="str">
-            <v>WAGHMARE SHEETAL SURYAKANT SUNANDA</v>
+            <v>/WAGHMARE SHEETAL SURYAKANT SUNANDA</v>
           </cell>
           <cell r="C116">
             <v>1820115</v>
@@ -1840,7 +1818,7 @@
             <v>MMS18-20/117</v>
           </cell>
           <cell r="B118" t="str">
-            <v>YADAV ANKITA OMPRAKASH SHASHANK DEVI</v>
+            <v>/YADAV ANKITA OMPRAKASH SHASHANK DEVI</v>
           </cell>
           <cell r="C118">
             <v>1820117</v>
@@ -1862,7 +1840,7 @@
             <v>MMS18-20/119</v>
           </cell>
           <cell r="B120" t="str">
-            <v>YADAV SUMAN RAMJEET SAVITRIDEVI</v>
+            <v>/YADAV SUMAN RAMJEET SAVITRIDEVI</v>
           </cell>
           <cell r="C120">
             <v>1820119</v>
@@ -2037,6 +2015,16 @@
             <v>Organisational Behaviour</v>
           </cell>
         </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>JANUARY 2019</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15" t="str">
+            <v>10/02/2019</v>
+          </cell>
+        </row>
       </sheetData>
     </sheetDataSet>
   </externalBook>
@@ -2053,7 +2041,7 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="A3" t="str">
-            <v>MMS18-20/1</v>
+            <v>MMS18-20/001</v>
           </cell>
           <cell r="B3" t="str">
             <v>ADEPU CHETAN GANESH ARCHANA</v>
@@ -2259,31 +2247,31 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>MMS18-20/2</v>
+            <v>MMS18-20/002</v>
           </cell>
           <cell r="B4" t="str">
-            <v>ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
+            <v>/ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
           </cell>
           <cell r="C4">
-            <v>36</v>
+            <v>19</v>
           </cell>
           <cell r="D4">
-            <v>35</v>
+            <v>29</v>
           </cell>
           <cell r="E4">
-            <v>71</v>
+            <v>48</v>
           </cell>
           <cell r="F4" t="str">
-            <v>A</v>
+            <v>F</v>
           </cell>
           <cell r="G4" t="str">
-            <v>8</v>
+            <v>0</v>
           </cell>
           <cell r="H4">
             <v>4</v>
           </cell>
           <cell r="I4">
-            <v>32</v>
+            <v>0</v>
           </cell>
           <cell r="J4">
             <v>25</v>
@@ -2433,39 +2421,39 @@
             <v>24</v>
           </cell>
           <cell r="BG4">
-            <v>211</v>
+            <v>194</v>
           </cell>
           <cell r="BH4">
-            <v>280</v>
+            <v>274</v>
           </cell>
           <cell r="BI4">
-            <v>491</v>
+            <v>468</v>
           </cell>
           <cell r="BJ4">
-            <v>50</v>
+            <v>42</v>
           </cell>
           <cell r="BK4">
-            <v>200</v>
+            <v>168</v>
           </cell>
           <cell r="BL4">
-            <v>61.375</v>
+            <v>58.5</v>
           </cell>
           <cell r="BM4" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN4">
-            <v>6.25</v>
+            <v>5.25</v>
           </cell>
           <cell r="BO4" t="str">
-            <v>B</v>
+            <v>C</v>
           </cell>
           <cell r="BP4" t="str">
-            <v>60-64.99</v>
+            <v>55-59.99</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>MMS18-20/3</v>
+            <v>MMS18-20/003</v>
           </cell>
           <cell r="B5" t="str">
             <v>AMBALLA VISHAL MANOHAR BHARATHI</v>
@@ -2474,22 +2462,22 @@
             <v>32</v>
           </cell>
           <cell r="D5">
-            <v>42</v>
+            <v>20</v>
           </cell>
           <cell r="E5">
-            <v>74</v>
+            <v>52</v>
           </cell>
           <cell r="F5" t="str">
-            <v>A</v>
+            <v>P</v>
           </cell>
           <cell r="G5" t="str">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="H5">
             <v>4</v>
           </cell>
           <cell r="I5">
-            <v>32</v>
+            <v>16</v>
           </cell>
           <cell r="J5">
             <v>32</v>
@@ -2642,60 +2630,60 @@
             <v>256</v>
           </cell>
           <cell r="BH5">
-            <v>336</v>
+            <v>314</v>
           </cell>
           <cell r="BI5">
-            <v>592</v>
+            <v>570</v>
           </cell>
           <cell r="BJ5">
-            <v>64</v>
+            <v>60</v>
           </cell>
           <cell r="BK5">
-            <v>256</v>
+            <v>240</v>
           </cell>
           <cell r="BL5">
-            <v>74</v>
+            <v>71.25</v>
           </cell>
           <cell r="BM5" t="str">
-            <v>Successful</v>
+            <v>Unsuccessful</v>
           </cell>
           <cell r="BN5">
-            <v>8</v>
+            <v>7.5</v>
           </cell>
           <cell r="BO5" t="str">
             <v>A</v>
           </cell>
           <cell r="BP5" t="str">
-            <v>70-74.99</v>
+            <v>65-69.99</v>
           </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>MMS18-20/4</v>
+            <v>MMS18-20/004</v>
           </cell>
           <cell r="B6" t="str">
-            <v>AMIN MEENAL PRAVIN ANITA</v>
+            <v>/AMIN MEENAL PRAVIN ANITA</v>
           </cell>
           <cell r="C6">
             <v>31</v>
           </cell>
           <cell r="D6">
-            <v>20</v>
+            <v>41</v>
           </cell>
           <cell r="E6">
-            <v>51</v>
+            <v>72</v>
           </cell>
           <cell r="F6" t="str">
-            <v>P</v>
+            <v>A</v>
           </cell>
           <cell r="G6" t="str">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="H6">
             <v>4</v>
           </cell>
           <cell r="I6">
-            <v>16</v>
+            <v>32</v>
           </cell>
           <cell r="J6">
             <v>31</v>
@@ -2848,39 +2836,39 @@
             <v>248</v>
           </cell>
           <cell r="BH6">
-            <v>335</v>
+            <v>356</v>
           </cell>
           <cell r="BI6">
-            <v>583</v>
+            <v>604</v>
           </cell>
           <cell r="BJ6">
-            <v>67</v>
+            <v>71</v>
           </cell>
           <cell r="BK6">
-            <v>268</v>
+            <v>284</v>
           </cell>
           <cell r="BL6">
-            <v>72.875</v>
+            <v>75.5</v>
           </cell>
           <cell r="BM6" t="str">
-            <v>Unsuccessful</v>
+            <v>Successful</v>
           </cell>
           <cell r="BN6">
-            <v>8.375</v>
+            <v>8.875</v>
           </cell>
           <cell r="BO6" t="str">
-            <v>A</v>
+            <v>A+</v>
           </cell>
           <cell r="BP6" t="str">
-            <v>70-74.99</v>
+            <v>75-79.99</v>
           </cell>
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>MMS18-20/5</v>
+            <v>MMS18-20/005</v>
           </cell>
           <cell r="B7" t="str">
-            <v>ARANJO JULIANA MICHAEL LEENA</v>
+            <v>/ARANJO JULIANA MICHAEL LEENA</v>
           </cell>
           <cell r="C7">
             <v>33</v>
@@ -3083,7 +3071,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>MMS18-20/6</v>
+            <v>MMS18-20/006</v>
           </cell>
           <cell r="B8" t="str">
             <v>BAGUL PRANAV PRAMOD MEENA</v>
@@ -3289,10 +3277,10 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>MMS18-20/7</v>
+            <v>MMS18-20/007</v>
           </cell>
           <cell r="B9" t="str">
-            <v>BAMANE RENUKA UTTAM SUNITA</v>
+            <v>/BAMANE RENUKA UTTAM SUNITA</v>
           </cell>
           <cell r="C9">
             <v>30</v>
@@ -3495,10 +3483,10 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>MMS18-20/8</v>
+            <v>MMS18-20/008</v>
           </cell>
           <cell r="B10" t="str">
-            <v>BANSODE NAMRATA SUHAS SANGEETA</v>
+            <v>/BANSODE NAMRATA SUHAS SANGEETA</v>
           </cell>
           <cell r="C10">
             <v>29</v>
@@ -3701,10 +3689,10 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>MMS18-20/9</v>
+            <v>MMS18-20/009</v>
           </cell>
           <cell r="B11" t="str">
-            <v>BHAJANI DHANASHREE MANOHAR KAVITA</v>
+            <v>/BHAJANI DHANASHREE MANOHAR KAVITA</v>
           </cell>
           <cell r="C11">
             <v>27</v>
@@ -3907,7 +3895,7 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>MMS18-20/10</v>
+            <v>MMS18-20/010</v>
           </cell>
           <cell r="B12" t="str">
             <v>BHANGALE BHUPENDRA RAMESH JYOTI</v>
@@ -4113,10 +4101,10 @@
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>MMS18-20/11</v>
+            <v>MMS18-20/011</v>
           </cell>
           <cell r="B13" t="str">
-            <v>BHATKAR ANAGHA ANIL AKSHATA</v>
+            <v>/BHATKAR ANAGHA ANIL AKSHATA</v>
           </cell>
           <cell r="C13">
             <v>28</v>
@@ -4319,7 +4307,7 @@
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>MMS18-20/12</v>
+            <v>MMS18-20/012</v>
           </cell>
           <cell r="B14" t="str">
             <v>BHOIR PRANAV SURESH SWETA</v>
@@ -4525,7 +4513,7 @@
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>MMS18-20/13</v>
+            <v>MMS18-20/013</v>
           </cell>
           <cell r="B15" t="str">
             <v>BHOIR VINAYAK CHINTAMAN SHALINI</v>
@@ -4731,7 +4719,7 @@
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>MMS18-20/14</v>
+            <v>MMS18-20/014</v>
           </cell>
           <cell r="B16" t="str">
             <v>BHOSALE MAYUR PRATAPRAO USHA</v>
@@ -4937,10 +4925,10 @@
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>MMS18-20/15</v>
+            <v>MMS18-20/015</v>
           </cell>
           <cell r="B17" t="str">
-            <v>BIDVI ABOLI AJENDRA NEHA</v>
+            <v>/BIDVI ABOLI AJENDRA NEHA</v>
           </cell>
           <cell r="C17">
             <v>31</v>
@@ -5143,7 +5131,7 @@
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>MMS18-20/16</v>
+            <v>MMS18-20/016</v>
           </cell>
           <cell r="B18" t="str">
             <v>BORKAR DIPESH SHYAM SANGITA</v>
@@ -5349,10 +5337,10 @@
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>MMS18-20/17</v>
+            <v>MMS18-20/017</v>
           </cell>
           <cell r="B19" t="str">
-            <v>CHANDORKAR PRAJAL MADHUKAR VANITA</v>
+            <v>/CHANDORKAR PRAJAL MADHUKAR VANITA</v>
           </cell>
           <cell r="C19">
             <v>32</v>
@@ -5555,7 +5543,7 @@
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>MMS18-20/18</v>
+            <v>MMS18-20/018</v>
           </cell>
           <cell r="B20" t="str">
             <v>CHAUDHARI TRUPAL JEEVAN SMITA</v>
@@ -5761,7 +5749,7 @@
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>MMS18-20/19</v>
+            <v>MMS18-20/019</v>
           </cell>
           <cell r="B21" t="str">
             <v>CHAVAN SURAJ SURESH SUREKHA</v>
@@ -5967,10 +5955,10 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>MMS18-20/20</v>
+            <v>MMS18-20/020</v>
           </cell>
           <cell r="B22" t="str">
-            <v>CHAWHAN SAMTA VIJAY SUNITA</v>
+            <v>/CHAWHAN SAMTA VIJAY SUNITA</v>
           </cell>
           <cell r="C22">
             <v>27</v>
@@ -6173,7 +6161,7 @@
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>MMS18-20/21</v>
+            <v>MMS18-20/021</v>
           </cell>
           <cell r="B23" t="str">
             <v>DESAI SAURABH HARESH HARSHADA</v>
@@ -6379,7 +6367,7 @@
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>MMS18-20/22</v>
+            <v>MMS18-20/022</v>
           </cell>
           <cell r="B24" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -6585,10 +6573,10 @@
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>MMS18-20/23</v>
+            <v>MMS18-20/023</v>
           </cell>
           <cell r="B25" t="str">
-            <v xml:space="preserve">PICHAD DESHMUKH GIRIJA HEMANT MOHINI </v>
+            <v xml:space="preserve">/PICHAD DESHMUKH GIRIJA HEMANT MOHINI </v>
           </cell>
           <cell r="C25">
             <v>30</v>
@@ -6791,7 +6779,7 @@
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>MMS18-20/24</v>
+            <v>MMS18-20/024</v>
           </cell>
           <cell r="B26" t="str">
             <v>DHUMAL SAURABH RAMESH RAJASHREE</v>
@@ -6997,10 +6985,10 @@
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>MMS18-20/25</v>
+            <v>MMS18-20/025</v>
           </cell>
           <cell r="B27" t="str">
-            <v>DSOUZA FLOSSIE JOACHIM RITA</v>
+            <v>/DSOUZA FLOSSIE JOACHIM RITA</v>
           </cell>
           <cell r="C27">
             <v>32</v>
@@ -7203,10 +7191,10 @@
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>MMS18-20/26</v>
+            <v>MMS18-20/026</v>
           </cell>
           <cell r="B28" t="str">
-            <v>DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</v>
+            <v>/DYWARSHETTY NEELIMA VENUGOPAL INDUMATI</v>
           </cell>
           <cell r="C28">
             <v>31</v>
@@ -7409,10 +7397,10 @@
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>MMS18-20/27</v>
+            <v>MMS18-20/027</v>
           </cell>
           <cell r="B29" t="str">
-            <v>ERANDE TRUPTI UTTAM SUNITA</v>
+            <v>/ERANDE TRUPTI UTTAM SUNITA</v>
           </cell>
           <cell r="C29">
             <v>33</v>
@@ -7615,7 +7603,7 @@
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>MMS18-20/28</v>
+            <v>MMS18-20/028</v>
           </cell>
           <cell r="B30" t="str">
             <v>GAMBHIRRAO MANISH HARISHCHANDRA RANJANA</v>
@@ -7821,7 +7809,7 @@
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>MMS18-20/29</v>
+            <v>MMS18-20/029</v>
           </cell>
           <cell r="B31" t="str">
             <v>GANGANI ANKIT SURESH TEJAL</v>
@@ -8027,10 +8015,10 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>MMS18-20/30</v>
+            <v>MMS18-20/030</v>
           </cell>
           <cell r="B32" t="str">
-            <v>GANGURDE SAKSHI SUDHIR ASHA</v>
+            <v>/GANGURDE SAKSHI SUDHIR ASHA</v>
           </cell>
           <cell r="C32">
             <v>29</v>
@@ -8233,7 +8221,7 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>MMS18-20/31</v>
+            <v>MMS18-20/031</v>
           </cell>
           <cell r="B33" t="str">
             <v>GHUMARE SANKET RAMESH JAYSHREE</v>
@@ -8439,7 +8427,7 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>MMS18-20/32</v>
+            <v>MMS18-20/032</v>
           </cell>
           <cell r="B34" t="str">
             <v>GUPTA NITIN RAJESH CHANDRAKALA</v>
@@ -8645,7 +8633,7 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>MMS18-20/33</v>
+            <v>MMS18-20/033</v>
           </cell>
           <cell r="B35" t="str">
             <v>HANDE RAHUL RANGARAO NALINI</v>
@@ -8851,7 +8839,7 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>MMS18-20/34</v>
+            <v>MMS18-20/034</v>
           </cell>
           <cell r="B36" t="str">
             <v>HARMALKAR PRATHAMESH SUBHASH SUBHASHINI</v>
@@ -9057,7 +9045,7 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>MMS18-20/35</v>
+            <v>MMS18-20/035</v>
           </cell>
           <cell r="B37" t="str">
             <v>KADAM AVIRAJ MOHAN MOHINI</v>
@@ -9263,7 +9251,7 @@
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>MMS18-20/36</v>
+            <v>MMS18-20/036</v>
           </cell>
           <cell r="B38" t="str">
             <v>JADHAV ANKUR SHIVAJI ANAGHA</v>
@@ -9469,7 +9457,7 @@
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>MMS18-20/37</v>
+            <v>MMS18-20/037</v>
           </cell>
           <cell r="B39" t="str">
             <v>KADAM AKSHAY RAMESH REEMA</v>
@@ -9675,7 +9663,7 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>MMS18-20/38</v>
+            <v>MMS18-20/038</v>
           </cell>
           <cell r="B40" t="str">
             <v>KADAM SHANTANU DILEEP ANITA</v>
@@ -9881,7 +9869,7 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>MMS18-20/39</v>
+            <v>MMS18-20/039</v>
           </cell>
           <cell r="B41" t="str">
             <v>KAMBLE NIKHIL KESHAVRAO SUSHILA</v>
@@ -10087,7 +10075,7 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>MMS18-20/40</v>
+            <v>MMS18-20/040</v>
           </cell>
           <cell r="B42" t="str">
             <v>KAMBLE SIDDHESH RAMESH SUHASINI</v>
@@ -10293,7 +10281,7 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>MMS18-20/41</v>
+            <v>MMS18-20/041</v>
           </cell>
           <cell r="B43" t="str">
             <v>KATARE MAYANK PRAMOD PRANITA</v>
@@ -10499,7 +10487,7 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>MMS18-20/42</v>
+            <v>MMS18-20/042</v>
           </cell>
           <cell r="B44" t="str">
             <v>KHAN SAIF ALI NIZAM BILKIS</v>
@@ -10705,7 +10693,7 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>MMS18-20/43</v>
+            <v>MMS18-20/043</v>
           </cell>
           <cell r="B45" t="str">
             <v>*** (NOT AVAILABLE) ***</v>
@@ -10911,10 +10899,10 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>MMS18-20/44</v>
+            <v>MMS18-20/044</v>
           </cell>
           <cell r="B46" t="str">
-            <v>KOLGE VARDA DEEPAK AARTI</v>
+            <v>/KOLGE VARDA DEEPAK AARTI</v>
           </cell>
           <cell r="C46">
             <v>28</v>
@@ -11117,7 +11105,7 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>MMS18-20/45</v>
+            <v>MMS18-20/045</v>
           </cell>
           <cell r="B47" t="str">
             <v>KOLI PRATIK PRABHAKAR NALINI</v>
@@ -11323,7 +11311,7 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>MMS18-20/46</v>
+            <v>MMS18-20/046</v>
           </cell>
           <cell r="B48" t="str">
             <v>KONDEKAR VAIBHAV VIJAY VAISHALI</v>
@@ -11529,7 +11517,7 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>MMS18-20/47</v>
+            <v>MMS18-20/047</v>
           </cell>
           <cell r="B49" t="str">
             <v>KORE PRASHEEL PRASHANT SHEELA</v>
@@ -11735,7 +11723,7 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>MMS18-20/48</v>
+            <v>MMS18-20/048</v>
           </cell>
           <cell r="B50" t="str">
             <v>LATE VISHAL BALASAHEB PRAMILA</v>
@@ -11941,10 +11929,10 @@
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>MMS18-20/49</v>
+            <v>MMS18-20/049</v>
           </cell>
           <cell r="B51" t="str">
-            <v xml:space="preserve">LOKE TEJAL JITENDRA GEETA </v>
+            <v xml:space="preserve">/LOKE TEJAL JITENDRA GEETA </v>
           </cell>
           <cell r="C51">
             <v>33</v>
@@ -12147,10 +12135,10 @@
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>MMS18-20/50</v>
+            <v>MMS18-20/050</v>
           </cell>
           <cell r="B52" t="str">
-            <v>MANDAVKAR CHAITRALI SANJAY SUCHITA</v>
+            <v>/MANDAVKAR CHAITRALI SANJAY SUCHITA</v>
           </cell>
           <cell r="C52">
             <v>32</v>
@@ -12353,10 +12341,10 @@
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>MMS18-20/51</v>
+            <v>MMS18-20/051</v>
           </cell>
           <cell r="B53" t="str">
-            <v>MARCHANDE SHWETA SHANTARAM SHEETAL</v>
+            <v>/MARCHANDE SHWETA SHANTARAM SHEETAL</v>
           </cell>
           <cell r="C53">
             <v>30</v>
@@ -12559,7 +12547,7 @@
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>MMS18-20/52</v>
+            <v>MMS18-20/052</v>
           </cell>
           <cell r="B54" t="str">
             <v>MHATRE VARAD GURUNATH SUSHMA</v>
@@ -12765,10 +12753,10 @@
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>MMS18-20/53</v>
+            <v>MMS18-20/053</v>
           </cell>
           <cell r="B55" t="str">
-            <v>MISHRA RASHMI SHIVKANT PRATIBHA</v>
+            <v>/MISHRA RASHMI SHIVKANT PRATIBHA</v>
           </cell>
           <cell r="C55">
             <v>27</v>
@@ -12971,10 +12959,10 @@
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>MMS18-20/54</v>
+            <v>MMS18-20/054</v>
           </cell>
           <cell r="B56" t="str">
-            <v>NAIR ANAGHA ANANDKUMAR BHANUMATHI</v>
+            <v>/NAIR ANAGHA ANANDKUMAR BHANUMATHI</v>
           </cell>
           <cell r="C56">
             <v>31</v>
@@ -13177,7 +13165,7 @@
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>MMS18-20/55</v>
+            <v>MMS18-20/055</v>
           </cell>
           <cell r="B57" t="str">
             <v xml:space="preserve">PANCHAL ANIKET AVINASH AARTI </v>
@@ -13383,7 +13371,7 @@
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>MMS18-20/56</v>
+            <v>MMS18-20/056</v>
           </cell>
           <cell r="B58" t="str">
             <v>SHAIKH SAMEER MOHAMMADHUSSAIN FATIMA</v>
@@ -13589,10 +13577,10 @@
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>MMS18-20/57</v>
+            <v>MMS18-20/057</v>
           </cell>
           <cell r="B59" t="str">
-            <v>SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</v>
+            <v>/SHAMBHARKAR PALLAVI JAGDISH MINAKSHI</v>
           </cell>
           <cell r="C59">
             <v>25</v>
@@ -13795,7 +13783,7 @@
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>MMS18-20/58</v>
+            <v>MMS18-20/058</v>
           </cell>
           <cell r="B60" t="str">
             <v>SINGH ASHWIN BHAGWANPRASAD SADHANA</v>
@@ -14001,7 +13989,7 @@
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>MMS18-20/59</v>
+            <v>MMS18-20/059</v>
           </cell>
           <cell r="B61" t="str">
             <v>WANKHADE NIKHIL MADHUKAR JYOTI</v>
@@ -14207,7 +14195,7 @@
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>MMS18-20/60</v>
+            <v>MMS18-20/060</v>
           </cell>
           <cell r="B62" t="str">
             <v>WORLIKAR SIDDHANT PANKAJ VIDYA</v>
@@ -14413,7 +14401,7 @@
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>MMS18-20/61</v>
+            <v>MMS18-20/061</v>
           </cell>
           <cell r="B63" t="str">
             <v>AGATE AKASH PRAKASH KIRAN</v>
@@ -14619,10 +14607,10 @@
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>MMS18-20/62</v>
+            <v>MMS18-20/062</v>
           </cell>
           <cell r="B64" t="str">
-            <v>AVHAD VISHAKHA MILIND RAKHI</v>
+            <v>/AVHAD VISHAKHA MILIND RAKHI</v>
           </cell>
           <cell r="C64">
             <v>30</v>
@@ -14825,7 +14813,7 @@
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>MMS18-20/63</v>
+            <v>MMS18-20/063</v>
           </cell>
           <cell r="B65" t="str">
             <v>CHILE VARAD KISHOR NEHA</v>
@@ -15031,7 +15019,7 @@
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>MMS18-20/64</v>
+            <v>MMS18-20/064</v>
           </cell>
           <cell r="B66" t="str">
             <v>DALVI AKASH SHANKAR NIRMALA</v>
@@ -15237,10 +15225,10 @@
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>MMS18-20/65</v>
+            <v>MMS18-20/065</v>
           </cell>
           <cell r="B67" t="str">
-            <v>DALVI RUTUJA JAGDISH SUPRIYA</v>
+            <v>/DALVI RUTUJA JAGDISH SUPRIYA</v>
           </cell>
           <cell r="C67">
             <v>31</v>
@@ -15443,7 +15431,7 @@
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>MMS18-20/66</v>
+            <v>MMS18-20/066</v>
           </cell>
           <cell r="B68" t="str">
             <v xml:space="preserve">GANDHI BHAVIK AJAY HARSHA </v>
@@ -15649,10 +15637,10 @@
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>MMS18-20/67</v>
+            <v>MMS18-20/067</v>
           </cell>
           <cell r="B69" t="str">
-            <v>GUNDU MEGHNA GUNASHALI SUJATHA</v>
+            <v>/GUNDU MEGHNA GUNASHALI SUJATHA</v>
           </cell>
           <cell r="C69">
             <v>30</v>
@@ -15855,7 +15843,7 @@
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>MMS18-20/68</v>
+            <v>MMS18-20/068</v>
           </cell>
           <cell r="B70" t="str">
             <v>GUPTA AAYUSH NEELKAMAL MANSHA</v>
@@ -16061,7 +16049,7 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>MMS18-20/69</v>
+            <v>MMS18-20/069</v>
           </cell>
           <cell r="B71" t="str">
             <v>GUPTA PRAMOD OMPRAKASH RAMAVATI</v>
@@ -16267,10 +16255,10 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>MMS18-20/70</v>
+            <v>MMS18-20/070</v>
           </cell>
           <cell r="B72" t="str">
-            <v>JADHAV SHWETA NARESH LATA</v>
+            <v>/JADHAV SHWETA NARESH LATA</v>
           </cell>
           <cell r="C72">
             <v>31</v>
@@ -16473,7 +16461,7 @@
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>MMS18-20/71</v>
+            <v>MMS18-20/071</v>
           </cell>
           <cell r="B73" t="str">
             <v>INGLE ATHARAVA SHASHIKANT SAILEE</v>
@@ -16679,10 +16667,10 @@
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>MMS18-20/72</v>
+            <v>MMS18-20/072</v>
           </cell>
           <cell r="B74" t="str">
-            <v>KEMPU VIDYA LAXMAN SHANTAMMA</v>
+            <v>/KEMPU VIDYA LAXMAN SHANTAMMA</v>
           </cell>
           <cell r="C74">
             <v>32</v>
@@ -16885,10 +16873,10 @@
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>MMS18-20/73</v>
+            <v>MMS18-20/073</v>
           </cell>
           <cell r="B75" t="str">
-            <v>KHADE VRUSHALEE SUKHADEV RAJASHREE</v>
+            <v>/KHADE VRUSHALEE SUKHADEV RAJASHREE</v>
           </cell>
           <cell r="C75">
             <v>30</v>
@@ -17091,7 +17079,7 @@
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>MMS18-20/74</v>
+            <v>MMS18-20/074</v>
           </cell>
           <cell r="B76" t="str">
             <v>KUSHWAHA PRAMOD RAMSAKHA ASHA</v>
@@ -17297,10 +17285,10 @@
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>MMS18-20/75</v>
+            <v>MMS18-20/075</v>
           </cell>
           <cell r="B77" t="str">
-            <v>MAURYA NEHA JAYSHANKAR GEETA</v>
+            <v>/MAURYA NEHA JAYSHANKAR GEETA</v>
           </cell>
           <cell r="C77">
             <v>27</v>
@@ -17503,7 +17491,7 @@
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>MMS18-20/76</v>
+            <v>MMS18-20/076</v>
           </cell>
           <cell r="B78" t="str">
             <v>PANCHAL SWAPNIL SATYAWAN MANASI</v>
@@ -17709,10 +17697,10 @@
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>MMS18-20/77</v>
+            <v>MMS18-20/077</v>
           </cell>
           <cell r="B79" t="str">
-            <v>PANDYA VANESHA EDWIN SHASHMIRA</v>
+            <v>/PANDYA VANESHA EDWIN SHASHMIRA</v>
           </cell>
           <cell r="C79">
             <v>28</v>
@@ -17915,7 +17903,7 @@
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>MMS18-20/78</v>
+            <v>MMS18-20/078</v>
           </cell>
           <cell r="B80" t="str">
             <v xml:space="preserve">PATEKAR RUPESH GANESH MANJULA </v>
@@ -18121,7 +18109,7 @@
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>MMS18-20/79</v>
+            <v>MMS18-20/079</v>
           </cell>
           <cell r="B81" t="str">
             <v>PATEL PRAGNESH KISHORBHAI DAMYANTIBEN</v>
@@ -18327,10 +18315,10 @@
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>MMS18-20/80</v>
+            <v>MMS18-20/080</v>
           </cell>
           <cell r="B82" t="str">
-            <v>PATIL CHAITALEE NARESH NAMITA</v>
+            <v>/PATIL CHAITALEE NARESH NAMITA</v>
           </cell>
           <cell r="C82">
             <v>32</v>
@@ -18533,10 +18521,10 @@
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>MMS18-20/81</v>
+            <v>MMS18-20/081</v>
           </cell>
           <cell r="B83" t="str">
-            <v>PEDNEKAR MADHUGANDHA DILIP DEEPALI</v>
+            <v>/PEDNEKAR MADHUGANDHA DILIP DEEPALI</v>
           </cell>
           <cell r="C83">
             <v>31</v>
@@ -18739,10 +18727,10 @@
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>MMS18-20/82</v>
+            <v>MMS18-20/082</v>
           </cell>
           <cell r="B84" t="str">
-            <v>PHANSE SAILEE VINOD LEELA</v>
+            <v>/PHANSE SAILEE VINOD LEELA</v>
           </cell>
           <cell r="C84">
             <v>33</v>
@@ -18945,7 +18933,7 @@
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>MMS18-20/83</v>
+            <v>MMS18-20/083</v>
           </cell>
           <cell r="B85" t="str">
             <v>PRASAD ROHAN RAJENDRA RAJKUMARI</v>
@@ -19151,7 +19139,7 @@
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>MMS18-20/84</v>
+            <v>MMS18-20/084</v>
           </cell>
           <cell r="B86" t="str">
             <v>RAI JAYESH RAVINDRANATH DIVYA</v>
@@ -19357,10 +19345,10 @@
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>MMS18-20/85</v>
+            <v>MMS18-20/085</v>
           </cell>
           <cell r="B87" t="str">
-            <v>RANE ASHWINI SANTOSH SAVITA</v>
+            <v>/RANE ASHWINI SANTOSH SAVITA</v>
           </cell>
           <cell r="C87">
             <v>29</v>
@@ -19563,10 +19551,10 @@
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>MMS18-20/86</v>
+            <v>MMS18-20/086</v>
           </cell>
           <cell r="B88" t="str">
-            <v>RANE MAYURI SUHAS ARCHANA</v>
+            <v>/RANE MAYURI SUHAS ARCHANA</v>
           </cell>
           <cell r="C88">
             <v>27</v>
@@ -19769,10 +19757,10 @@
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>MMS18-20/87</v>
+            <v>MMS18-20/087</v>
           </cell>
           <cell r="B89" t="str">
-            <v>RAORANE SAINI SATISH SANCHITA</v>
+            <v>/RAORANE SAINI SATISH SANCHITA</v>
           </cell>
           <cell r="C89">
             <v>31</v>
@@ -19975,7 +19963,7 @@
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>MMS18-20/88</v>
+            <v>MMS18-20/088</v>
           </cell>
           <cell r="B90" t="str">
             <v>RATHOD OMKAR PANDIT DEVIKA</v>
@@ -20181,7 +20169,7 @@
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>MMS18-20/89</v>
+            <v>MMS18-20/089</v>
           </cell>
           <cell r="B91" t="str">
             <v>SANGLE SINDHANT NAVANATH PRATIBHA</v>
@@ -20387,10 +20375,10 @@
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>MMS18-20/90</v>
+            <v>MMS18-20/090</v>
           </cell>
           <cell r="B92" t="str">
-            <v>SARMALKAR SANIKA SUNILDATTA MANISHA</v>
+            <v>/SARMALKAR SANIKA SUNILDATTA MANISHA</v>
           </cell>
           <cell r="C92">
             <v>25</v>
@@ -20593,10 +20581,10 @@
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>MMS18-20/91</v>
+            <v>MMS18-20/091</v>
           </cell>
           <cell r="B93" t="str">
-            <v>SATAM NEHA ANIL ASMITA</v>
+            <v>/SATAM NEHA ANIL ASMITA</v>
           </cell>
           <cell r="C93">
             <v>32</v>
@@ -20799,7 +20787,7 @@
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>MMS18-20/92</v>
+            <v>MMS18-20/092</v>
           </cell>
           <cell r="B94" t="str">
             <v>SAWANT AVADHUT RAJAN SHRADDHA</v>
@@ -21005,10 +20993,10 @@
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>MMS18-20/93</v>
+            <v>MMS18-20/093</v>
           </cell>
           <cell r="B95" t="str">
-            <v>SHARMA PALAK PRAHLAD MRIDULA</v>
+            <v>/SHARMA PALAK PRAHLAD MRIDULA</v>
           </cell>
           <cell r="C95">
             <v>33</v>
@@ -21211,10 +21199,10 @@
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>MMS18-20/94</v>
+            <v>MMS18-20/094</v>
           </cell>
           <cell r="B96" t="str">
-            <v>SHETTY SHIFALI PRASHANT ASHALATA</v>
+            <v>/SHETTY SHIFALI PRASHANT ASHALATA</v>
           </cell>
           <cell r="C96">
             <v>32</v>
@@ -21417,7 +21405,7 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>MMS18-20/95</v>
+            <v>MMS18-20/095</v>
           </cell>
           <cell r="B97" t="str">
             <v>SHINDE AKSHAY SURENDRA SUPRIYA</v>
@@ -21623,7 +21611,7 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>MMS18-20/96</v>
+            <v>MMS18-20/096</v>
           </cell>
           <cell r="B98" t="str">
             <v>SHINDE ASHUTOSH BHASKAR BHAVANA</v>
@@ -21829,7 +21817,7 @@
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>MMS18-20/97</v>
+            <v>MMS18-20/097</v>
           </cell>
           <cell r="B99" t="str">
             <v>SHINDE NIKHIL KRISHNAT MANISHA</v>
@@ -22035,7 +22023,7 @@
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>MMS18-20/98</v>
+            <v>MMS18-20/098</v>
           </cell>
           <cell r="B100" t="str">
             <v>SHINDE SAIRAJ VIKAS SHRADHA</v>
@@ -22241,7 +22229,7 @@
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>MMS18-20/99</v>
+            <v>MMS18-20/099</v>
           </cell>
           <cell r="B101" t="str">
             <v>SHINDE SURAJ SHASHIKANT SHOBHA</v>
@@ -22656,7 +22644,7 @@
             <v>MMS18-20/101</v>
           </cell>
           <cell r="B103" t="str">
-            <v>SHIVKAR PRIYANKA JANARDHAN REKHA</v>
+            <v>/SHIVKAR PRIYANKA JANARDHAN REKHA</v>
           </cell>
           <cell r="C103">
             <v>25</v>
@@ -23274,7 +23262,7 @@
             <v>MMS18-20/104</v>
           </cell>
           <cell r="B106" t="str">
-            <v>SINGH VARSHA GURUPRASAD VEENA</v>
+            <v>/SINGH VARSHA GURUPRASAD VEENA</v>
           </cell>
           <cell r="C106">
             <v>33</v>
@@ -23686,7 +23674,7 @@
             <v>MMS18-20/106</v>
           </cell>
           <cell r="B108" t="str">
-            <v>SURYAVANSHI MAYURI DILIP BHAGIRATHI</v>
+            <v>/SURYAVANSHI MAYURI DILIP BHAGIRATHI</v>
           </cell>
           <cell r="C108">
             <v>30</v>
@@ -23892,7 +23880,7 @@
             <v>MMS18-20/107</v>
           </cell>
           <cell r="B109" t="str">
-            <v>SWAMY VIOLET BENEDICT JULIET</v>
+            <v>/SWAMY VIOLET BENEDICT JULIET</v>
           </cell>
           <cell r="C109">
             <v>29</v>
@@ -24304,7 +24292,7 @@
             <v>MMS18-20/109</v>
           </cell>
           <cell r="B111" t="str">
-            <v>TALELE BHOOMA GHANASHYAM KALPANA</v>
+            <v>/TALELE BHOOMA GHANASHYAM KALPANA</v>
           </cell>
           <cell r="C111">
             <v>31</v>
@@ -25334,7 +25322,7 @@
             <v>MMS18-20/114</v>
           </cell>
           <cell r="B116" t="str">
-            <v>VICHARE SAMRUDHI SANJAY VAIBHAVI</v>
+            <v>/VICHARE SAMRUDHI SANJAY VAIBHAVI</v>
           </cell>
           <cell r="C116">
             <v>31</v>
@@ -25540,7 +25528,7 @@
             <v>MMS18-20/115</v>
           </cell>
           <cell r="B117" t="str">
-            <v>WAGHMARE SHEETAL SURYAKANT SUNANDA</v>
+            <v>/WAGHMARE SHEETAL SURYAKANT SUNANDA</v>
           </cell>
           <cell r="C117">
             <v>33</v>
@@ -25952,7 +25940,7 @@
             <v>MMS18-20/117</v>
           </cell>
           <cell r="B119" t="str">
-            <v>YADAV ANKITA OMPRAKASH SHASHANK DEVI</v>
+            <v>/YADAV ANKITA OMPRAKASH SHASHANK DEVI</v>
           </cell>
           <cell r="C119">
             <v>30</v>
@@ -26364,7 +26352,7 @@
             <v>MMS18-20/119</v>
           </cell>
           <cell r="B121" t="str">
-            <v>YADAV SUMAN RAMJEET SAVITRIDEVI</v>
+            <v>/YADAV SUMAN RAMJEET SAVITRIDEVI</v>
           </cell>
           <cell r="C121">
             <v>27</v>
@@ -29284,15 +29272,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0C8EAEB-E2F7-4568-A48C-2E5909074BE5}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="10" style="1" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="1" customWidth="1"/>
@@ -29305,462 +29293,463 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="A1" s="28"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:9" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+    <row r="6" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
-    <row r="7" spans="1:9" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
     </row>
     <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="str">
+      <c r="A9" s="10" t="str">
         <f>"NAME OF THE CANDIDATE : "&amp;VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
-        <v>NAME OF THE CANDIDATE : ADEPU CHETAN GANESH ARCHANA</v>
+        <v>NAME OF THE CANDIDATE : /ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>17</v>
+      <c r="A10" s="10" t="s">
+        <v>14</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>18</v>
+      <c r="A11" s="10" t="str">
+        <f>"HELD IN : "&amp;'[2]Subjects List'!$C$13</f>
+        <v>HELD IN : JANUARY 2019</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>19</v>
+      <c r="A12" s="10" t="s">
+        <v>15</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="27" t="s">
-        <v>8</v>
+      <c r="D13" s="10" t="s">
+        <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
+    <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="19" t="s">
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="19" t="s">
-        <v>13</v>
+      <c r="G15" s="14" t="s">
+        <v>10</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>14</v>
+      <c r="H15" s="14" t="s">
+        <v>11</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="18" t="str">
+      <c r="B17" s="16" t="str">
         <f>'[2]Subjects List'!$C$4</f>
         <v>Perspective Management</v>
       </c>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="4">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="3">
         <v>4</v>
       </c>
-      <c r="F17" s="4" t="str">
+      <c r="F17" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$F$135,6,0)</f>
-        <v>A</v>
+        <v>F</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>4</v>
       </c>
-      <c r="H17" s="4" t="str">
+      <c r="H17" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$G$135,7,0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="3">
         <f>G17*H17</f>
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="18" t="str">
+      <c r="B18" s="16" t="str">
         <f>'[2]Subjects List'!$C$5</f>
         <v>Financial Accounting</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="4">
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="3">
         <v>4</v>
       </c>
-      <c r="F18" s="4" t="str">
+      <c r="F18" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$M$135,13,0)</f>
-        <v>O</v>
+        <v>B</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>4</v>
       </c>
-      <c r="H18" s="4" t="str">
+      <c r="H18" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$N$135,14,0)</f>
-        <v>10</v>
+        <v>6</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="3">
         <f t="shared" ref="I18:I24" si="0">G18*H18</f>
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="18" t="str">
+      <c r="B19" s="16" t="str">
         <f>'[2]Subjects List'!$C$6</f>
         <v>Business Statistics</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="4">
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="3">
         <v>4</v>
       </c>
-      <c r="F19" s="4" t="str">
+      <c r="F19" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$T$135,20,0)</f>
-        <v>A+</v>
+        <v>A</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>4</v>
       </c>
-      <c r="H19" s="4" t="str">
+      <c r="H19" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$U$135,21,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="18" t="str">
+      <c r="B20" s="16" t="str">
         <f>'[2]Subjects List'!$C$7</f>
         <v>Operations Management</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="4">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="3">
         <v>4</v>
       </c>
-      <c r="F20" s="4" t="str">
+      <c r="F20" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AA$135,27,0)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>4</v>
       </c>
-      <c r="H20" s="4" t="str">
+      <c r="H20" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AB$135,28,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="18" t="str">
+      <c r="B21" s="16" t="str">
         <f>'[2]Subjects List'!$C$8</f>
         <v>Managerial Economics</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="4">
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="3">
         <v>4</v>
       </c>
-      <c r="F21" s="4" t="str">
+      <c r="F21" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AH$135,34,0)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H21" s="4" t="str">
+      <c r="H21" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AI$135,35,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="18" t="str">
+      <c r="B22" s="16" t="str">
         <f>'[2]Subjects List'!$C$9</f>
         <v>Effective and Management Communication</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="4">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="3">
         <v>4</v>
       </c>
-      <c r="F22" s="4" t="str">
+      <c r="F22" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AO$135,41,0)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>4</v>
       </c>
-      <c r="H22" s="4" t="str">
+      <c r="H22" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AP$135,42,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="18" t="str">
+      <c r="B23" s="16" t="str">
         <f>'[2]Subjects List'!$C$10</f>
         <v>Negotiation and Selling Skills</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="4">
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="F23" s="4" t="str">
+      <c r="F23" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AV$135,48,0)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>4</v>
       </c>
-      <c r="H23" s="4" t="str">
+      <c r="H23" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$AW$135,49,0)</f>
+        <v>6</v>
+      </c>
+      <c r="I23" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="42.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>8</v>
-      </c>
-      <c r="B24" s="18" t="str">
+      <c r="B24" s="16" t="str">
         <f>'[2]Subjects List'!$C$11</f>
         <v>Organisational Behaviour</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="4">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="3">
         <v>4</v>
       </c>
-      <c r="F24" s="4" t="str">
+      <c r="F24" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BC$135,55,0)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>4</v>
       </c>
-      <c r="H24" s="4" t="str">
+      <c r="H24" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BD$135,56,0)</f>
-        <v>8</v>
+        <v>6</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="31" t="s">
-        <v>9</v>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="17" t="s">
+        <v>7</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="7">
+      <c r="C25" s="18"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5">
         <f>SUM(G17:G24)</f>
         <v>32</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="4"/>
       <c r="I25" s="6">
         <f>SUM(I17:I24)</f>
-        <v>264</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="str">
         <f>"Remark    :  "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BM$122,65,0)</f>
         <v>Remark    :  Unsuccessful</v>
@@ -29768,37 +29757,38 @@
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="8" t="str">
+      <c r="E26" s="25" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BN$122,66,0)</f>
-        <v>SGPI : 8.25</v>
+        <v>SGPI : 5.25</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="8" t="str">
+      <c r="F26" s="26"/>
+      <c r="G26" s="25" t="str">
         <f>"Overall Grade : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BO$122,67,0)</f>
-        <v>Overall Grade : A</v>
+        <v>Overall Grade : C</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="5" t="str">
+      <c r="H26" s="26"/>
+      <c r="I26" s="7" t="str">
         <f>"Range : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BP$122,68,0)</f>
-        <v>Range : 70-74.99</v>
+        <v>Range : 55-59.99</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>10</v>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>8</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13" t="s">
-        <v>11</v>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30" t="str">
+        <f>'[2]Subjects List'!$C$15</f>
+        <v>10/02/2019</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -29808,75 +29798,113 @@
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-      <c r="B29"/>
-      <c r="C29" s="2"/>
-      <c r="D29"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E29"/>
       <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
       <c r="B30"/>
-      <c r="C30"/>
+      <c r="C30" s="2"/>
       <c r="D30"/>
       <c r="E30"/>
       <c r="F30"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E31"/>
+      <c r="G31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="G31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
     </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+    </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="6uDjkxwoVLh/5XkJynEzWUewT4HJEkkxidDAMqElm8OVDscFoGN/6rfc2+Kpz3LVPElR4FPYGS6liUrrj9h5GA==" saltValue="kvKU5LSY2+e0GjmsTVlh0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
-    <protectedRange sqref="C27" name="Declared Date"/>
     <protectedRange sqref="D13" name="Seat No."/>
-    <protectedRange sqref="A11" name="Held In"/>
   </protectedRanges>
-  <mergeCells count="36">
+  <mergeCells count="37">
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A1:I6"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A9:G9"/>
@@ -29893,26 +29921,6 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A1:I5"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.69" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Batch 2018-20/Sem 1/Grade Card.xlsx
+++ b/Batch 2018-20/Sem 1/Grade Card.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\SIMSR-Results-Generator\Batch 2018-20\Sem 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B71E0EE-9F9F-4916-86D6-0E3D8B47281F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6D057F-4AE8-4BB5-BF1A-664DA33C0495}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4C80AD8E-6BB5-43FA-A2DF-2A6A1A9D1C00}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
-  <si>
-    <t>University of Mumbai</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Course Title</t>
   </si>
@@ -104,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,24 +118,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Old English Text MT"/>
-      <family val="4"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="Old English Text MT"/>
-      <family val="4"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,105 +264,99 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,7 +405,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2146"/>
+                  <a14:cameraTool cellRange="PicUp" spid="_x0000_s2149"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -477,16 +456,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1095375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1126625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0495B52-70FF-4F9D-9FC7-EEF95A442166}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8BBE401-F5D8-4CF6-853F-08DF4CC5FEF6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -495,7 +474,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -509,7 +488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5746750" cy="1619250"/>
+          <a:ext cx="5778000" cy="1969200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2098,7 +2077,7 @@
             <v>70</v>
           </cell>
           <cell r="T3" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U3" t="str">
             <v>8</v>
@@ -2110,25 +2089,25 @@
             <v>32</v>
           </cell>
           <cell r="X3">
-            <v>30</v>
+            <v>28</v>
           </cell>
           <cell r="Y3">
-            <v>40</v>
+            <v>37</v>
           </cell>
           <cell r="Z3">
-            <v>70</v>
+            <v>65</v>
           </cell>
           <cell r="AA3" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="AB3" t="str">
-            <v>8</v>
+            <v>7</v>
           </cell>
           <cell r="AC3">
             <v>4</v>
           </cell>
           <cell r="AD3">
-            <v>32</v>
+            <v>28</v>
           </cell>
           <cell r="AE3">
             <v>30</v>
@@ -2215,28 +2194,28 @@
             <v>32</v>
           </cell>
           <cell r="BG3">
-            <v>228</v>
+            <v>226</v>
           </cell>
           <cell r="BH3">
-            <v>356</v>
+            <v>353</v>
           </cell>
           <cell r="BI3">
-            <v>584</v>
+            <v>579</v>
           </cell>
           <cell r="BJ3">
-            <v>66</v>
+            <v>65</v>
           </cell>
           <cell r="BK3">
-            <v>264</v>
+            <v>260</v>
           </cell>
           <cell r="BL3">
-            <v>73</v>
+            <v>73.75</v>
           </cell>
           <cell r="BM3" t="str">
             <v>Unsuccessful</v>
           </cell>
           <cell r="BN3">
-            <v>8.25</v>
+            <v>8.125</v>
           </cell>
           <cell r="BO3" t="str">
             <v>A</v>
@@ -2304,7 +2283,7 @@
             <v>60</v>
           </cell>
           <cell r="T4" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U4" t="str">
             <v>6</v>
@@ -2436,7 +2415,7 @@
             <v>168</v>
           </cell>
           <cell r="BL4">
-            <v>58.5</v>
+            <v>45</v>
           </cell>
           <cell r="BM4" t="str">
             <v>Unsuccessful</v>
@@ -2510,7 +2489,7 @@
             <v>74</v>
           </cell>
           <cell r="T5" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U5" t="str">
             <v>8</v>
@@ -2642,7 +2621,7 @@
             <v>240</v>
           </cell>
           <cell r="BL5">
-            <v>71.25</v>
+            <v>67.5</v>
           </cell>
           <cell r="BM5" t="str">
             <v>Unsuccessful</v>
@@ -2651,7 +2630,7 @@
             <v>7.5</v>
           </cell>
           <cell r="BO5" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="BP5" t="str">
             <v>65-69.99</v>
@@ -2848,7 +2827,7 @@
             <v>284</v>
           </cell>
           <cell r="BL6">
-            <v>75.5</v>
+            <v>81.25</v>
           </cell>
           <cell r="BM6" t="str">
             <v>Successful</v>
@@ -2922,7 +2901,7 @@
             <v>69</v>
           </cell>
           <cell r="T7" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U7" t="str">
             <v>7</v>
@@ -3054,7 +3033,7 @@
             <v>224</v>
           </cell>
           <cell r="BL7">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM7" t="str">
             <v>Successful</v>
@@ -3128,7 +3107,7 @@
             <v>71</v>
           </cell>
           <cell r="T8" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U8" t="str">
             <v>8</v>
@@ -3260,7 +3239,7 @@
             <v>256</v>
           </cell>
           <cell r="BL8">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM8" t="str">
             <v>Successful</v>
@@ -3334,7 +3313,7 @@
             <v>71</v>
           </cell>
           <cell r="T9" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U9" t="str">
             <v>8</v>
@@ -3466,7 +3445,7 @@
             <v>256</v>
           </cell>
           <cell r="BL9">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM9" t="str">
             <v>Successful</v>
@@ -3672,7 +3651,7 @@
             <v>288</v>
           </cell>
           <cell r="BL10">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM10" t="str">
             <v>Successful</v>
@@ -3746,7 +3725,7 @@
             <v>67</v>
           </cell>
           <cell r="T11" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U11" t="str">
             <v>7</v>
@@ -3878,7 +3857,7 @@
             <v>224</v>
           </cell>
           <cell r="BL11">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM11" t="str">
             <v>Successful</v>
@@ -3952,7 +3931,7 @@
             <v>69</v>
           </cell>
           <cell r="T12" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U12" t="str">
             <v>7</v>
@@ -4084,7 +4063,7 @@
             <v>224</v>
           </cell>
           <cell r="BL12">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM12" t="str">
             <v>Successful</v>
@@ -4158,7 +4137,7 @@
             <v>65</v>
           </cell>
           <cell r="T13" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U13" t="str">
             <v>7</v>
@@ -4290,7 +4269,7 @@
             <v>224</v>
           </cell>
           <cell r="BL13">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM13" t="str">
             <v>Successful</v>
@@ -4364,7 +4343,7 @@
             <v>70</v>
           </cell>
           <cell r="T14" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U14" t="str">
             <v>8</v>
@@ -4496,7 +4475,7 @@
             <v>256</v>
           </cell>
           <cell r="BL14">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM14" t="str">
             <v>Successful</v>
@@ -4570,7 +4549,7 @@
             <v>60</v>
           </cell>
           <cell r="T15" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U15" t="str">
             <v>6</v>
@@ -4702,7 +4681,7 @@
             <v>192</v>
           </cell>
           <cell r="BL15">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM15" t="str">
             <v>Successful</v>
@@ -4776,7 +4755,7 @@
             <v>74</v>
           </cell>
           <cell r="T16" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U16" t="str">
             <v>8</v>
@@ -4908,7 +4887,7 @@
             <v>256</v>
           </cell>
           <cell r="BL16">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM16" t="str">
             <v>Successful</v>
@@ -5114,7 +5093,7 @@
             <v>288</v>
           </cell>
           <cell r="BL17">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM17" t="str">
             <v>Successful</v>
@@ -5188,7 +5167,7 @@
             <v>69</v>
           </cell>
           <cell r="T18" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U18" t="str">
             <v>7</v>
@@ -5320,7 +5299,7 @@
             <v>224</v>
           </cell>
           <cell r="BL18">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM18" t="str">
             <v>Successful</v>
@@ -5394,7 +5373,7 @@
             <v>71</v>
           </cell>
           <cell r="T19" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U19" t="str">
             <v>8</v>
@@ -5526,7 +5505,7 @@
             <v>256</v>
           </cell>
           <cell r="BL19">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM19" t="str">
             <v>Successful</v>
@@ -5600,7 +5579,7 @@
             <v>71</v>
           </cell>
           <cell r="T20" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U20" t="str">
             <v>8</v>
@@ -5732,7 +5711,7 @@
             <v>256</v>
           </cell>
           <cell r="BL20">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM20" t="str">
             <v>Successful</v>
@@ -5938,7 +5917,7 @@
             <v>288</v>
           </cell>
           <cell r="BL21">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM21" t="str">
             <v>Successful</v>
@@ -6012,7 +5991,7 @@
             <v>67</v>
           </cell>
           <cell r="T22" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U22" t="str">
             <v>7</v>
@@ -6144,7 +6123,7 @@
             <v>224</v>
           </cell>
           <cell r="BL22">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM22" t="str">
             <v>Successful</v>
@@ -6218,7 +6197,7 @@
             <v>69</v>
           </cell>
           <cell r="T23" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U23" t="str">
             <v>7</v>
@@ -6350,7 +6329,7 @@
             <v>224</v>
           </cell>
           <cell r="BL23">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM23" t="str">
             <v>Successful</v>
@@ -6556,7 +6535,7 @@
             <v>0</v>
           </cell>
           <cell r="BL24">
-            <v>0</v>
+            <v>-7.5</v>
           </cell>
           <cell r="BM24" t="str">
             <v>Unsuccessful</v>
@@ -6630,7 +6609,7 @@
             <v>70</v>
           </cell>
           <cell r="T25" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U25" t="str">
             <v>8</v>
@@ -6762,7 +6741,7 @@
             <v>256</v>
           </cell>
           <cell r="BL25">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM25" t="str">
             <v>Successful</v>
@@ -6836,7 +6815,7 @@
             <v>60</v>
           </cell>
           <cell r="T26" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U26" t="str">
             <v>6</v>
@@ -6968,7 +6947,7 @@
             <v>192</v>
           </cell>
           <cell r="BL26">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM26" t="str">
             <v>Successful</v>
@@ -7042,7 +7021,7 @@
             <v>74</v>
           </cell>
           <cell r="T27" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U27" t="str">
             <v>8</v>
@@ -7174,7 +7153,7 @@
             <v>256</v>
           </cell>
           <cell r="BL27">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM27" t="str">
             <v>Successful</v>
@@ -7380,7 +7359,7 @@
             <v>288</v>
           </cell>
           <cell r="BL28">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM28" t="str">
             <v>Successful</v>
@@ -7454,7 +7433,7 @@
             <v>69</v>
           </cell>
           <cell r="T29" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U29" t="str">
             <v>7</v>
@@ -7586,7 +7565,7 @@
             <v>224</v>
           </cell>
           <cell r="BL29">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM29" t="str">
             <v>Successful</v>
@@ -7660,7 +7639,7 @@
             <v>71</v>
           </cell>
           <cell r="T30" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U30" t="str">
             <v>8</v>
@@ -7792,7 +7771,7 @@
             <v>256</v>
           </cell>
           <cell r="BL30">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM30" t="str">
             <v>Successful</v>
@@ -7866,7 +7845,7 @@
             <v>71</v>
           </cell>
           <cell r="T31" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U31" t="str">
             <v>8</v>
@@ -7998,7 +7977,7 @@
             <v>256</v>
           </cell>
           <cell r="BL31">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM31" t="str">
             <v>Successful</v>
@@ -8204,7 +8183,7 @@
             <v>288</v>
           </cell>
           <cell r="BL32">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM32" t="str">
             <v>Successful</v>
@@ -8278,7 +8257,7 @@
             <v>67</v>
           </cell>
           <cell r="T33" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U33" t="str">
             <v>7</v>
@@ -8410,7 +8389,7 @@
             <v>224</v>
           </cell>
           <cell r="BL33">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM33" t="str">
             <v>Successful</v>
@@ -8484,7 +8463,7 @@
             <v>69</v>
           </cell>
           <cell r="T34" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U34" t="str">
             <v>7</v>
@@ -8616,7 +8595,7 @@
             <v>224</v>
           </cell>
           <cell r="BL34">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM34" t="str">
             <v>Successful</v>
@@ -8690,7 +8669,7 @@
             <v>65</v>
           </cell>
           <cell r="T35" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U35" t="str">
             <v>7</v>
@@ -8822,7 +8801,7 @@
             <v>224</v>
           </cell>
           <cell r="BL35">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM35" t="str">
             <v>Successful</v>
@@ -8896,7 +8875,7 @@
             <v>70</v>
           </cell>
           <cell r="T36" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U36" t="str">
             <v>8</v>
@@ -9028,7 +9007,7 @@
             <v>256</v>
           </cell>
           <cell r="BL36">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM36" t="str">
             <v>Successful</v>
@@ -9102,7 +9081,7 @@
             <v>60</v>
           </cell>
           <cell r="T37" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U37" t="str">
             <v>6</v>
@@ -9234,7 +9213,7 @@
             <v>192</v>
           </cell>
           <cell r="BL37">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM37" t="str">
             <v>Successful</v>
@@ -9308,7 +9287,7 @@
             <v>74</v>
           </cell>
           <cell r="T38" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U38" t="str">
             <v>8</v>
@@ -9440,7 +9419,7 @@
             <v>256</v>
           </cell>
           <cell r="BL38">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM38" t="str">
             <v>Successful</v>
@@ -9646,7 +9625,7 @@
             <v>288</v>
           </cell>
           <cell r="BL39">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM39" t="str">
             <v>Successful</v>
@@ -9720,7 +9699,7 @@
             <v>69</v>
           </cell>
           <cell r="T40" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U40" t="str">
             <v>7</v>
@@ -9852,7 +9831,7 @@
             <v>224</v>
           </cell>
           <cell r="BL40">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM40" t="str">
             <v>Successful</v>
@@ -9926,7 +9905,7 @@
             <v>71</v>
           </cell>
           <cell r="T41" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U41" t="str">
             <v>8</v>
@@ -10058,7 +10037,7 @@
             <v>256</v>
           </cell>
           <cell r="BL41">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM41" t="str">
             <v>Successful</v>
@@ -10132,7 +10111,7 @@
             <v>71</v>
           </cell>
           <cell r="T42" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U42" t="str">
             <v>8</v>
@@ -10264,7 +10243,7 @@
             <v>256</v>
           </cell>
           <cell r="BL42">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM42" t="str">
             <v>Successful</v>
@@ -10470,7 +10449,7 @@
             <v>288</v>
           </cell>
           <cell r="BL43">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM43" t="str">
             <v>Successful</v>
@@ -10544,7 +10523,7 @@
             <v>67</v>
           </cell>
           <cell r="T44" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U44" t="str">
             <v>7</v>
@@ -10676,7 +10655,7 @@
             <v>224</v>
           </cell>
           <cell r="BL44">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM44" t="str">
             <v>Successful</v>
@@ -10882,7 +10861,7 @@
             <v>0</v>
           </cell>
           <cell r="BL45">
-            <v>0</v>
+            <v>-7.5</v>
           </cell>
           <cell r="BM45" t="str">
             <v>Unsuccessful</v>
@@ -10956,7 +10935,7 @@
             <v>65</v>
           </cell>
           <cell r="T46" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U46" t="str">
             <v>7</v>
@@ -11088,7 +11067,7 @@
             <v>224</v>
           </cell>
           <cell r="BL46">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM46" t="str">
             <v>Successful</v>
@@ -11162,7 +11141,7 @@
             <v>70</v>
           </cell>
           <cell r="T47" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U47" t="str">
             <v>8</v>
@@ -11294,7 +11273,7 @@
             <v>256</v>
           </cell>
           <cell r="BL47">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM47" t="str">
             <v>Successful</v>
@@ -11368,7 +11347,7 @@
             <v>60</v>
           </cell>
           <cell r="T48" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U48" t="str">
             <v>6</v>
@@ -11500,7 +11479,7 @@
             <v>192</v>
           </cell>
           <cell r="BL48">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM48" t="str">
             <v>Successful</v>
@@ -11574,7 +11553,7 @@
             <v>74</v>
           </cell>
           <cell r="T49" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U49" t="str">
             <v>8</v>
@@ -11706,7 +11685,7 @@
             <v>256</v>
           </cell>
           <cell r="BL49">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM49" t="str">
             <v>Successful</v>
@@ -11912,7 +11891,7 @@
             <v>288</v>
           </cell>
           <cell r="BL50">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM50" t="str">
             <v>Successful</v>
@@ -11986,7 +11965,7 @@
             <v>69</v>
           </cell>
           <cell r="T51" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U51" t="str">
             <v>7</v>
@@ -12118,7 +12097,7 @@
             <v>224</v>
           </cell>
           <cell r="BL51">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM51" t="str">
             <v>Successful</v>
@@ -12192,7 +12171,7 @@
             <v>71</v>
           </cell>
           <cell r="T52" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U52" t="str">
             <v>8</v>
@@ -12324,7 +12303,7 @@
             <v>256</v>
           </cell>
           <cell r="BL52">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM52" t="str">
             <v>Successful</v>
@@ -12398,7 +12377,7 @@
             <v>71</v>
           </cell>
           <cell r="T53" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U53" t="str">
             <v>8</v>
@@ -12530,7 +12509,7 @@
             <v>256</v>
           </cell>
           <cell r="BL53">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM53" t="str">
             <v>Successful</v>
@@ -12736,7 +12715,7 @@
             <v>288</v>
           </cell>
           <cell r="BL54">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM54" t="str">
             <v>Successful</v>
@@ -12810,7 +12789,7 @@
             <v>67</v>
           </cell>
           <cell r="T55" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U55" t="str">
             <v>7</v>
@@ -12942,7 +12921,7 @@
             <v>224</v>
           </cell>
           <cell r="BL55">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM55" t="str">
             <v>Successful</v>
@@ -13016,7 +12995,7 @@
             <v>69</v>
           </cell>
           <cell r="T56" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U56" t="str">
             <v>7</v>
@@ -13148,7 +13127,7 @@
             <v>224</v>
           </cell>
           <cell r="BL56">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM56" t="str">
             <v>Successful</v>
@@ -13222,7 +13201,7 @@
             <v>65</v>
           </cell>
           <cell r="T57" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U57" t="str">
             <v>7</v>
@@ -13354,7 +13333,7 @@
             <v>224</v>
           </cell>
           <cell r="BL57">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM57" t="str">
             <v>Successful</v>
@@ -13428,7 +13407,7 @@
             <v>70</v>
           </cell>
           <cell r="T58" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U58" t="str">
             <v>8</v>
@@ -13560,7 +13539,7 @@
             <v>256</v>
           </cell>
           <cell r="BL58">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM58" t="str">
             <v>Successful</v>
@@ -13634,7 +13613,7 @@
             <v>60</v>
           </cell>
           <cell r="T59" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U59" t="str">
             <v>6</v>
@@ -13766,7 +13745,7 @@
             <v>192</v>
           </cell>
           <cell r="BL59">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM59" t="str">
             <v>Successful</v>
@@ -13840,7 +13819,7 @@
             <v>74</v>
           </cell>
           <cell r="T60" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U60" t="str">
             <v>8</v>
@@ -13972,7 +13951,7 @@
             <v>256</v>
           </cell>
           <cell r="BL60">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM60" t="str">
             <v>Successful</v>
@@ -14178,7 +14157,7 @@
             <v>288</v>
           </cell>
           <cell r="BL61">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM61" t="str">
             <v>Successful</v>
@@ -14252,7 +14231,7 @@
             <v>69</v>
           </cell>
           <cell r="T62" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U62" t="str">
             <v>7</v>
@@ -14384,7 +14363,7 @@
             <v>224</v>
           </cell>
           <cell r="BL62">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM62" t="str">
             <v>Successful</v>
@@ -14458,7 +14437,7 @@
             <v>71</v>
           </cell>
           <cell r="T63" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U63" t="str">
             <v>8</v>
@@ -14590,7 +14569,7 @@
             <v>256</v>
           </cell>
           <cell r="BL63">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM63" t="str">
             <v>Successful</v>
@@ -14664,7 +14643,7 @@
             <v>71</v>
           </cell>
           <cell r="T64" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U64" t="str">
             <v>8</v>
@@ -14796,7 +14775,7 @@
             <v>256</v>
           </cell>
           <cell r="BL64">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM64" t="str">
             <v>Successful</v>
@@ -15002,7 +14981,7 @@
             <v>288</v>
           </cell>
           <cell r="BL65">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM65" t="str">
             <v>Successful</v>
@@ -15076,7 +15055,7 @@
             <v>67</v>
           </cell>
           <cell r="T66" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U66" t="str">
             <v>7</v>
@@ -15208,7 +15187,7 @@
             <v>224</v>
           </cell>
           <cell r="BL66">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM66" t="str">
             <v>Successful</v>
@@ -15282,7 +15261,7 @@
             <v>69</v>
           </cell>
           <cell r="T67" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U67" t="str">
             <v>7</v>
@@ -15414,7 +15393,7 @@
             <v>224</v>
           </cell>
           <cell r="BL67">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM67" t="str">
             <v>Successful</v>
@@ -15488,7 +15467,7 @@
             <v>65</v>
           </cell>
           <cell r="T68" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U68" t="str">
             <v>7</v>
@@ -15620,7 +15599,7 @@
             <v>224</v>
           </cell>
           <cell r="BL68">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM68" t="str">
             <v>Successful</v>
@@ -15694,7 +15673,7 @@
             <v>70</v>
           </cell>
           <cell r="T69" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U69" t="str">
             <v>8</v>
@@ -15826,7 +15805,7 @@
             <v>256</v>
           </cell>
           <cell r="BL69">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM69" t="str">
             <v>Successful</v>
@@ -15900,7 +15879,7 @@
             <v>60</v>
           </cell>
           <cell r="T70" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U70" t="str">
             <v>6</v>
@@ -16032,7 +16011,7 @@
             <v>192</v>
           </cell>
           <cell r="BL70">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM70" t="str">
             <v>Successful</v>
@@ -16106,7 +16085,7 @@
             <v>74</v>
           </cell>
           <cell r="T71" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U71" t="str">
             <v>8</v>
@@ -16238,7 +16217,7 @@
             <v>256</v>
           </cell>
           <cell r="BL71">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM71" t="str">
             <v>Successful</v>
@@ -16444,7 +16423,7 @@
             <v>288</v>
           </cell>
           <cell r="BL72">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM72" t="str">
             <v>Successful</v>
@@ -16518,7 +16497,7 @@
             <v>69</v>
           </cell>
           <cell r="T73" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U73" t="str">
             <v>7</v>
@@ -16650,7 +16629,7 @@
             <v>224</v>
           </cell>
           <cell r="BL73">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM73" t="str">
             <v>Successful</v>
@@ -16724,7 +16703,7 @@
             <v>71</v>
           </cell>
           <cell r="T74" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U74" t="str">
             <v>8</v>
@@ -16856,7 +16835,7 @@
             <v>256</v>
           </cell>
           <cell r="BL74">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM74" t="str">
             <v>Successful</v>
@@ -16930,7 +16909,7 @@
             <v>71</v>
           </cell>
           <cell r="T75" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U75" t="str">
             <v>8</v>
@@ -17062,7 +17041,7 @@
             <v>256</v>
           </cell>
           <cell r="BL75">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM75" t="str">
             <v>Successful</v>
@@ -17268,7 +17247,7 @@
             <v>288</v>
           </cell>
           <cell r="BL76">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM76" t="str">
             <v>Successful</v>
@@ -17342,7 +17321,7 @@
             <v>67</v>
           </cell>
           <cell r="T77" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U77" t="str">
             <v>7</v>
@@ -17474,7 +17453,7 @@
             <v>224</v>
           </cell>
           <cell r="BL77">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM77" t="str">
             <v>Successful</v>
@@ -17548,7 +17527,7 @@
             <v>69</v>
           </cell>
           <cell r="T78" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U78" t="str">
             <v>7</v>
@@ -17680,7 +17659,7 @@
             <v>224</v>
           </cell>
           <cell r="BL78">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM78" t="str">
             <v>Successful</v>
@@ -17754,7 +17733,7 @@
             <v>65</v>
           </cell>
           <cell r="T79" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U79" t="str">
             <v>7</v>
@@ -17886,7 +17865,7 @@
             <v>224</v>
           </cell>
           <cell r="BL79">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM79" t="str">
             <v>Successful</v>
@@ -17960,7 +17939,7 @@
             <v>70</v>
           </cell>
           <cell r="T80" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U80" t="str">
             <v>8</v>
@@ -18092,7 +18071,7 @@
             <v>256</v>
           </cell>
           <cell r="BL80">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM80" t="str">
             <v>Successful</v>
@@ -18166,7 +18145,7 @@
             <v>60</v>
           </cell>
           <cell r="T81" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U81" t="str">
             <v>6</v>
@@ -18298,7 +18277,7 @@
             <v>192</v>
           </cell>
           <cell r="BL81">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM81" t="str">
             <v>Successful</v>
@@ -18372,7 +18351,7 @@
             <v>74</v>
           </cell>
           <cell r="T82" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U82" t="str">
             <v>8</v>
@@ -18504,7 +18483,7 @@
             <v>256</v>
           </cell>
           <cell r="BL82">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM82" t="str">
             <v>Successful</v>
@@ -18710,7 +18689,7 @@
             <v>288</v>
           </cell>
           <cell r="BL83">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM83" t="str">
             <v>Successful</v>
@@ -18784,7 +18763,7 @@
             <v>69</v>
           </cell>
           <cell r="T84" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U84" t="str">
             <v>7</v>
@@ -18916,7 +18895,7 @@
             <v>224</v>
           </cell>
           <cell r="BL84">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM84" t="str">
             <v>Successful</v>
@@ -18990,7 +18969,7 @@
             <v>71</v>
           </cell>
           <cell r="T85" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U85" t="str">
             <v>8</v>
@@ -19122,7 +19101,7 @@
             <v>256</v>
           </cell>
           <cell r="BL85">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM85" t="str">
             <v>Successful</v>
@@ -19196,7 +19175,7 @@
             <v>71</v>
           </cell>
           <cell r="T86" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U86" t="str">
             <v>8</v>
@@ -19328,7 +19307,7 @@
             <v>256</v>
           </cell>
           <cell r="BL86">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM86" t="str">
             <v>Successful</v>
@@ -19534,7 +19513,7 @@
             <v>288</v>
           </cell>
           <cell r="BL87">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM87" t="str">
             <v>Successful</v>
@@ -19608,7 +19587,7 @@
             <v>67</v>
           </cell>
           <cell r="T88" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U88" t="str">
             <v>7</v>
@@ -19740,7 +19719,7 @@
             <v>224</v>
           </cell>
           <cell r="BL88">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM88" t="str">
             <v>Successful</v>
@@ -19814,7 +19793,7 @@
             <v>69</v>
           </cell>
           <cell r="T89" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U89" t="str">
             <v>7</v>
@@ -19946,7 +19925,7 @@
             <v>224</v>
           </cell>
           <cell r="BL89">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM89" t="str">
             <v>Successful</v>
@@ -20020,7 +19999,7 @@
             <v>65</v>
           </cell>
           <cell r="T90" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U90" t="str">
             <v>7</v>
@@ -20152,7 +20131,7 @@
             <v>224</v>
           </cell>
           <cell r="BL90">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM90" t="str">
             <v>Successful</v>
@@ -20226,7 +20205,7 @@
             <v>70</v>
           </cell>
           <cell r="T91" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U91" t="str">
             <v>8</v>
@@ -20358,7 +20337,7 @@
             <v>256</v>
           </cell>
           <cell r="BL91">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM91" t="str">
             <v>Successful</v>
@@ -20432,7 +20411,7 @@
             <v>60</v>
           </cell>
           <cell r="T92" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U92" t="str">
             <v>6</v>
@@ -20564,7 +20543,7 @@
             <v>192</v>
           </cell>
           <cell r="BL92">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM92" t="str">
             <v>Successful</v>
@@ -20638,7 +20617,7 @@
             <v>74</v>
           </cell>
           <cell r="T93" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U93" t="str">
             <v>8</v>
@@ -20770,7 +20749,7 @@
             <v>256</v>
           </cell>
           <cell r="BL93">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM93" t="str">
             <v>Successful</v>
@@ -20976,7 +20955,7 @@
             <v>288</v>
           </cell>
           <cell r="BL94">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM94" t="str">
             <v>Successful</v>
@@ -21050,7 +21029,7 @@
             <v>69</v>
           </cell>
           <cell r="T95" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U95" t="str">
             <v>7</v>
@@ -21182,7 +21161,7 @@
             <v>224</v>
           </cell>
           <cell r="BL95">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM95" t="str">
             <v>Successful</v>
@@ -21256,7 +21235,7 @@
             <v>71</v>
           </cell>
           <cell r="T96" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U96" t="str">
             <v>8</v>
@@ -21388,7 +21367,7 @@
             <v>256</v>
           </cell>
           <cell r="BL96">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM96" t="str">
             <v>Successful</v>
@@ -21462,7 +21441,7 @@
             <v>71</v>
           </cell>
           <cell r="T97" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U97" t="str">
             <v>8</v>
@@ -21594,7 +21573,7 @@
             <v>256</v>
           </cell>
           <cell r="BL97">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM97" t="str">
             <v>Successful</v>
@@ -21800,7 +21779,7 @@
             <v>288</v>
           </cell>
           <cell r="BL98">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM98" t="str">
             <v>Successful</v>
@@ -21874,7 +21853,7 @@
             <v>67</v>
           </cell>
           <cell r="T99" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U99" t="str">
             <v>7</v>
@@ -22006,7 +21985,7 @@
             <v>224</v>
           </cell>
           <cell r="BL99">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM99" t="str">
             <v>Successful</v>
@@ -22080,7 +22059,7 @@
             <v>69</v>
           </cell>
           <cell r="T100" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U100" t="str">
             <v>7</v>
@@ -22212,7 +22191,7 @@
             <v>224</v>
           </cell>
           <cell r="BL100">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM100" t="str">
             <v>Successful</v>
@@ -22286,7 +22265,7 @@
             <v>65</v>
           </cell>
           <cell r="T101" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U101" t="str">
             <v>7</v>
@@ -22418,7 +22397,7 @@
             <v>224</v>
           </cell>
           <cell r="BL101">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM101" t="str">
             <v>Successful</v>
@@ -22492,7 +22471,7 @@
             <v>70</v>
           </cell>
           <cell r="T102" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U102" t="str">
             <v>8</v>
@@ -22624,7 +22603,7 @@
             <v>256</v>
           </cell>
           <cell r="BL102">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM102" t="str">
             <v>Successful</v>
@@ -22698,7 +22677,7 @@
             <v>60</v>
           </cell>
           <cell r="T103" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U103" t="str">
             <v>6</v>
@@ -22830,7 +22809,7 @@
             <v>192</v>
           </cell>
           <cell r="BL103">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM103" t="str">
             <v>Successful</v>
@@ -22904,7 +22883,7 @@
             <v>74</v>
           </cell>
           <cell r="T104" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U104" t="str">
             <v>8</v>
@@ -23036,7 +23015,7 @@
             <v>256</v>
           </cell>
           <cell r="BL104">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM104" t="str">
             <v>Successful</v>
@@ -23242,7 +23221,7 @@
             <v>288</v>
           </cell>
           <cell r="BL105">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM105" t="str">
             <v>Successful</v>
@@ -23316,7 +23295,7 @@
             <v>69</v>
           </cell>
           <cell r="T106" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U106" t="str">
             <v>7</v>
@@ -23448,7 +23427,7 @@
             <v>224</v>
           </cell>
           <cell r="BL106">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM106" t="str">
             <v>Successful</v>
@@ -23522,7 +23501,7 @@
             <v>71</v>
           </cell>
           <cell r="T107" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U107" t="str">
             <v>8</v>
@@ -23654,7 +23633,7 @@
             <v>256</v>
           </cell>
           <cell r="BL107">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM107" t="str">
             <v>Successful</v>
@@ -23728,7 +23707,7 @@
             <v>71</v>
           </cell>
           <cell r="T108" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U108" t="str">
             <v>8</v>
@@ -23860,7 +23839,7 @@
             <v>256</v>
           </cell>
           <cell r="BL108">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM108" t="str">
             <v>Successful</v>
@@ -24066,7 +24045,7 @@
             <v>288</v>
           </cell>
           <cell r="BL109">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM109" t="str">
             <v>Successful</v>
@@ -24140,7 +24119,7 @@
             <v>67</v>
           </cell>
           <cell r="T110" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U110" t="str">
             <v>7</v>
@@ -24272,7 +24251,7 @@
             <v>224</v>
           </cell>
           <cell r="BL110">
-            <v>67</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM110" t="str">
             <v>Successful</v>
@@ -24346,7 +24325,7 @@
             <v>69</v>
           </cell>
           <cell r="T111" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U111" t="str">
             <v>7</v>
@@ -24478,7 +24457,7 @@
             <v>224</v>
           </cell>
           <cell r="BL111">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM111" t="str">
             <v>Successful</v>
@@ -24552,7 +24531,7 @@
             <v>65</v>
           </cell>
           <cell r="T112" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U112" t="str">
             <v>7</v>
@@ -24684,7 +24663,7 @@
             <v>224</v>
           </cell>
           <cell r="BL112">
-            <v>65</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM112" t="str">
             <v>Successful</v>
@@ -24758,7 +24737,7 @@
             <v>70</v>
           </cell>
           <cell r="T113" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U113" t="str">
             <v>8</v>
@@ -24890,7 +24869,7 @@
             <v>256</v>
           </cell>
           <cell r="BL113">
-            <v>70</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM113" t="str">
             <v>Successful</v>
@@ -24964,7 +24943,7 @@
             <v>60</v>
           </cell>
           <cell r="T114" t="str">
-            <v>A</v>
+            <v>B</v>
           </cell>
           <cell r="U114" t="str">
             <v>6</v>
@@ -25096,7 +25075,7 @@
             <v>192</v>
           </cell>
           <cell r="BL114">
-            <v>60</v>
+            <v>52.5</v>
           </cell>
           <cell r="BM114" t="str">
             <v>Successful</v>
@@ -25170,7 +25149,7 @@
             <v>74</v>
           </cell>
           <cell r="T115" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U115" t="str">
             <v>8</v>
@@ -25302,7 +25281,7 @@
             <v>256</v>
           </cell>
           <cell r="BL115">
-            <v>74</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM115" t="str">
             <v>Successful</v>
@@ -25508,7 +25487,7 @@
             <v>288</v>
           </cell>
           <cell r="BL116">
-            <v>76</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM116" t="str">
             <v>Successful</v>
@@ -25582,7 +25561,7 @@
             <v>69</v>
           </cell>
           <cell r="T117" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U117" t="str">
             <v>7</v>
@@ -25714,7 +25693,7 @@
             <v>224</v>
           </cell>
           <cell r="BL117">
-            <v>69</v>
+            <v>62.5</v>
           </cell>
           <cell r="BM117" t="str">
             <v>Successful</v>
@@ -25788,7 +25767,7 @@
             <v>71</v>
           </cell>
           <cell r="T118" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U118" t="str">
             <v>8</v>
@@ -25920,7 +25899,7 @@
             <v>256</v>
           </cell>
           <cell r="BL118">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM118" t="str">
             <v>Successful</v>
@@ -25994,7 +25973,7 @@
             <v>71</v>
           </cell>
           <cell r="T119" t="str">
-            <v>A+</v>
+            <v>A</v>
           </cell>
           <cell r="U119" t="str">
             <v>8</v>
@@ -26126,7 +26105,7 @@
             <v>256</v>
           </cell>
           <cell r="BL119">
-            <v>71</v>
+            <v>72.5</v>
           </cell>
           <cell r="BM119" t="str">
             <v>Successful</v>
@@ -26332,7 +26311,7 @@
             <v>288</v>
           </cell>
           <cell r="BL120">
-            <v>75</v>
+            <v>82.5</v>
           </cell>
           <cell r="BM120" t="str">
             <v>Successful</v>
@@ -26406,7 +26385,7 @@
             <v>67</v>
           </cell>
           <cell r="T121" t="str">
-            <v>A</v>
+            <v>B+</v>
           </cell>
           <cell r="U121" t="str">
             <v>7</v>
@@ -26538,7 +26517,7 @@
             <v>220</v>
           </cell>
           <cell r="BL121">
-            <v>66.5</v>
+            <v>61.25</v>
           </cell>
           <cell r="BM121" t="str">
             <v>Successful</v>
@@ -26744,7 +26723,7 @@
             <v>0</v>
           </cell>
           <cell r="BL122">
-            <v>0</v>
+            <v>-7.5</v>
           </cell>
           <cell r="BM122" t="str">
             <v>Unsuccessful</v>
@@ -29275,7 +29254,7 @@
   <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I6"/>
+      <selection sqref="A1:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29293,221 +29272,219 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="28"/>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
     </row>
     <row r="8" spans="1:9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="str">
+      <c r="A9" s="13" t="str">
         <f>"NAME OF THE CANDIDATE : "&amp;VLOOKUP(D13,[1]Sheet1!$A:$B,2,0)</f>
         <v>NAME OF THE CANDIDATE : /ADIVAREKAR PRITI GIRIGHAR NAMRATA</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
-        <v>14</v>
+      <c r="A10" s="13" t="s">
+        <v>13</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="str">
+      <c r="A11" s="13" t="str">
         <f>"HELD IN : "&amp;'[2]Subjects List'!$C$13</f>
         <v>HELD IN : JANUARY 2019</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>15</v>
+      <c r="A12" s="13" t="s">
+        <v>14</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
+      <c r="A13" s="13" t="s">
+        <v>8</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10" t="s">
-        <v>18</v>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13" t="s">
+        <v>17</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
     </row>
     <row r="14" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14" t="s">
+      <c r="F15" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>4</v>
+      <c r="G15" s="19" t="s">
+        <v>9</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="H15" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="14" t="s">
-        <v>5</v>
+      <c r="I15" s="19" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1</v>
       </c>
-      <c r="B17" s="16" t="str">
+      <c r="B17" s="18" t="str">
         <f>'[2]Subjects List'!$C$4</f>
         <v>Perspective Management</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="3">
         <v>4</v>
       </c>
@@ -29531,12 +29508,12 @@
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="16" t="str">
+      <c r="B18" s="18" t="str">
         <f>'[2]Subjects List'!$C$5</f>
         <v>Financial Accounting</v>
       </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="3">
         <v>4</v>
       </c>
@@ -29560,18 +29537,18 @@
       <c r="A19" s="3">
         <v>3</v>
       </c>
-      <c r="B19" s="16" t="str">
+      <c r="B19" s="18" t="str">
         <f>'[2]Subjects List'!$C$6</f>
         <v>Business Statistics</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="3">
         <v>4</v>
       </c>
       <c r="F19" s="3" t="str">
         <f>VLOOKUP(D13,'[3]Subject Marks'!$A$3:$T$135,20,0)</f>
-        <v>A</v>
+        <v>B</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -29589,12 +29566,12 @@
       <c r="A20" s="3">
         <v>4</v>
       </c>
-      <c r="B20" s="16" t="str">
+      <c r="B20" s="18" t="str">
         <f>'[2]Subjects List'!$C$7</f>
         <v>Operations Management</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="3">
         <v>4</v>
       </c>
@@ -29618,12 +29595,12 @@
       <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="16" t="str">
+      <c r="B21" s="18" t="str">
         <f>'[2]Subjects List'!$C$8</f>
         <v>Managerial Economics</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="3">
         <v>4</v>
       </c>
@@ -29647,12 +29624,12 @@
       <c r="A22" s="3">
         <v>6</v>
       </c>
-      <c r="B22" s="16" t="str">
+      <c r="B22" s="18" t="str">
         <f>'[2]Subjects List'!$C$9</f>
         <v>Effective and Management Communication</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
       <c r="E22" s="3">
         <v>4</v>
       </c>
@@ -29676,12 +29653,12 @@
       <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="16" t="str">
+      <c r="B23" s="18" t="str">
         <f>'[2]Subjects List'!$C$10</f>
         <v>Negotiation and Selling Skills</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="3">
         <v>4</v>
       </c>
@@ -29705,12 +29682,12 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="16" t="str">
+      <c r="B24" s="18" t="str">
         <f>'[2]Subjects List'!$C$11</f>
         <v>Organisational Behaviour</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="3">
         <v>4</v>
       </c>
@@ -29732,11 +29709,11 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="17" t="s">
-        <v>7</v>
+      <c r="B25" s="29" t="s">
+        <v>6</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="5">
@@ -29757,36 +29734,36 @@
       <c r="B26" s="23"/>
       <c r="C26" s="23"/>
       <c r="D26" s="24"/>
-      <c r="E26" s="25" t="str">
+      <c r="E26" s="11" t="str">
         <f>"SGPI : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BN$122,66,0)</f>
         <v>SGPI : 5.25</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="25" t="str">
+      <c r="F26" s="12"/>
+      <c r="G26" s="11" t="str">
         <f>"Overall Grade : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BO$122,67,0)</f>
         <v>Overall Grade : C</v>
       </c>
-      <c r="H26" s="26"/>
+      <c r="H26" s="12"/>
       <c r="I26" s="7" t="str">
         <f>"Range : "&amp;VLOOKUP(D13,'[3]Subject Marks'!$A$3:$BP$122,68,0)</f>
         <v>Range : 55-59.99</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>8</v>
+      <c r="A27" s="14" t="s">
+        <v>7</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30" t="str">
+      <c r="B27" s="15"/>
+      <c r="C27" s="15" t="str">
         <f>'[2]Subjects List'!$C$15</f>
         <v>10/02/2019</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28"/>
@@ -29812,7 +29789,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30"/>
       <c r="C30" s="2"/>
@@ -29822,89 +29799,69 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E31"/>
-      <c r="G31" s="8" t="s">
-        <v>16</v>
+      <c r="G31" s="9" t="s">
+        <v>15</v>
       </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32"/>
       <c r="B32"/>
       <c r="C32"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33"/>
       <c r="C33"/>
       <c r="D33"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="8" t="s">
-        <v>17</v>
+      <c r="D34" s="9" t="s">
+        <v>16</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>6</v>
+      <c r="A38" s="8" t="s">
+        <v>5</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6uDjkxwoVLh/5XkJynEzWUewT4HJEkkxidDAMqElm8OVDscFoGN/6rfc2+Kpz3LVPElR4FPYGS6liUrrj9h5GA==" saltValue="kvKU5LSY2+e0GjmsTVlh0Q==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="x9S6RkJxY2uMsNbT4A3srL6TwSDcPlXgDKgVdPh7BOKRgw/BX1Ux/kn68m9NeXHF7ZIN+T9FHSxoTJbykBbf0Q==" saltValue="yKlTIDWS8mBnAYzrJCpM0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <protectedRanges>
     <protectedRange sqref="D13" name="Seat No."/>
   </protectedRanges>
-  <mergeCells count="37">
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A1:I6"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:I27"/>
-    <mergeCell ref="A7:I7"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="E26:F26"/>
+  <mergeCells count="36">
+    <mergeCell ref="A1:I7"/>
     <mergeCell ref="G31:I31"/>
     <mergeCell ref="A35:I35"/>
     <mergeCell ref="A9:G9"/>
@@ -29921,6 +29878,25 @@
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:I27"/>
+    <mergeCell ref="A14:I14"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
   </mergeCells>
   <pageMargins left="0.69" right="0" top="0.78740157480314965" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
